--- a/static/githubstatic/github_data.xlsx
+++ b/static/githubstatic/github_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:SO34"/>
+  <dimension ref="A1:UC34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2961,20 +2961,220 @@
       </c>
       <c r="SL1" s="1" t="inlineStr">
         <is>
+          <t>Repository.101</t>
+        </is>
+      </c>
+      <c r="SM1" s="1" t="inlineStr">
+        <is>
+          <t>Stars.101</t>
+        </is>
+      </c>
+      <c r="SN1" s="1" t="inlineStr">
+        <is>
+          <t>Watches.101</t>
+        </is>
+      </c>
+      <c r="SO1" s="1" t="inlineStr">
+        <is>
+          <t>Forks.101</t>
+        </is>
+      </c>
+      <c r="SP1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+      <c r="SQ1" s="1" t="inlineStr">
+        <is>
+          <t>Repository.102</t>
+        </is>
+      </c>
+      <c r="SR1" s="1" t="inlineStr">
+        <is>
+          <t>Stars.102</t>
+        </is>
+      </c>
+      <c r="SS1" s="1" t="inlineStr">
+        <is>
+          <t>Watches.102</t>
+        </is>
+      </c>
+      <c r="ST1" s="1" t="inlineStr">
+        <is>
+          <t>Forks.102</t>
+        </is>
+      </c>
+      <c r="SU1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+      <c r="SV1" s="1" t="inlineStr">
+        <is>
+          <t>Repository.103</t>
+        </is>
+      </c>
+      <c r="SW1" s="1" t="inlineStr">
+        <is>
+          <t>Stars.103</t>
+        </is>
+      </c>
+      <c r="SX1" s="1" t="inlineStr">
+        <is>
+          <t>Watches.103</t>
+        </is>
+      </c>
+      <c r="SY1" s="1" t="inlineStr">
+        <is>
+          <t>Forks.103</t>
+        </is>
+      </c>
+      <c r="SZ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+      <c r="TA1" s="1" t="inlineStr">
+        <is>
+          <t>Repository.104</t>
+        </is>
+      </c>
+      <c r="TB1" s="1" t="inlineStr">
+        <is>
+          <t>Stars.104</t>
+        </is>
+      </c>
+      <c r="TC1" s="1" t="inlineStr">
+        <is>
+          <t>Watches.104</t>
+        </is>
+      </c>
+      <c r="TD1" s="1" t="inlineStr">
+        <is>
+          <t>Forks.104</t>
+        </is>
+      </c>
+      <c r="TE1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
+        <is>
+          <t>Repository.105</t>
+        </is>
+      </c>
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>Stars.105</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>Watches.105</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
+        <is>
+          <t>Forks.105</t>
+        </is>
+      </c>
+      <c r="TJ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="TK1" s="1" t="inlineStr">
+        <is>
+          <t>Repository.106</t>
+        </is>
+      </c>
+      <c r="TL1" s="1" t="inlineStr">
+        <is>
+          <t>Stars.106</t>
+        </is>
+      </c>
+      <c r="TM1" s="1" t="inlineStr">
+        <is>
+          <t>Watches.106</t>
+        </is>
+      </c>
+      <c r="TN1" s="1" t="inlineStr">
+        <is>
+          <t>Forks.106</t>
+        </is>
+      </c>
+      <c r="TO1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-09</t>
+        </is>
+      </c>
+      <c r="TP1" s="1" t="inlineStr">
+        <is>
+          <t>Repository.107</t>
+        </is>
+      </c>
+      <c r="TQ1" s="1" t="inlineStr">
+        <is>
+          <t>Stars.107</t>
+        </is>
+      </c>
+      <c r="TR1" s="1" t="inlineStr">
+        <is>
+          <t>Watches.107</t>
+        </is>
+      </c>
+      <c r="TS1" s="1" t="inlineStr">
+        <is>
+          <t>Forks.107</t>
+        </is>
+      </c>
+      <c r="TT1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="TU1" s="1" t="inlineStr">
+        <is>
+          <t>Repository.108</t>
+        </is>
+      </c>
+      <c r="TV1" s="1" t="inlineStr">
+        <is>
+          <t>Stars.108</t>
+        </is>
+      </c>
+      <c r="TW1" s="1" t="inlineStr">
+        <is>
+          <t>Watches.108</t>
+        </is>
+      </c>
+      <c r="TX1" s="1" t="inlineStr">
+        <is>
+          <t>Forks.108</t>
+        </is>
+      </c>
+      <c r="TY1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="TZ1" s="1" t="inlineStr">
+        <is>
           <t>Repository</t>
         </is>
       </c>
-      <c r="SM1" s="1" t="inlineStr">
+      <c r="UA1" s="1" t="inlineStr">
         <is>
           <t>Stars</t>
         </is>
       </c>
-      <c r="SN1" s="1" t="inlineStr">
+      <c r="UB1" s="1" t="inlineStr">
         <is>
           <t>Watches</t>
         </is>
       </c>
-      <c r="SO1" s="1" t="inlineStr">
+      <c r="UC1" s="1" t="inlineStr">
         <is>
           <t>Forks</t>
         </is>
@@ -4320,6 +4520,126 @@
       <c r="SO2" t="n">
         <v>404</v>
       </c>
+      <c r="SP2" t="inlineStr"/>
+      <c r="SQ2" t="inlineStr">
+        <is>
+          <t>DigitalOcean/doctl</t>
+        </is>
+      </c>
+      <c r="SR2" t="n">
+        <v>3167</v>
+      </c>
+      <c r="SS2" t="n">
+        <v>134</v>
+      </c>
+      <c r="ST2" t="n">
+        <v>404</v>
+      </c>
+      <c r="SU2" t="inlineStr"/>
+      <c r="SV2" t="inlineStr">
+        <is>
+          <t>DigitalOcean/doctl</t>
+        </is>
+      </c>
+      <c r="SW2" t="n">
+        <v>3168</v>
+      </c>
+      <c r="SX2" t="n">
+        <v>134</v>
+      </c>
+      <c r="SY2" t="n">
+        <v>404</v>
+      </c>
+      <c r="SZ2" t="inlineStr"/>
+      <c r="TA2" t="inlineStr">
+        <is>
+          <t>DigitalOcean/doctl</t>
+        </is>
+      </c>
+      <c r="TB2" t="n">
+        <v>3169</v>
+      </c>
+      <c r="TC2" t="n">
+        <v>134</v>
+      </c>
+      <c r="TD2" t="n">
+        <v>404</v>
+      </c>
+      <c r="TE2" t="inlineStr"/>
+      <c r="TF2" t="inlineStr">
+        <is>
+          <t>DigitalOcean/doctl</t>
+        </is>
+      </c>
+      <c r="TG2" t="n">
+        <v>3169</v>
+      </c>
+      <c r="TH2" t="n">
+        <v>134</v>
+      </c>
+      <c r="TI2" t="n">
+        <v>404</v>
+      </c>
+      <c r="TJ2" t="inlineStr"/>
+      <c r="TK2" t="inlineStr">
+        <is>
+          <t>DigitalOcean/doctl</t>
+        </is>
+      </c>
+      <c r="TL2" t="n">
+        <v>3170</v>
+      </c>
+      <c r="TM2" t="n">
+        <v>135</v>
+      </c>
+      <c r="TN2" t="n">
+        <v>404</v>
+      </c>
+      <c r="TO2" t="inlineStr"/>
+      <c r="TP2" t="inlineStr">
+        <is>
+          <t>DigitalOcean/doctl</t>
+        </is>
+      </c>
+      <c r="TQ2" t="n">
+        <v>3171</v>
+      </c>
+      <c r="TR2" t="n">
+        <v>135</v>
+      </c>
+      <c r="TS2" t="n">
+        <v>403</v>
+      </c>
+      <c r="TT2" t="inlineStr"/>
+      <c r="TU2" t="inlineStr">
+        <is>
+          <t>DigitalOcean/doctl</t>
+        </is>
+      </c>
+      <c r="TV2" t="n">
+        <v>3171</v>
+      </c>
+      <c r="TW2" t="n">
+        <v>135</v>
+      </c>
+      <c r="TX2" t="n">
+        <v>403</v>
+      </c>
+      <c r="TY2" t="inlineStr"/>
+      <c r="TZ2" t="inlineStr">
+        <is>
+          <t>DigitalOcean/doctl</t>
+        </is>
+      </c>
+      <c r="UA2" t="n">
+        <v>3171</v>
+      </c>
+      <c r="UB2" t="n">
+        <v>135</v>
+      </c>
+      <c r="UC2" t="n">
+        <v>403</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5661,6 +5981,126 @@
       <c r="SO3" t="n">
         <v>23971</v>
       </c>
+      <c r="SP3" t="inlineStr"/>
+      <c r="SQ3" t="inlineStr">
+        <is>
+          <t>elastic/elasticsearch</t>
+        </is>
+      </c>
+      <c r="SR3" t="n">
+        <v>66290</v>
+      </c>
+      <c r="SS3" t="n">
+        <v>2680</v>
+      </c>
+      <c r="ST3" t="n">
+        <v>23981</v>
+      </c>
+      <c r="SU3" t="inlineStr"/>
+      <c r="SV3" t="inlineStr">
+        <is>
+          <t>elastic/elasticsearch</t>
+        </is>
+      </c>
+      <c r="SW3" t="n">
+        <v>66307</v>
+      </c>
+      <c r="SX3" t="n">
+        <v>2680</v>
+      </c>
+      <c r="SY3" t="n">
+        <v>23989</v>
+      </c>
+      <c r="SZ3" t="inlineStr"/>
+      <c r="TA3" t="inlineStr">
+        <is>
+          <t>elastic/elasticsearch</t>
+        </is>
+      </c>
+      <c r="TB3" t="n">
+        <v>66316</v>
+      </c>
+      <c r="TC3" t="n">
+        <v>2680</v>
+      </c>
+      <c r="TD3" t="n">
+        <v>23991</v>
+      </c>
+      <c r="TE3" t="inlineStr"/>
+      <c r="TF3" t="inlineStr">
+        <is>
+          <t>elastic/elasticsearch</t>
+        </is>
+      </c>
+      <c r="TG3" t="n">
+        <v>66329</v>
+      </c>
+      <c r="TH3" t="n">
+        <v>2680</v>
+      </c>
+      <c r="TI3" t="n">
+        <v>23993</v>
+      </c>
+      <c r="TJ3" t="inlineStr"/>
+      <c r="TK3" t="inlineStr">
+        <is>
+          <t>elastic/elasticsearch</t>
+        </is>
+      </c>
+      <c r="TL3" t="n">
+        <v>66336</v>
+      </c>
+      <c r="TM3" t="n">
+        <v>2680</v>
+      </c>
+      <c r="TN3" t="n">
+        <v>23996</v>
+      </c>
+      <c r="TO3" t="inlineStr"/>
+      <c r="TP3" t="inlineStr">
+        <is>
+          <t>elastic/elasticsearch</t>
+        </is>
+      </c>
+      <c r="TQ3" t="n">
+        <v>66348</v>
+      </c>
+      <c r="TR3" t="n">
+        <v>2683</v>
+      </c>
+      <c r="TS3" t="n">
+        <v>24001</v>
+      </c>
+      <c r="TT3" t="inlineStr"/>
+      <c r="TU3" t="inlineStr">
+        <is>
+          <t>elastic/elasticsearch</t>
+        </is>
+      </c>
+      <c r="TV3" t="n">
+        <v>66362</v>
+      </c>
+      <c r="TW3" t="n">
+        <v>2683</v>
+      </c>
+      <c r="TX3" t="n">
+        <v>24002</v>
+      </c>
+      <c r="TY3" t="inlineStr"/>
+      <c r="TZ3" t="inlineStr">
+        <is>
+          <t>elastic/elasticsearch</t>
+        </is>
+      </c>
+      <c r="UA3" t="n">
+        <v>66368</v>
+      </c>
+      <c r="UB3" t="n">
+        <v>2683</v>
+      </c>
+      <c r="UC3" t="n">
+        <v>24012</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7002,6 +7442,126 @@
       <c r="SO4" t="n">
         <v>11523</v>
       </c>
+      <c r="SP4" t="inlineStr"/>
+      <c r="SQ4" t="inlineStr">
+        <is>
+          <t>grafana/grafana</t>
+        </is>
+      </c>
+      <c r="SR4" t="n">
+        <v>58637</v>
+      </c>
+      <c r="SS4" t="n">
+        <v>1269</v>
+      </c>
+      <c r="ST4" t="n">
+        <v>11528</v>
+      </c>
+      <c r="SU4" t="inlineStr"/>
+      <c r="SV4" t="inlineStr">
+        <is>
+          <t>grafana/grafana</t>
+        </is>
+      </c>
+      <c r="SW4" t="n">
+        <v>58656</v>
+      </c>
+      <c r="SX4" t="n">
+        <v>1267</v>
+      </c>
+      <c r="SY4" t="n">
+        <v>11535</v>
+      </c>
+      <c r="SZ4" t="inlineStr"/>
+      <c r="TA4" t="inlineStr">
+        <is>
+          <t>grafana/grafana</t>
+        </is>
+      </c>
+      <c r="TB4" t="n">
+        <v>58671</v>
+      </c>
+      <c r="TC4" t="n">
+        <v>1266</v>
+      </c>
+      <c r="TD4" t="n">
+        <v>11540</v>
+      </c>
+      <c r="TE4" t="inlineStr"/>
+      <c r="TF4" t="inlineStr">
+        <is>
+          <t>grafana/grafana</t>
+        </is>
+      </c>
+      <c r="TG4" t="n">
+        <v>58685</v>
+      </c>
+      <c r="TH4" t="n">
+        <v>1267</v>
+      </c>
+      <c r="TI4" t="n">
+        <v>11539</v>
+      </c>
+      <c r="TJ4" t="inlineStr"/>
+      <c r="TK4" t="inlineStr">
+        <is>
+          <t>grafana/grafana</t>
+        </is>
+      </c>
+      <c r="TL4" t="n">
+        <v>58702</v>
+      </c>
+      <c r="TM4" t="n">
+        <v>1266</v>
+      </c>
+      <c r="TN4" t="n">
+        <v>11535</v>
+      </c>
+      <c r="TO4" t="inlineStr"/>
+      <c r="TP4" t="inlineStr">
+        <is>
+          <t>grafana/grafana</t>
+        </is>
+      </c>
+      <c r="TQ4" t="n">
+        <v>58717</v>
+      </c>
+      <c r="TR4" t="n">
+        <v>1265</v>
+      </c>
+      <c r="TS4" t="n">
+        <v>11536</v>
+      </c>
+      <c r="TT4" t="inlineStr"/>
+      <c r="TU4" t="inlineStr">
+        <is>
+          <t>grafana/grafana</t>
+        </is>
+      </c>
+      <c r="TV4" t="n">
+        <v>58725</v>
+      </c>
+      <c r="TW4" t="n">
+        <v>1268</v>
+      </c>
+      <c r="TX4" t="n">
+        <v>11538</v>
+      </c>
+      <c r="TY4" t="inlineStr"/>
+      <c r="TZ4" t="inlineStr">
+        <is>
+          <t>grafana/grafana</t>
+        </is>
+      </c>
+      <c r="UA4" t="n">
+        <v>58740</v>
+      </c>
+      <c r="UB4" t="n">
+        <v>1270</v>
+      </c>
+      <c r="UC4" t="n">
+        <v>11540</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8343,6 +8903,126 @@
       <c r="SO5" t="n">
         <v>8700</v>
       </c>
+      <c r="SP5" t="inlineStr"/>
+      <c r="SQ5" t="inlineStr">
+        <is>
+          <t>prometheus/prometheus</t>
+        </is>
+      </c>
+      <c r="SR5" t="n">
+        <v>51229</v>
+      </c>
+      <c r="SS5" t="n">
+        <v>1135</v>
+      </c>
+      <c r="ST5" t="n">
+        <v>8699</v>
+      </c>
+      <c r="SU5" t="inlineStr"/>
+      <c r="SV5" t="inlineStr">
+        <is>
+          <t>prometheus/prometheus</t>
+        </is>
+      </c>
+      <c r="SW5" t="n">
+        <v>51247</v>
+      </c>
+      <c r="SX5" t="n">
+        <v>1134</v>
+      </c>
+      <c r="SY5" t="n">
+        <v>8698</v>
+      </c>
+      <c r="SZ5" t="inlineStr"/>
+      <c r="TA5" t="inlineStr">
+        <is>
+          <t>prometheus/prometheus</t>
+        </is>
+      </c>
+      <c r="TB5" t="n">
+        <v>51259</v>
+      </c>
+      <c r="TC5" t="n">
+        <v>1134</v>
+      </c>
+      <c r="TD5" t="n">
+        <v>8700</v>
+      </c>
+      <c r="TE5" t="inlineStr"/>
+      <c r="TF5" t="inlineStr">
+        <is>
+          <t>prometheus/prometheus</t>
+        </is>
+      </c>
+      <c r="TG5" t="n">
+        <v>51267</v>
+      </c>
+      <c r="TH5" t="n">
+        <v>1134</v>
+      </c>
+      <c r="TI5" t="n">
+        <v>8696</v>
+      </c>
+      <c r="TJ5" t="inlineStr"/>
+      <c r="TK5" t="inlineStr">
+        <is>
+          <t>prometheus/prometheus</t>
+        </is>
+      </c>
+      <c r="TL5" t="n">
+        <v>51281</v>
+      </c>
+      <c r="TM5" t="n">
+        <v>1134</v>
+      </c>
+      <c r="TN5" t="n">
+        <v>8696</v>
+      </c>
+      <c r="TO5" t="inlineStr"/>
+      <c r="TP5" t="inlineStr">
+        <is>
+          <t>prometheus/prometheus</t>
+        </is>
+      </c>
+      <c r="TQ5" t="n">
+        <v>51294</v>
+      </c>
+      <c r="TR5" t="n">
+        <v>1136</v>
+      </c>
+      <c r="TS5" t="n">
+        <v>8697</v>
+      </c>
+      <c r="TT5" t="inlineStr"/>
+      <c r="TU5" t="inlineStr">
+        <is>
+          <t>prometheus/prometheus</t>
+        </is>
+      </c>
+      <c r="TV5" t="n">
+        <v>51305</v>
+      </c>
+      <c r="TW5" t="n">
+        <v>1136</v>
+      </c>
+      <c r="TX5" t="n">
+        <v>8700</v>
+      </c>
+      <c r="TY5" t="inlineStr"/>
+      <c r="TZ5" t="inlineStr">
+        <is>
+          <t>prometheus/prometheus</t>
+        </is>
+      </c>
+      <c r="UA5" t="n">
+        <v>51311</v>
+      </c>
+      <c r="UB5" t="n">
+        <v>1135</v>
+      </c>
+      <c r="UC5" t="n">
+        <v>8703</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9684,6 +10364,126 @@
       <c r="SO6" t="n">
         <v>5504</v>
       </c>
+      <c r="SP6" t="inlineStr"/>
+      <c r="SQ6" t="inlineStr">
+        <is>
+          <t>mongodb/mongo</t>
+        </is>
+      </c>
+      <c r="SR6" t="n">
+        <v>24876</v>
+      </c>
+      <c r="SS6" t="n">
+        <v>1233</v>
+      </c>
+      <c r="ST6" t="n">
+        <v>5502</v>
+      </c>
+      <c r="SU6" t="inlineStr"/>
+      <c r="SV6" t="inlineStr">
+        <is>
+          <t>mongodb/mongo</t>
+        </is>
+      </c>
+      <c r="SW6" t="n">
+        <v>24884</v>
+      </c>
+      <c r="SX6" t="n">
+        <v>1233</v>
+      </c>
+      <c r="SY6" t="n">
+        <v>5503</v>
+      </c>
+      <c r="SZ6" t="inlineStr"/>
+      <c r="TA6" t="inlineStr">
+        <is>
+          <t>mongodb/mongo</t>
+        </is>
+      </c>
+      <c r="TB6" t="n">
+        <v>24890</v>
+      </c>
+      <c r="TC6" t="n">
+        <v>1233</v>
+      </c>
+      <c r="TD6" t="n">
+        <v>5504</v>
+      </c>
+      <c r="TE6" t="inlineStr"/>
+      <c r="TF6" t="inlineStr">
+        <is>
+          <t>mongodb/mongo</t>
+        </is>
+      </c>
+      <c r="TG6" t="n">
+        <v>24891</v>
+      </c>
+      <c r="TH6" t="n">
+        <v>1233</v>
+      </c>
+      <c r="TI6" t="n">
+        <v>5504</v>
+      </c>
+      <c r="TJ6" t="inlineStr"/>
+      <c r="TK6" t="inlineStr">
+        <is>
+          <t>mongodb/mongo</t>
+        </is>
+      </c>
+      <c r="TL6" t="n">
+        <v>24895</v>
+      </c>
+      <c r="TM6" t="n">
+        <v>1233</v>
+      </c>
+      <c r="TN6" t="n">
+        <v>5505</v>
+      </c>
+      <c r="TO6" t="inlineStr"/>
+      <c r="TP6" t="inlineStr">
+        <is>
+          <t>mongodb/mongo</t>
+        </is>
+      </c>
+      <c r="TQ6" t="n">
+        <v>24898</v>
+      </c>
+      <c r="TR6" t="n">
+        <v>1233</v>
+      </c>
+      <c r="TS6" t="n">
+        <v>5507</v>
+      </c>
+      <c r="TT6" t="inlineStr"/>
+      <c r="TU6" t="inlineStr">
+        <is>
+          <t>mongodb/mongo</t>
+        </is>
+      </c>
+      <c r="TV6" t="n">
+        <v>24906</v>
+      </c>
+      <c r="TW6" t="n">
+        <v>1233</v>
+      </c>
+      <c r="TX6" t="n">
+        <v>5507</v>
+      </c>
+      <c r="TY6" t="inlineStr"/>
+      <c r="TZ6" t="inlineStr">
+        <is>
+          <t>mongodb/mongo</t>
+        </is>
+      </c>
+      <c r="UA6" t="n">
+        <v>24910</v>
+      </c>
+      <c r="UB6" t="n">
+        <v>1233</v>
+      </c>
+      <c r="UC6" t="n">
+        <v>5507</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -11025,6 +11825,126 @@
       <c r="SO7" t="n">
         <v>9312</v>
       </c>
+      <c r="SP7" t="inlineStr"/>
+      <c r="SQ7" t="inlineStr">
+        <is>
+          <t>hashicorp/terraform</t>
+        </is>
+      </c>
+      <c r="SR7" t="n">
+        <v>39946</v>
+      </c>
+      <c r="SS7" t="n">
+        <v>1192</v>
+      </c>
+      <c r="ST7" t="n">
+        <v>9312</v>
+      </c>
+      <c r="SU7" t="inlineStr"/>
+      <c r="SV7" t="inlineStr">
+        <is>
+          <t>hashicorp/terraform</t>
+        </is>
+      </c>
+      <c r="SW7" t="n">
+        <v>39962</v>
+      </c>
+      <c r="SX7" t="n">
+        <v>1191</v>
+      </c>
+      <c r="SY7" t="n">
+        <v>9313</v>
+      </c>
+      <c r="SZ7" t="inlineStr"/>
+      <c r="TA7" t="inlineStr">
+        <is>
+          <t>hashicorp/terraform</t>
+        </is>
+      </c>
+      <c r="TB7" t="n">
+        <v>39967</v>
+      </c>
+      <c r="TC7" t="n">
+        <v>1191</v>
+      </c>
+      <c r="TD7" t="n">
+        <v>9315</v>
+      </c>
+      <c r="TE7" t="inlineStr"/>
+      <c r="TF7" t="inlineStr">
+        <is>
+          <t>hashicorp/terraform</t>
+        </is>
+      </c>
+      <c r="TG7" t="n">
+        <v>39970</v>
+      </c>
+      <c r="TH7" t="n">
+        <v>1191</v>
+      </c>
+      <c r="TI7" t="n">
+        <v>9317</v>
+      </c>
+      <c r="TJ7" t="inlineStr"/>
+      <c r="TK7" t="inlineStr">
+        <is>
+          <t>hashicorp/terraform</t>
+        </is>
+      </c>
+      <c r="TL7" t="n">
+        <v>39979</v>
+      </c>
+      <c r="TM7" t="n">
+        <v>1190</v>
+      </c>
+      <c r="TN7" t="n">
+        <v>9321</v>
+      </c>
+      <c r="TO7" t="inlineStr"/>
+      <c r="TP7" t="inlineStr">
+        <is>
+          <t>hashicorp/terraform</t>
+        </is>
+      </c>
+      <c r="TQ7" t="n">
+        <v>39996</v>
+      </c>
+      <c r="TR7" t="n">
+        <v>1191</v>
+      </c>
+      <c r="TS7" t="n">
+        <v>9325</v>
+      </c>
+      <c r="TT7" t="inlineStr"/>
+      <c r="TU7" t="inlineStr">
+        <is>
+          <t>hashicorp/terraform</t>
+        </is>
+      </c>
+      <c r="TV7" t="n">
+        <v>40012</v>
+      </c>
+      <c r="TW7" t="n">
+        <v>1190</v>
+      </c>
+      <c r="TX7" t="n">
+        <v>9330</v>
+      </c>
+      <c r="TY7" t="inlineStr"/>
+      <c r="TZ7" t="inlineStr">
+        <is>
+          <t>hashicorp/terraform</t>
+        </is>
+      </c>
+      <c r="UA7" t="n">
+        <v>40022</v>
+      </c>
+      <c r="UB7" t="n">
+        <v>1190</v>
+      </c>
+      <c r="UC7" t="n">
+        <v>9328</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -12366,6 +13286,126 @@
       <c r="SO8" t="n">
         <v>4083</v>
       </c>
+      <c r="SP8" t="inlineStr"/>
+      <c r="SQ8" t="inlineStr">
+        <is>
+          <t>hashicorp/vault</t>
+        </is>
+      </c>
+      <c r="SR8" t="n">
+        <v>29077</v>
+      </c>
+      <c r="SS8" t="n">
+        <v>828</v>
+      </c>
+      <c r="ST8" t="n">
+        <v>4085</v>
+      </c>
+      <c r="SU8" t="inlineStr"/>
+      <c r="SV8" t="inlineStr">
+        <is>
+          <t>hashicorp/vault</t>
+        </is>
+      </c>
+      <c r="SW8" t="n">
+        <v>29081</v>
+      </c>
+      <c r="SX8" t="n">
+        <v>828</v>
+      </c>
+      <c r="SY8" t="n">
+        <v>4086</v>
+      </c>
+      <c r="SZ8" t="inlineStr"/>
+      <c r="TA8" t="inlineStr">
+        <is>
+          <t>hashicorp/vault</t>
+        </is>
+      </c>
+      <c r="TB8" t="n">
+        <v>29086</v>
+      </c>
+      <c r="TC8" t="n">
+        <v>828</v>
+      </c>
+      <c r="TD8" t="n">
+        <v>4086</v>
+      </c>
+      <c r="TE8" t="inlineStr"/>
+      <c r="TF8" t="inlineStr">
+        <is>
+          <t>hashicorp/vault</t>
+        </is>
+      </c>
+      <c r="TG8" t="n">
+        <v>29091</v>
+      </c>
+      <c r="TH8" t="n">
+        <v>828</v>
+      </c>
+      <c r="TI8" t="n">
+        <v>4086</v>
+      </c>
+      <c r="TJ8" t="inlineStr"/>
+      <c r="TK8" t="inlineStr">
+        <is>
+          <t>hashicorp/vault</t>
+        </is>
+      </c>
+      <c r="TL8" t="n">
+        <v>29094</v>
+      </c>
+      <c r="TM8" t="n">
+        <v>829</v>
+      </c>
+      <c r="TN8" t="n">
+        <v>4090</v>
+      </c>
+      <c r="TO8" t="inlineStr"/>
+      <c r="TP8" t="inlineStr">
+        <is>
+          <t>hashicorp/vault</t>
+        </is>
+      </c>
+      <c r="TQ8" t="n">
+        <v>29104</v>
+      </c>
+      <c r="TR8" t="n">
+        <v>829</v>
+      </c>
+      <c r="TS8" t="n">
+        <v>4092</v>
+      </c>
+      <c r="TT8" t="inlineStr"/>
+      <c r="TU8" t="inlineStr">
+        <is>
+          <t>hashicorp/vault</t>
+        </is>
+      </c>
+      <c r="TV8" t="n">
+        <v>29116</v>
+      </c>
+      <c r="TW8" t="n">
+        <v>828</v>
+      </c>
+      <c r="TX8" t="n">
+        <v>4092</v>
+      </c>
+      <c r="TY8" t="inlineStr"/>
+      <c r="TZ8" t="inlineStr">
+        <is>
+          <t>hashicorp/vault</t>
+        </is>
+      </c>
+      <c r="UA8" t="n">
+        <v>29121</v>
+      </c>
+      <c r="UB8" t="n">
+        <v>828</v>
+      </c>
+      <c r="UC8" t="n">
+        <v>4091</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -13707,6 +14747,126 @@
       <c r="SO9" t="n">
         <v>5783</v>
       </c>
+      <c r="SP9" t="inlineStr"/>
+      <c r="SQ9" t="inlineStr">
+        <is>
+          <t>gitlabhq/gitlabhq</t>
+        </is>
+      </c>
+      <c r="SR9" t="n">
+        <v>23455</v>
+      </c>
+      <c r="SS9" t="n">
+        <v>974</v>
+      </c>
+      <c r="ST9" t="n">
+        <v>5782</v>
+      </c>
+      <c r="SU9" t="inlineStr"/>
+      <c r="SV9" t="inlineStr">
+        <is>
+          <t>gitlabhq/gitlabhq</t>
+        </is>
+      </c>
+      <c r="SW9" t="n">
+        <v>23456</v>
+      </c>
+      <c r="SX9" t="n">
+        <v>974</v>
+      </c>
+      <c r="SY9" t="n">
+        <v>5782</v>
+      </c>
+      <c r="SZ9" t="inlineStr"/>
+      <c r="TA9" t="inlineStr">
+        <is>
+          <t>gitlabhq/gitlabhq</t>
+        </is>
+      </c>
+      <c r="TB9" t="n">
+        <v>23456</v>
+      </c>
+      <c r="TC9" t="n">
+        <v>974</v>
+      </c>
+      <c r="TD9" t="n">
+        <v>5781</v>
+      </c>
+      <c r="TE9" t="inlineStr"/>
+      <c r="TF9" t="inlineStr">
+        <is>
+          <t>gitlabhq/gitlabhq</t>
+        </is>
+      </c>
+      <c r="TG9" t="n">
+        <v>23457</v>
+      </c>
+      <c r="TH9" t="n">
+        <v>974</v>
+      </c>
+      <c r="TI9" t="n">
+        <v>5781</v>
+      </c>
+      <c r="TJ9" t="inlineStr"/>
+      <c r="TK9" t="inlineStr">
+        <is>
+          <t>gitlabhq/gitlabhq</t>
+        </is>
+      </c>
+      <c r="TL9" t="n">
+        <v>23459</v>
+      </c>
+      <c r="TM9" t="n">
+        <v>975</v>
+      </c>
+      <c r="TN9" t="n">
+        <v>5781</v>
+      </c>
+      <c r="TO9" t="inlineStr"/>
+      <c r="TP9" t="inlineStr">
+        <is>
+          <t>gitlabhq/gitlabhq</t>
+        </is>
+      </c>
+      <c r="TQ9" t="n">
+        <v>23461</v>
+      </c>
+      <c r="TR9" t="n">
+        <v>975</v>
+      </c>
+      <c r="TS9" t="n">
+        <v>5782</v>
+      </c>
+      <c r="TT9" t="inlineStr"/>
+      <c r="TU9" t="inlineStr">
+        <is>
+          <t>gitlabhq/gitlabhq</t>
+        </is>
+      </c>
+      <c r="TV9" t="n">
+        <v>23460</v>
+      </c>
+      <c r="TW9" t="n">
+        <v>975</v>
+      </c>
+      <c r="TX9" t="n">
+        <v>5782</v>
+      </c>
+      <c r="TY9" t="inlineStr"/>
+      <c r="TZ9" t="inlineStr">
+        <is>
+          <t>gitlabhq/gitlabhq</t>
+        </is>
+      </c>
+      <c r="UA9" t="n">
+        <v>23463</v>
+      </c>
+      <c r="UB9" t="n">
+        <v>975</v>
+      </c>
+      <c r="UC9" t="n">
+        <v>5782</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -15048,6 +16208,126 @@
       <c r="SO10" t="n">
         <v>13336</v>
       </c>
+      <c r="SP10" t="inlineStr"/>
+      <c r="SQ10" t="inlineStr">
+        <is>
+          <t>apache/kafka</t>
+        </is>
+      </c>
+      <c r="SR10" t="n">
+        <v>26529</v>
+      </c>
+      <c r="SS10" t="n">
+        <v>1074</v>
+      </c>
+      <c r="ST10" t="n">
+        <v>13340</v>
+      </c>
+      <c r="SU10" t="inlineStr"/>
+      <c r="SV10" t="inlineStr">
+        <is>
+          <t>apache/kafka</t>
+        </is>
+      </c>
+      <c r="SW10" t="n">
+        <v>26543</v>
+      </c>
+      <c r="SX10" t="n">
+        <v>1074</v>
+      </c>
+      <c r="SY10" t="n">
+        <v>13347</v>
+      </c>
+      <c r="SZ10" t="inlineStr"/>
+      <c r="TA10" t="inlineStr">
+        <is>
+          <t>apache/kafka</t>
+        </is>
+      </c>
+      <c r="TB10" t="n">
+        <v>26553</v>
+      </c>
+      <c r="TC10" t="n">
+        <v>1073</v>
+      </c>
+      <c r="TD10" t="n">
+        <v>13348</v>
+      </c>
+      <c r="TE10" t="inlineStr"/>
+      <c r="TF10" t="inlineStr">
+        <is>
+          <t>apache/kafka</t>
+        </is>
+      </c>
+      <c r="TG10" t="n">
+        <v>26560</v>
+      </c>
+      <c r="TH10" t="n">
+        <v>1074</v>
+      </c>
+      <c r="TI10" t="n">
+        <v>13350</v>
+      </c>
+      <c r="TJ10" t="inlineStr"/>
+      <c r="TK10" t="inlineStr">
+        <is>
+          <t>apache/kafka</t>
+        </is>
+      </c>
+      <c r="TL10" t="n">
+        <v>26562</v>
+      </c>
+      <c r="TM10" t="n">
+        <v>1074</v>
+      </c>
+      <c r="TN10" t="n">
+        <v>13354</v>
+      </c>
+      <c r="TO10" t="inlineStr"/>
+      <c r="TP10" t="inlineStr">
+        <is>
+          <t>apache/kafka</t>
+        </is>
+      </c>
+      <c r="TQ10" t="n">
+        <v>26577</v>
+      </c>
+      <c r="TR10" t="n">
+        <v>1074</v>
+      </c>
+      <c r="TS10" t="n">
+        <v>13358</v>
+      </c>
+      <c r="TT10" t="inlineStr"/>
+      <c r="TU10" t="inlineStr">
+        <is>
+          <t>apache/kafka</t>
+        </is>
+      </c>
+      <c r="TV10" t="n">
+        <v>26582</v>
+      </c>
+      <c r="TW10" t="n">
+        <v>1074</v>
+      </c>
+      <c r="TX10" t="n">
+        <v>13363</v>
+      </c>
+      <c r="TY10" t="inlineStr"/>
+      <c r="TZ10" t="inlineStr">
+        <is>
+          <t>apache/kafka</t>
+        </is>
+      </c>
+      <c r="UA10" t="n">
+        <v>26589</v>
+      </c>
+      <c r="UB10" t="n">
+        <v>1075</v>
+      </c>
+      <c r="UC10" t="n">
+        <v>13367</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -16389,6 +17669,126 @@
       <c r="SO11" t="n">
         <v>12987</v>
       </c>
+      <c r="SP11" t="inlineStr"/>
+      <c r="SQ11" t="inlineStr">
+        <is>
+          <t>apache/flink</t>
+        </is>
+      </c>
+      <c r="SR11" t="n">
+        <v>22539</v>
+      </c>
+      <c r="SS11" t="n">
+        <v>943</v>
+      </c>
+      <c r="ST11" t="n">
+        <v>12989</v>
+      </c>
+      <c r="SU11" t="inlineStr"/>
+      <c r="SV11" t="inlineStr">
+        <is>
+          <t>apache/flink</t>
+        </is>
+      </c>
+      <c r="SW11" t="n">
+        <v>22545</v>
+      </c>
+      <c r="SX11" t="n">
+        <v>943</v>
+      </c>
+      <c r="SY11" t="n">
+        <v>12989</v>
+      </c>
+      <c r="SZ11" t="inlineStr"/>
+      <c r="TA11" t="inlineStr">
+        <is>
+          <t>apache/flink</t>
+        </is>
+      </c>
+      <c r="TB11" t="n">
+        <v>22548</v>
+      </c>
+      <c r="TC11" t="n">
+        <v>943</v>
+      </c>
+      <c r="TD11" t="n">
+        <v>12990</v>
+      </c>
+      <c r="TE11" t="inlineStr"/>
+      <c r="TF11" t="inlineStr">
+        <is>
+          <t>apache/flink</t>
+        </is>
+      </c>
+      <c r="TG11" t="n">
+        <v>22550</v>
+      </c>
+      <c r="TH11" t="n">
+        <v>943</v>
+      </c>
+      <c r="TI11" t="n">
+        <v>12992</v>
+      </c>
+      <c r="TJ11" t="inlineStr"/>
+      <c r="TK11" t="inlineStr">
+        <is>
+          <t>apache/flink</t>
+        </is>
+      </c>
+      <c r="TL11" t="n">
+        <v>22554</v>
+      </c>
+      <c r="TM11" t="n">
+        <v>943</v>
+      </c>
+      <c r="TN11" t="n">
+        <v>12994</v>
+      </c>
+      <c r="TO11" t="inlineStr"/>
+      <c r="TP11" t="inlineStr">
+        <is>
+          <t>apache/flink</t>
+        </is>
+      </c>
+      <c r="TQ11" t="n">
+        <v>22558</v>
+      </c>
+      <c r="TR11" t="n">
+        <v>943</v>
+      </c>
+      <c r="TS11" t="n">
+        <v>13002</v>
+      </c>
+      <c r="TT11" t="inlineStr"/>
+      <c r="TU11" t="inlineStr">
+        <is>
+          <t>apache/flink</t>
+        </is>
+      </c>
+      <c r="TV11" t="n">
+        <v>22567</v>
+      </c>
+      <c r="TW11" t="n">
+        <v>943</v>
+      </c>
+      <c r="TX11" t="n">
+        <v>13004</v>
+      </c>
+      <c r="TY11" t="inlineStr"/>
+      <c r="TZ11" t="inlineStr">
+        <is>
+          <t>apache/flink</t>
+        </is>
+      </c>
+      <c r="UA11" t="n">
+        <v>22580</v>
+      </c>
+      <c r="UB11" t="n">
+        <v>943</v>
+      </c>
+      <c r="UC11" t="n">
+        <v>13007</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -17730,6 +19130,126 @@
       <c r="SO12" t="n">
         <v>28092</v>
       </c>
+      <c r="SP12" t="inlineStr"/>
+      <c r="SQ12" t="inlineStr">
+        <is>
+          <t>apache/spark</t>
+        </is>
+      </c>
+      <c r="SR12" t="n">
+        <v>37509</v>
+      </c>
+      <c r="SS12" t="n">
+        <v>2033</v>
+      </c>
+      <c r="ST12" t="n">
+        <v>28092</v>
+      </c>
+      <c r="SU12" t="inlineStr"/>
+      <c r="SV12" t="inlineStr">
+        <is>
+          <t>apache/spark</t>
+        </is>
+      </c>
+      <c r="SW12" t="n">
+        <v>37520</v>
+      </c>
+      <c r="SX12" t="n">
+        <v>2033</v>
+      </c>
+      <c r="SY12" t="n">
+        <v>28093</v>
+      </c>
+      <c r="SZ12" t="inlineStr"/>
+      <c r="TA12" t="inlineStr">
+        <is>
+          <t>apache/spark</t>
+        </is>
+      </c>
+      <c r="TB12" t="n">
+        <v>37525</v>
+      </c>
+      <c r="TC12" t="n">
+        <v>2034</v>
+      </c>
+      <c r="TD12" t="n">
+        <v>28097</v>
+      </c>
+      <c r="TE12" t="inlineStr"/>
+      <c r="TF12" t="inlineStr">
+        <is>
+          <t>apache/spark</t>
+        </is>
+      </c>
+      <c r="TG12" t="n">
+        <v>37529</v>
+      </c>
+      <c r="TH12" t="n">
+        <v>2033</v>
+      </c>
+      <c r="TI12" t="n">
+        <v>28097</v>
+      </c>
+      <c r="TJ12" t="inlineStr"/>
+      <c r="TK12" t="inlineStr">
+        <is>
+          <t>apache/spark</t>
+        </is>
+      </c>
+      <c r="TL12" t="n">
+        <v>37540</v>
+      </c>
+      <c r="TM12" t="n">
+        <v>2034</v>
+      </c>
+      <c r="TN12" t="n">
+        <v>28099</v>
+      </c>
+      <c r="TO12" t="inlineStr"/>
+      <c r="TP12" t="inlineStr">
+        <is>
+          <t>apache/spark</t>
+        </is>
+      </c>
+      <c r="TQ12" t="n">
+        <v>37545</v>
+      </c>
+      <c r="TR12" t="n">
+        <v>2034</v>
+      </c>
+      <c r="TS12" t="n">
+        <v>28104</v>
+      </c>
+      <c r="TT12" t="inlineStr"/>
+      <c r="TU12" t="inlineStr">
+        <is>
+          <t>apache/spark</t>
+        </is>
+      </c>
+      <c r="TV12" t="n">
+        <v>37548</v>
+      </c>
+      <c r="TW12" t="n">
+        <v>2033</v>
+      </c>
+      <c r="TX12" t="n">
+        <v>28109</v>
+      </c>
+      <c r="TY12" t="inlineStr"/>
+      <c r="TZ12" t="inlineStr">
+        <is>
+          <t>apache/spark</t>
+        </is>
+      </c>
+      <c r="UA12" t="n">
+        <v>37554</v>
+      </c>
+      <c r="UB12" t="n">
+        <v>2033</v>
+      </c>
+      <c r="UC12" t="n">
+        <v>28110</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -19071,6 +20591,126 @@
       <c r="SO13" t="n">
         <v>641</v>
       </c>
+      <c r="SP13" t="inlineStr"/>
+      <c r="SQ13" t="inlineStr">
+        <is>
+          <t>atlassian-api/atlassian-python-api</t>
+        </is>
+      </c>
+      <c r="SR13" t="n">
+        <v>1191</v>
+      </c>
+      <c r="SS13" t="n">
+        <v>40</v>
+      </c>
+      <c r="ST13" t="n">
+        <v>642</v>
+      </c>
+      <c r="SU13" t="inlineStr"/>
+      <c r="SV13" t="inlineStr">
+        <is>
+          <t>atlassian-api/atlassian-python-api</t>
+        </is>
+      </c>
+      <c r="SW13" t="n">
+        <v>1193</v>
+      </c>
+      <c r="SX13" t="n">
+        <v>40</v>
+      </c>
+      <c r="SY13" t="n">
+        <v>643</v>
+      </c>
+      <c r="SZ13" t="inlineStr"/>
+      <c r="TA13" t="inlineStr">
+        <is>
+          <t>atlassian-api/atlassian-python-api</t>
+        </is>
+      </c>
+      <c r="TB13" t="n">
+        <v>1193</v>
+      </c>
+      <c r="TC13" t="n">
+        <v>40</v>
+      </c>
+      <c r="TD13" t="n">
+        <v>643</v>
+      </c>
+      <c r="TE13" t="inlineStr"/>
+      <c r="TF13" t="inlineStr">
+        <is>
+          <t>atlassian-api/atlassian-python-api</t>
+        </is>
+      </c>
+      <c r="TG13" t="n">
+        <v>1195</v>
+      </c>
+      <c r="TH13" t="n">
+        <v>40</v>
+      </c>
+      <c r="TI13" t="n">
+        <v>644</v>
+      </c>
+      <c r="TJ13" t="inlineStr"/>
+      <c r="TK13" t="inlineStr">
+        <is>
+          <t>atlassian-api/atlassian-python-api</t>
+        </is>
+      </c>
+      <c r="TL13" t="n">
+        <v>1196</v>
+      </c>
+      <c r="TM13" t="n">
+        <v>40</v>
+      </c>
+      <c r="TN13" t="n">
+        <v>644</v>
+      </c>
+      <c r="TO13" t="inlineStr"/>
+      <c r="TP13" t="inlineStr">
+        <is>
+          <t>atlassian-api/atlassian-python-api</t>
+        </is>
+      </c>
+      <c r="TQ13" t="n">
+        <v>1196</v>
+      </c>
+      <c r="TR13" t="n">
+        <v>40</v>
+      </c>
+      <c r="TS13" t="n">
+        <v>644</v>
+      </c>
+      <c r="TT13" t="inlineStr"/>
+      <c r="TU13" t="inlineStr">
+        <is>
+          <t>atlassian-api/atlassian-python-api</t>
+        </is>
+      </c>
+      <c r="TV13" t="n">
+        <v>1196</v>
+      </c>
+      <c r="TW13" t="n">
+        <v>40</v>
+      </c>
+      <c r="TX13" t="n">
+        <v>644</v>
+      </c>
+      <c r="TY13" t="inlineStr"/>
+      <c r="TZ13" t="inlineStr">
+        <is>
+          <t>atlassian-api/atlassian-python-api</t>
+        </is>
+      </c>
+      <c r="UA13" t="n">
+        <v>1197</v>
+      </c>
+      <c r="UB13" t="n">
+        <v>40</v>
+      </c>
+      <c r="UC13" t="n">
+        <v>644</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -20412,6 +22052,126 @@
       <c r="SO14" t="n">
         <v>136</v>
       </c>
+      <c r="SP14" t="inlineStr"/>
+      <c r="SQ14" t="inlineStr">
+        <is>
+          <t>dynatrace/dynatrace-operator</t>
+        </is>
+      </c>
+      <c r="SR14" t="n">
+        <v>142</v>
+      </c>
+      <c r="SS14" t="n">
+        <v>12</v>
+      </c>
+      <c r="ST14" t="n">
+        <v>136</v>
+      </c>
+      <c r="SU14" t="inlineStr"/>
+      <c r="SV14" t="inlineStr">
+        <is>
+          <t>dynatrace/dynatrace-operator</t>
+        </is>
+      </c>
+      <c r="SW14" t="n">
+        <v>142</v>
+      </c>
+      <c r="SX14" t="n">
+        <v>12</v>
+      </c>
+      <c r="SY14" t="n">
+        <v>136</v>
+      </c>
+      <c r="SZ14" t="inlineStr"/>
+      <c r="TA14" t="inlineStr">
+        <is>
+          <t>dynatrace/dynatrace-operator</t>
+        </is>
+      </c>
+      <c r="TB14" t="n">
+        <v>142</v>
+      </c>
+      <c r="TC14" t="n">
+        <v>12</v>
+      </c>
+      <c r="TD14" t="n">
+        <v>136</v>
+      </c>
+      <c r="TE14" t="inlineStr"/>
+      <c r="TF14" t="inlineStr">
+        <is>
+          <t>dynatrace/dynatrace-operator</t>
+        </is>
+      </c>
+      <c r="TG14" t="n">
+        <v>142</v>
+      </c>
+      <c r="TH14" t="n">
+        <v>12</v>
+      </c>
+      <c r="TI14" t="n">
+        <v>136</v>
+      </c>
+      <c r="TJ14" t="inlineStr"/>
+      <c r="TK14" t="inlineStr">
+        <is>
+          <t>dynatrace/dynatrace-operator</t>
+        </is>
+      </c>
+      <c r="TL14" t="n">
+        <v>142</v>
+      </c>
+      <c r="TM14" t="n">
+        <v>12</v>
+      </c>
+      <c r="TN14" t="n">
+        <v>136</v>
+      </c>
+      <c r="TO14" t="inlineStr"/>
+      <c r="TP14" t="inlineStr">
+        <is>
+          <t>dynatrace/dynatrace-operator</t>
+        </is>
+      </c>
+      <c r="TQ14" t="n">
+        <v>142</v>
+      </c>
+      <c r="TR14" t="n">
+        <v>12</v>
+      </c>
+      <c r="TS14" t="n">
+        <v>136</v>
+      </c>
+      <c r="TT14" t="inlineStr"/>
+      <c r="TU14" t="inlineStr">
+        <is>
+          <t>dynatrace/dynatrace-operator</t>
+        </is>
+      </c>
+      <c r="TV14" t="n">
+        <v>142</v>
+      </c>
+      <c r="TW14" t="n">
+        <v>12</v>
+      </c>
+      <c r="TX14" t="n">
+        <v>136</v>
+      </c>
+      <c r="TY14" t="inlineStr"/>
+      <c r="TZ14" t="inlineStr">
+        <is>
+          <t>dynatrace/dynatrace-operator</t>
+        </is>
+      </c>
+      <c r="UA14" t="n">
+        <v>142</v>
+      </c>
+      <c r="UB14" t="n">
+        <v>12</v>
+      </c>
+      <c r="UC14" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -21753,6 +23513,126 @@
       <c r="SO15" t="n">
         <v>304</v>
       </c>
+      <c r="SP15" t="inlineStr"/>
+      <c r="SQ15" t="inlineStr">
+        <is>
+          <t>couchbase/couchbase-lite-ios</t>
+        </is>
+      </c>
+      <c r="SR15" t="n">
+        <v>1606</v>
+      </c>
+      <c r="SS15" t="n">
+        <v>85</v>
+      </c>
+      <c r="ST15" t="n">
+        <v>304</v>
+      </c>
+      <c r="SU15" t="inlineStr"/>
+      <c r="SV15" t="inlineStr">
+        <is>
+          <t>couchbase/couchbase-lite-ios</t>
+        </is>
+      </c>
+      <c r="SW15" t="n">
+        <v>1606</v>
+      </c>
+      <c r="SX15" t="n">
+        <v>85</v>
+      </c>
+      <c r="SY15" t="n">
+        <v>304</v>
+      </c>
+      <c r="SZ15" t="inlineStr"/>
+      <c r="TA15" t="inlineStr">
+        <is>
+          <t>couchbase/couchbase-lite-ios</t>
+        </is>
+      </c>
+      <c r="TB15" t="n">
+        <v>1606</v>
+      </c>
+      <c r="TC15" t="n">
+        <v>85</v>
+      </c>
+      <c r="TD15" t="n">
+        <v>304</v>
+      </c>
+      <c r="TE15" t="inlineStr"/>
+      <c r="TF15" t="inlineStr">
+        <is>
+          <t>couchbase/couchbase-lite-ios</t>
+        </is>
+      </c>
+      <c r="TG15" t="n">
+        <v>1606</v>
+      </c>
+      <c r="TH15" t="n">
+        <v>85</v>
+      </c>
+      <c r="TI15" t="n">
+        <v>304</v>
+      </c>
+      <c r="TJ15" t="inlineStr"/>
+      <c r="TK15" t="inlineStr">
+        <is>
+          <t>couchbase/couchbase-lite-ios</t>
+        </is>
+      </c>
+      <c r="TL15" t="n">
+        <v>1606</v>
+      </c>
+      <c r="TM15" t="n">
+        <v>85</v>
+      </c>
+      <c r="TN15" t="n">
+        <v>304</v>
+      </c>
+      <c r="TO15" t="inlineStr"/>
+      <c r="TP15" t="inlineStr">
+        <is>
+          <t>couchbase/couchbase-lite-ios</t>
+        </is>
+      </c>
+      <c r="TQ15" t="n">
+        <v>1606</v>
+      </c>
+      <c r="TR15" t="n">
+        <v>85</v>
+      </c>
+      <c r="TS15" t="n">
+        <v>304</v>
+      </c>
+      <c r="TT15" t="inlineStr"/>
+      <c r="TU15" t="inlineStr">
+        <is>
+          <t>couchbase/couchbase-lite-ios</t>
+        </is>
+      </c>
+      <c r="TV15" t="n">
+        <v>1607</v>
+      </c>
+      <c r="TW15" t="n">
+        <v>85</v>
+      </c>
+      <c r="TX15" t="n">
+        <v>304</v>
+      </c>
+      <c r="TY15" t="inlineStr"/>
+      <c r="TZ15" t="inlineStr">
+        <is>
+          <t>couchbase/couchbase-lite-ios</t>
+        </is>
+      </c>
+      <c r="UA15" t="n">
+        <v>1607</v>
+      </c>
+      <c r="UB15" t="n">
+        <v>85</v>
+      </c>
+      <c r="UC15" t="n">
+        <v>304</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -23094,6 +24974,126 @@
       <c r="SO16" t="n">
         <v>1129</v>
       </c>
+      <c r="SP16" t="inlineStr"/>
+      <c r="SQ16" t="inlineStr">
+        <is>
+          <t>DataDog/datadog-agent</t>
+        </is>
+      </c>
+      <c r="SR16" t="n">
+        <v>2426</v>
+      </c>
+      <c r="SS16" t="n">
+        <v>491</v>
+      </c>
+      <c r="ST16" t="n">
+        <v>1129</v>
+      </c>
+      <c r="SU16" t="inlineStr"/>
+      <c r="SV16" t="inlineStr">
+        <is>
+          <t>DataDog/datadog-agent</t>
+        </is>
+      </c>
+      <c r="SW16" t="n">
+        <v>2430</v>
+      </c>
+      <c r="SX16" t="n">
+        <v>492</v>
+      </c>
+      <c r="SY16" t="n">
+        <v>1129</v>
+      </c>
+      <c r="SZ16" t="inlineStr"/>
+      <c r="TA16" t="inlineStr">
+        <is>
+          <t>DataDog/datadog-agent</t>
+        </is>
+      </c>
+      <c r="TB16" t="n">
+        <v>2432</v>
+      </c>
+      <c r="TC16" t="n">
+        <v>491</v>
+      </c>
+      <c r="TD16" t="n">
+        <v>1129</v>
+      </c>
+      <c r="TE16" t="inlineStr"/>
+      <c r="TF16" t="inlineStr">
+        <is>
+          <t>DataDog/datadog-agent</t>
+        </is>
+      </c>
+      <c r="TG16" t="n">
+        <v>2433</v>
+      </c>
+      <c r="TH16" t="n">
+        <v>491</v>
+      </c>
+      <c r="TI16" t="n">
+        <v>1129</v>
+      </c>
+      <c r="TJ16" t="inlineStr"/>
+      <c r="TK16" t="inlineStr">
+        <is>
+          <t>DataDog/datadog-agent</t>
+        </is>
+      </c>
+      <c r="TL16" t="n">
+        <v>2433</v>
+      </c>
+      <c r="TM16" t="n">
+        <v>491</v>
+      </c>
+      <c r="TN16" t="n">
+        <v>1129</v>
+      </c>
+      <c r="TO16" t="inlineStr"/>
+      <c r="TP16" t="inlineStr">
+        <is>
+          <t>DataDog/datadog-agent</t>
+        </is>
+      </c>
+      <c r="TQ16" t="n">
+        <v>2433</v>
+      </c>
+      <c r="TR16" t="n">
+        <v>490</v>
+      </c>
+      <c r="TS16" t="n">
+        <v>1131</v>
+      </c>
+      <c r="TT16" t="inlineStr"/>
+      <c r="TU16" t="inlineStr">
+        <is>
+          <t>DataDog/datadog-agent</t>
+        </is>
+      </c>
+      <c r="TV16" t="n">
+        <v>2434</v>
+      </c>
+      <c r="TW16" t="n">
+        <v>489</v>
+      </c>
+      <c r="TX16" t="n">
+        <v>1131</v>
+      </c>
+      <c r="TY16" t="inlineStr"/>
+      <c r="TZ16" t="inlineStr">
+        <is>
+          <t>DataDog/datadog-agent</t>
+        </is>
+      </c>
+      <c r="UA16" t="n">
+        <v>2435</v>
+      </c>
+      <c r="UB16" t="n">
+        <v>489</v>
+      </c>
+      <c r="UC16" t="n">
+        <v>1131</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -24435,6 +26435,126 @@
       <c r="SO17" t="n">
         <v>851</v>
       </c>
+      <c r="SP17" t="inlineStr"/>
+      <c r="SQ17" t="inlineStr">
+        <is>
+          <t>DataDog/dd-agent</t>
+        </is>
+      </c>
+      <c r="SR17" t="n">
+        <v>1297</v>
+      </c>
+      <c r="SS17" t="n">
+        <v>393</v>
+      </c>
+      <c r="ST17" t="n">
+        <v>851</v>
+      </c>
+      <c r="SU17" t="inlineStr"/>
+      <c r="SV17" t="inlineStr">
+        <is>
+          <t>DataDog/dd-agent</t>
+        </is>
+      </c>
+      <c r="SW17" t="n">
+        <v>1297</v>
+      </c>
+      <c r="SX17" t="n">
+        <v>393</v>
+      </c>
+      <c r="SY17" t="n">
+        <v>851</v>
+      </c>
+      <c r="SZ17" t="inlineStr"/>
+      <c r="TA17" t="inlineStr">
+        <is>
+          <t>DataDog/dd-agent</t>
+        </is>
+      </c>
+      <c r="TB17" t="n">
+        <v>1297</v>
+      </c>
+      <c r="TC17" t="n">
+        <v>393</v>
+      </c>
+      <c r="TD17" t="n">
+        <v>852</v>
+      </c>
+      <c r="TE17" t="inlineStr"/>
+      <c r="TF17" t="inlineStr">
+        <is>
+          <t>DataDog/dd-agent</t>
+        </is>
+      </c>
+      <c r="TG17" t="n">
+        <v>1297</v>
+      </c>
+      <c r="TH17" t="n">
+        <v>393</v>
+      </c>
+      <c r="TI17" t="n">
+        <v>852</v>
+      </c>
+      <c r="TJ17" t="inlineStr"/>
+      <c r="TK17" t="inlineStr">
+        <is>
+          <t>DataDog/dd-agent</t>
+        </is>
+      </c>
+      <c r="TL17" t="n">
+        <v>1297</v>
+      </c>
+      <c r="TM17" t="n">
+        <v>393</v>
+      </c>
+      <c r="TN17" t="n">
+        <v>852</v>
+      </c>
+      <c r="TO17" t="inlineStr"/>
+      <c r="TP17" t="inlineStr">
+        <is>
+          <t>DataDog/dd-agent</t>
+        </is>
+      </c>
+      <c r="TQ17" t="n">
+        <v>1297</v>
+      </c>
+      <c r="TR17" t="n">
+        <v>393</v>
+      </c>
+      <c r="TS17" t="n">
+        <v>852</v>
+      </c>
+      <c r="TT17" t="inlineStr"/>
+      <c r="TU17" t="inlineStr">
+        <is>
+          <t>DataDog/dd-agent</t>
+        </is>
+      </c>
+      <c r="TV17" t="n">
+        <v>1297</v>
+      </c>
+      <c r="TW17" t="n">
+        <v>393</v>
+      </c>
+      <c r="TX17" t="n">
+        <v>852</v>
+      </c>
+      <c r="TY17" t="inlineStr"/>
+      <c r="TZ17" t="inlineStr">
+        <is>
+          <t>DataDog/dd-agent</t>
+        </is>
+      </c>
+      <c r="UA17" t="n">
+        <v>1297</v>
+      </c>
+      <c r="UB17" t="n">
+        <v>393</v>
+      </c>
+      <c r="UC17" t="n">
+        <v>853</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -25776,6 +27896,126 @@
       <c r="SO18" t="n">
         <v>337</v>
       </c>
+      <c r="SP18" t="inlineStr"/>
+      <c r="SQ18" t="inlineStr">
+        <is>
+          <t>DataDog/datadogpy</t>
+        </is>
+      </c>
+      <c r="SR18" t="n">
+        <v>584</v>
+      </c>
+      <c r="SS18" t="n">
+        <v>517</v>
+      </c>
+      <c r="ST18" t="n">
+        <v>337</v>
+      </c>
+      <c r="SU18" t="inlineStr"/>
+      <c r="SV18" t="inlineStr">
+        <is>
+          <t>DataDog/datadogpy</t>
+        </is>
+      </c>
+      <c r="SW18" t="n">
+        <v>585</v>
+      </c>
+      <c r="SX18" t="n">
+        <v>517</v>
+      </c>
+      <c r="SY18" t="n">
+        <v>337</v>
+      </c>
+      <c r="SZ18" t="inlineStr"/>
+      <c r="TA18" t="inlineStr">
+        <is>
+          <t>DataDog/datadogpy</t>
+        </is>
+      </c>
+      <c r="TB18" t="n">
+        <v>585</v>
+      </c>
+      <c r="TC18" t="n">
+        <v>516</v>
+      </c>
+      <c r="TD18" t="n">
+        <v>337</v>
+      </c>
+      <c r="TE18" t="inlineStr"/>
+      <c r="TF18" t="inlineStr">
+        <is>
+          <t>DataDog/datadogpy</t>
+        </is>
+      </c>
+      <c r="TG18" t="n">
+        <v>585</v>
+      </c>
+      <c r="TH18" t="n">
+        <v>516</v>
+      </c>
+      <c r="TI18" t="n">
+        <v>337</v>
+      </c>
+      <c r="TJ18" t="inlineStr"/>
+      <c r="TK18" t="inlineStr">
+        <is>
+          <t>DataDog/datadogpy</t>
+        </is>
+      </c>
+      <c r="TL18" t="n">
+        <v>585</v>
+      </c>
+      <c r="TM18" t="n">
+        <v>516</v>
+      </c>
+      <c r="TN18" t="n">
+        <v>337</v>
+      </c>
+      <c r="TO18" t="inlineStr"/>
+      <c r="TP18" t="inlineStr">
+        <is>
+          <t>DataDog/datadogpy</t>
+        </is>
+      </c>
+      <c r="TQ18" t="n">
+        <v>585</v>
+      </c>
+      <c r="TR18" t="n">
+        <v>517</v>
+      </c>
+      <c r="TS18" t="n">
+        <v>337</v>
+      </c>
+      <c r="TT18" t="inlineStr"/>
+      <c r="TU18" t="inlineStr">
+        <is>
+          <t>DataDog/datadogpy</t>
+        </is>
+      </c>
+      <c r="TV18" t="n">
+        <v>585</v>
+      </c>
+      <c r="TW18" t="n">
+        <v>515</v>
+      </c>
+      <c r="TX18" t="n">
+        <v>337</v>
+      </c>
+      <c r="TY18" t="inlineStr"/>
+      <c r="TZ18" t="inlineStr">
+        <is>
+          <t>DataDog/datadogpy</t>
+        </is>
+      </c>
+      <c r="UA18" t="n">
+        <v>585</v>
+      </c>
+      <c r="UB18" t="n">
+        <v>515</v>
+      </c>
+      <c r="UC18" t="n">
+        <v>337</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -27117,6 +29357,126 @@
       <c r="SO19" t="n">
         <v>736</v>
       </c>
+      <c r="SP19" t="inlineStr"/>
+      <c r="SQ19" t="inlineStr">
+        <is>
+          <t>HubSpot/odometer</t>
+        </is>
+      </c>
+      <c r="SR19" t="n">
+        <v>7261</v>
+      </c>
+      <c r="SS19" t="n">
+        <v>285</v>
+      </c>
+      <c r="ST19" t="n">
+        <v>736</v>
+      </c>
+      <c r="SU19" t="inlineStr"/>
+      <c r="SV19" t="inlineStr">
+        <is>
+          <t>HubSpot/odometer</t>
+        </is>
+      </c>
+      <c r="SW19" t="n">
+        <v>7261</v>
+      </c>
+      <c r="SX19" t="n">
+        <v>285</v>
+      </c>
+      <c r="SY19" t="n">
+        <v>736</v>
+      </c>
+      <c r="SZ19" t="inlineStr"/>
+      <c r="TA19" t="inlineStr">
+        <is>
+          <t>HubSpot/odometer</t>
+        </is>
+      </c>
+      <c r="TB19" t="n">
+        <v>7262</v>
+      </c>
+      <c r="TC19" t="n">
+        <v>285</v>
+      </c>
+      <c r="TD19" t="n">
+        <v>736</v>
+      </c>
+      <c r="TE19" t="inlineStr"/>
+      <c r="TF19" t="inlineStr">
+        <is>
+          <t>HubSpot/odometer</t>
+        </is>
+      </c>
+      <c r="TG19" t="n">
+        <v>7262</v>
+      </c>
+      <c r="TH19" t="n">
+        <v>285</v>
+      </c>
+      <c r="TI19" t="n">
+        <v>736</v>
+      </c>
+      <c r="TJ19" t="inlineStr"/>
+      <c r="TK19" t="inlineStr">
+        <is>
+          <t>HubSpot/odometer</t>
+        </is>
+      </c>
+      <c r="TL19" t="n">
+        <v>7262</v>
+      </c>
+      <c r="TM19" t="n">
+        <v>285</v>
+      </c>
+      <c r="TN19" t="n">
+        <v>736</v>
+      </c>
+      <c r="TO19" t="inlineStr"/>
+      <c r="TP19" t="inlineStr">
+        <is>
+          <t>HubSpot/odometer</t>
+        </is>
+      </c>
+      <c r="TQ19" t="n">
+        <v>7263</v>
+      </c>
+      <c r="TR19" t="n">
+        <v>285</v>
+      </c>
+      <c r="TS19" t="n">
+        <v>736</v>
+      </c>
+      <c r="TT19" t="inlineStr"/>
+      <c r="TU19" t="inlineStr">
+        <is>
+          <t>HubSpot/odometer</t>
+        </is>
+      </c>
+      <c r="TV19" t="n">
+        <v>7261</v>
+      </c>
+      <c r="TW19" t="n">
+        <v>285</v>
+      </c>
+      <c r="TX19" t="n">
+        <v>737</v>
+      </c>
+      <c r="TY19" t="inlineStr"/>
+      <c r="TZ19" t="inlineStr">
+        <is>
+          <t>HubSpot/odometer</t>
+        </is>
+      </c>
+      <c r="UA19" t="n">
+        <v>7261</v>
+      </c>
+      <c r="UB19" t="n">
+        <v>286</v>
+      </c>
+      <c r="UC19" t="n">
+        <v>737</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -28458,6 +30818,126 @@
       <c r="SO20" t="n">
         <v>56</v>
       </c>
+      <c r="SP20" t="inlineStr"/>
+      <c r="SQ20" t="inlineStr">
+        <is>
+          <t>MicroStrategy/mstrio-py</t>
+        </is>
+      </c>
+      <c r="SR20" t="n">
+        <v>87</v>
+      </c>
+      <c r="SS20" t="n">
+        <v>25</v>
+      </c>
+      <c r="ST20" t="n">
+        <v>56</v>
+      </c>
+      <c r="SU20" t="inlineStr"/>
+      <c r="SV20" t="inlineStr">
+        <is>
+          <t>MicroStrategy/mstrio-py</t>
+        </is>
+      </c>
+      <c r="SW20" t="n">
+        <v>87</v>
+      </c>
+      <c r="SX20" t="n">
+        <v>25</v>
+      </c>
+      <c r="SY20" t="n">
+        <v>56</v>
+      </c>
+      <c r="SZ20" t="inlineStr"/>
+      <c r="TA20" t="inlineStr">
+        <is>
+          <t>MicroStrategy/mstrio-py</t>
+        </is>
+      </c>
+      <c r="TB20" t="n">
+        <v>87</v>
+      </c>
+      <c r="TC20" t="n">
+        <v>25</v>
+      </c>
+      <c r="TD20" t="n">
+        <v>56</v>
+      </c>
+      <c r="TE20" t="inlineStr"/>
+      <c r="TF20" t="inlineStr">
+        <is>
+          <t>MicroStrategy/mstrio-py</t>
+        </is>
+      </c>
+      <c r="TG20" t="n">
+        <v>87</v>
+      </c>
+      <c r="TH20" t="n">
+        <v>25</v>
+      </c>
+      <c r="TI20" t="n">
+        <v>56</v>
+      </c>
+      <c r="TJ20" t="inlineStr"/>
+      <c r="TK20" t="inlineStr">
+        <is>
+          <t>MicroStrategy/mstrio-py</t>
+        </is>
+      </c>
+      <c r="TL20" t="n">
+        <v>87</v>
+      </c>
+      <c r="TM20" t="n">
+        <v>25</v>
+      </c>
+      <c r="TN20" t="n">
+        <v>56</v>
+      </c>
+      <c r="TO20" t="inlineStr"/>
+      <c r="TP20" t="inlineStr">
+        <is>
+          <t>MicroStrategy/mstrio-py</t>
+        </is>
+      </c>
+      <c r="TQ20" t="n">
+        <v>87</v>
+      </c>
+      <c r="TR20" t="n">
+        <v>25</v>
+      </c>
+      <c r="TS20" t="n">
+        <v>56</v>
+      </c>
+      <c r="TT20" t="inlineStr"/>
+      <c r="TU20" t="inlineStr">
+        <is>
+          <t>MicroStrategy/mstrio-py</t>
+        </is>
+      </c>
+      <c r="TV20" t="n">
+        <v>87</v>
+      </c>
+      <c r="TW20" t="n">
+        <v>25</v>
+      </c>
+      <c r="TX20" t="n">
+        <v>56</v>
+      </c>
+      <c r="TY20" t="inlineStr"/>
+      <c r="TZ20" t="inlineStr">
+        <is>
+          <t>MicroStrategy/mstrio-py</t>
+        </is>
+      </c>
+      <c r="UA20" t="n">
+        <v>87</v>
+      </c>
+      <c r="UB20" t="n">
+        <v>25</v>
+      </c>
+      <c r="UC20" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -29799,6 +32279,126 @@
       <c r="SO21" t="n">
         <v>744</v>
       </c>
+      <c r="SP21" t="inlineStr"/>
+      <c r="SQ21" t="inlineStr">
+        <is>
+          <t>twilio/twilio-python</t>
+        </is>
+      </c>
+      <c r="SR21" t="n">
+        <v>1742</v>
+      </c>
+      <c r="SS21" t="n">
+        <v>124</v>
+      </c>
+      <c r="ST21" t="n">
+        <v>744</v>
+      </c>
+      <c r="SU21" t="inlineStr"/>
+      <c r="SV21" t="inlineStr">
+        <is>
+          <t>twilio/twilio-python</t>
+        </is>
+      </c>
+      <c r="SW21" t="n">
+        <v>1743</v>
+      </c>
+      <c r="SX21" t="n">
+        <v>124</v>
+      </c>
+      <c r="SY21" t="n">
+        <v>744</v>
+      </c>
+      <c r="SZ21" t="inlineStr"/>
+      <c r="TA21" t="inlineStr">
+        <is>
+          <t>twilio/twilio-python</t>
+        </is>
+      </c>
+      <c r="TB21" t="n">
+        <v>1744</v>
+      </c>
+      <c r="TC21" t="n">
+        <v>124</v>
+      </c>
+      <c r="TD21" t="n">
+        <v>744</v>
+      </c>
+      <c r="TE21" t="inlineStr"/>
+      <c r="TF21" t="inlineStr">
+        <is>
+          <t>twilio/twilio-python</t>
+        </is>
+      </c>
+      <c r="TG21" t="n">
+        <v>1744</v>
+      </c>
+      <c r="TH21" t="n">
+        <v>124</v>
+      </c>
+      <c r="TI21" t="n">
+        <v>744</v>
+      </c>
+      <c r="TJ21" t="inlineStr"/>
+      <c r="TK21" t="inlineStr">
+        <is>
+          <t>twilio/twilio-python</t>
+        </is>
+      </c>
+      <c r="TL21" t="n">
+        <v>1744</v>
+      </c>
+      <c r="TM21" t="n">
+        <v>124</v>
+      </c>
+      <c r="TN21" t="n">
+        <v>744</v>
+      </c>
+      <c r="TO21" t="inlineStr"/>
+      <c r="TP21" t="inlineStr">
+        <is>
+          <t>twilio/twilio-python</t>
+        </is>
+      </c>
+      <c r="TQ21" t="n">
+        <v>1744</v>
+      </c>
+      <c r="TR21" t="n">
+        <v>125</v>
+      </c>
+      <c r="TS21" t="n">
+        <v>744</v>
+      </c>
+      <c r="TT21" t="inlineStr"/>
+      <c r="TU21" t="inlineStr">
+        <is>
+          <t>twilio/twilio-python</t>
+        </is>
+      </c>
+      <c r="TV21" t="n">
+        <v>1745</v>
+      </c>
+      <c r="TW21" t="n">
+        <v>125</v>
+      </c>
+      <c r="TX21" t="n">
+        <v>744</v>
+      </c>
+      <c r="TY21" t="inlineStr"/>
+      <c r="TZ21" t="inlineStr">
+        <is>
+          <t>twilio/twilio-python</t>
+        </is>
+      </c>
+      <c r="UA21" t="n">
+        <v>1747</v>
+      </c>
+      <c r="UB21" t="n">
+        <v>125</v>
+      </c>
+      <c r="UC21" t="n">
+        <v>744</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -31140,6 +33740,126 @@
       <c r="SO22" t="n">
         <v>607</v>
       </c>
+      <c r="SP22" t="inlineStr"/>
+      <c r="SQ22" t="inlineStr">
+        <is>
+          <t>twilio/twilio-php</t>
+        </is>
+      </c>
+      <c r="SR22" t="n">
+        <v>1466</v>
+      </c>
+      <c r="SS22" t="n">
+        <v>127</v>
+      </c>
+      <c r="ST22" t="n">
+        <v>607</v>
+      </c>
+      <c r="SU22" t="inlineStr"/>
+      <c r="SV22" t="inlineStr">
+        <is>
+          <t>twilio/twilio-php</t>
+        </is>
+      </c>
+      <c r="SW22" t="n">
+        <v>1465</v>
+      </c>
+      <c r="SX22" t="n">
+        <v>127</v>
+      </c>
+      <c r="SY22" t="n">
+        <v>607</v>
+      </c>
+      <c r="SZ22" t="inlineStr"/>
+      <c r="TA22" t="inlineStr">
+        <is>
+          <t>twilio/twilio-php</t>
+        </is>
+      </c>
+      <c r="TB22" t="n">
+        <v>1465</v>
+      </c>
+      <c r="TC22" t="n">
+        <v>127</v>
+      </c>
+      <c r="TD22" t="n">
+        <v>606</v>
+      </c>
+      <c r="TE22" t="inlineStr"/>
+      <c r="TF22" t="inlineStr">
+        <is>
+          <t>twilio/twilio-php</t>
+        </is>
+      </c>
+      <c r="TG22" t="n">
+        <v>1465</v>
+      </c>
+      <c r="TH22" t="n">
+        <v>127</v>
+      </c>
+      <c r="TI22" t="n">
+        <v>606</v>
+      </c>
+      <c r="TJ22" t="inlineStr"/>
+      <c r="TK22" t="inlineStr">
+        <is>
+          <t>twilio/twilio-php</t>
+        </is>
+      </c>
+      <c r="TL22" t="n">
+        <v>1465</v>
+      </c>
+      <c r="TM22" t="n">
+        <v>127</v>
+      </c>
+      <c r="TN22" t="n">
+        <v>606</v>
+      </c>
+      <c r="TO22" t="inlineStr"/>
+      <c r="TP22" t="inlineStr">
+        <is>
+          <t>twilio/twilio-php</t>
+        </is>
+      </c>
+      <c r="TQ22" t="n">
+        <v>1465</v>
+      </c>
+      <c r="TR22" t="n">
+        <v>128</v>
+      </c>
+      <c r="TS22" t="n">
+        <v>606</v>
+      </c>
+      <c r="TT22" t="inlineStr"/>
+      <c r="TU22" t="inlineStr">
+        <is>
+          <t>twilio/twilio-php</t>
+        </is>
+      </c>
+      <c r="TV22" t="n">
+        <v>1466</v>
+      </c>
+      <c r="TW22" t="n">
+        <v>128</v>
+      </c>
+      <c r="TX22" t="n">
+        <v>606</v>
+      </c>
+      <c r="TY22" t="inlineStr"/>
+      <c r="TZ22" t="inlineStr">
+        <is>
+          <t>twilio/twilio-php</t>
+        </is>
+      </c>
+      <c r="UA22" t="n">
+        <v>1466</v>
+      </c>
+      <c r="UB22" t="n">
+        <v>128</v>
+      </c>
+      <c r="UC22" t="n">
+        <v>607</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -32481,6 +35201,126 @@
       <c r="SO23" t="n">
         <v>68</v>
       </c>
+      <c r="SP23" t="inlineStr"/>
+      <c r="SQ23" t="inlineStr">
+        <is>
+          <t>ropensci/qualtRics</t>
+        </is>
+      </c>
+      <c r="SR23" t="n">
+        <v>207</v>
+      </c>
+      <c r="SS23" t="n">
+        <v>19</v>
+      </c>
+      <c r="ST23" t="n">
+        <v>68</v>
+      </c>
+      <c r="SU23" t="inlineStr"/>
+      <c r="SV23" t="inlineStr">
+        <is>
+          <t>ropensci/qualtRics</t>
+        </is>
+      </c>
+      <c r="SW23" t="n">
+        <v>207</v>
+      </c>
+      <c r="SX23" t="n">
+        <v>19</v>
+      </c>
+      <c r="SY23" t="n">
+        <v>68</v>
+      </c>
+      <c r="SZ23" t="inlineStr"/>
+      <c r="TA23" t="inlineStr">
+        <is>
+          <t>ropensci/qualtRics</t>
+        </is>
+      </c>
+      <c r="TB23" t="n">
+        <v>207</v>
+      </c>
+      <c r="TC23" t="n">
+        <v>19</v>
+      </c>
+      <c r="TD23" t="n">
+        <v>68</v>
+      </c>
+      <c r="TE23" t="inlineStr"/>
+      <c r="TF23" t="inlineStr">
+        <is>
+          <t>ropensci/qualtRics</t>
+        </is>
+      </c>
+      <c r="TG23" t="n">
+        <v>207</v>
+      </c>
+      <c r="TH23" t="n">
+        <v>19</v>
+      </c>
+      <c r="TI23" t="n">
+        <v>68</v>
+      </c>
+      <c r="TJ23" t="inlineStr"/>
+      <c r="TK23" t="inlineStr">
+        <is>
+          <t>ropensci/qualtRics</t>
+        </is>
+      </c>
+      <c r="TL23" t="n">
+        <v>207</v>
+      </c>
+      <c r="TM23" t="n">
+        <v>19</v>
+      </c>
+      <c r="TN23" t="n">
+        <v>68</v>
+      </c>
+      <c r="TO23" t="inlineStr"/>
+      <c r="TP23" t="inlineStr">
+        <is>
+          <t>ropensci/qualtRics</t>
+        </is>
+      </c>
+      <c r="TQ23" t="n">
+        <v>207</v>
+      </c>
+      <c r="TR23" t="n">
+        <v>19</v>
+      </c>
+      <c r="TS23" t="n">
+        <v>68</v>
+      </c>
+      <c r="TT23" t="inlineStr"/>
+      <c r="TU23" t="inlineStr">
+        <is>
+          <t>ropensci/qualtRics</t>
+        </is>
+      </c>
+      <c r="TV23" t="n">
+        <v>207</v>
+      </c>
+      <c r="TW23" t="n">
+        <v>19</v>
+      </c>
+      <c r="TX23" t="n">
+        <v>68</v>
+      </c>
+      <c r="TY23" t="inlineStr"/>
+      <c r="TZ23" t="inlineStr">
+        <is>
+          <t>ropensci/qualtRics</t>
+        </is>
+      </c>
+      <c r="UA23" t="n">
+        <v>207</v>
+      </c>
+      <c r="UB23" t="n">
+        <v>19</v>
+      </c>
+      <c r="UC23" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -33822,6 +36662,126 @@
       <c r="SO24" t="n">
         <v>138</v>
       </c>
+      <c r="SP24" t="inlineStr"/>
+      <c r="SQ24" t="inlineStr">
+        <is>
+          <t>CrowdStrike/CRT</t>
+        </is>
+      </c>
+      <c r="SR24" t="n">
+        <v>676</v>
+      </c>
+      <c r="SS24" t="n">
+        <v>35</v>
+      </c>
+      <c r="ST24" t="n">
+        <v>138</v>
+      </c>
+      <c r="SU24" t="inlineStr"/>
+      <c r="SV24" t="inlineStr">
+        <is>
+          <t>CrowdStrike/CRT</t>
+        </is>
+      </c>
+      <c r="SW24" t="n">
+        <v>676</v>
+      </c>
+      <c r="SX24" t="n">
+        <v>35</v>
+      </c>
+      <c r="SY24" t="n">
+        <v>138</v>
+      </c>
+      <c r="SZ24" t="inlineStr"/>
+      <c r="TA24" t="inlineStr">
+        <is>
+          <t>CrowdStrike/CRT</t>
+        </is>
+      </c>
+      <c r="TB24" t="n">
+        <v>676</v>
+      </c>
+      <c r="TC24" t="n">
+        <v>35</v>
+      </c>
+      <c r="TD24" t="n">
+        <v>138</v>
+      </c>
+      <c r="TE24" t="inlineStr"/>
+      <c r="TF24" t="inlineStr">
+        <is>
+          <t>CrowdStrike/CRT</t>
+        </is>
+      </c>
+      <c r="TG24" t="n">
+        <v>676</v>
+      </c>
+      <c r="TH24" t="n">
+        <v>35</v>
+      </c>
+      <c r="TI24" t="n">
+        <v>138</v>
+      </c>
+      <c r="TJ24" t="inlineStr"/>
+      <c r="TK24" t="inlineStr">
+        <is>
+          <t>CrowdStrike/CRT</t>
+        </is>
+      </c>
+      <c r="TL24" t="n">
+        <v>676</v>
+      </c>
+      <c r="TM24" t="n">
+        <v>35</v>
+      </c>
+      <c r="TN24" t="n">
+        <v>138</v>
+      </c>
+      <c r="TO24" t="inlineStr"/>
+      <c r="TP24" t="inlineStr">
+        <is>
+          <t>CrowdStrike/CRT</t>
+        </is>
+      </c>
+      <c r="TQ24" t="n">
+        <v>676</v>
+      </c>
+      <c r="TR24" t="n">
+        <v>35</v>
+      </c>
+      <c r="TS24" t="n">
+        <v>138</v>
+      </c>
+      <c r="TT24" t="inlineStr"/>
+      <c r="TU24" t="inlineStr">
+        <is>
+          <t>CrowdStrike/CRT</t>
+        </is>
+      </c>
+      <c r="TV24" t="n">
+        <v>677</v>
+      </c>
+      <c r="TW24" t="n">
+        <v>35</v>
+      </c>
+      <c r="TX24" t="n">
+        <v>139</v>
+      </c>
+      <c r="TY24" t="inlineStr"/>
+      <c r="TZ24" t="inlineStr">
+        <is>
+          <t>CrowdStrike/CRT</t>
+        </is>
+      </c>
+      <c r="UA24" t="n">
+        <v>677</v>
+      </c>
+      <c r="UB24" t="n">
+        <v>35</v>
+      </c>
+      <c r="UC24" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -35163,6 +38123,126 @@
       <c r="SO25" t="n">
         <v>119</v>
       </c>
+      <c r="SP25" t="inlineStr"/>
+      <c r="SQ25" t="inlineStr">
+        <is>
+          <t>fastly/go-fastly</t>
+        </is>
+      </c>
+      <c r="SR25" t="n">
+        <v>146</v>
+      </c>
+      <c r="SS25" t="n">
+        <v>69</v>
+      </c>
+      <c r="ST25" t="n">
+        <v>119</v>
+      </c>
+      <c r="SU25" t="inlineStr"/>
+      <c r="SV25" t="inlineStr">
+        <is>
+          <t>fastly/go-fastly</t>
+        </is>
+      </c>
+      <c r="SW25" t="n">
+        <v>146</v>
+      </c>
+      <c r="SX25" t="n">
+        <v>69</v>
+      </c>
+      <c r="SY25" t="n">
+        <v>119</v>
+      </c>
+      <c r="SZ25" t="inlineStr"/>
+      <c r="TA25" t="inlineStr">
+        <is>
+          <t>fastly/go-fastly</t>
+        </is>
+      </c>
+      <c r="TB25" t="n">
+        <v>146</v>
+      </c>
+      <c r="TC25" t="n">
+        <v>69</v>
+      </c>
+      <c r="TD25" t="n">
+        <v>119</v>
+      </c>
+      <c r="TE25" t="inlineStr"/>
+      <c r="TF25" t="inlineStr">
+        <is>
+          <t>fastly/go-fastly</t>
+        </is>
+      </c>
+      <c r="TG25" t="n">
+        <v>146</v>
+      </c>
+      <c r="TH25" t="n">
+        <v>69</v>
+      </c>
+      <c r="TI25" t="n">
+        <v>119</v>
+      </c>
+      <c r="TJ25" t="inlineStr"/>
+      <c r="TK25" t="inlineStr">
+        <is>
+          <t>fastly/go-fastly</t>
+        </is>
+      </c>
+      <c r="TL25" t="n">
+        <v>146</v>
+      </c>
+      <c r="TM25" t="n">
+        <v>69</v>
+      </c>
+      <c r="TN25" t="n">
+        <v>119</v>
+      </c>
+      <c r="TO25" t="inlineStr"/>
+      <c r="TP25" t="inlineStr">
+        <is>
+          <t>fastly/go-fastly</t>
+        </is>
+      </c>
+      <c r="TQ25" t="n">
+        <v>146</v>
+      </c>
+      <c r="TR25" t="n">
+        <v>69</v>
+      </c>
+      <c r="TS25" t="n">
+        <v>119</v>
+      </c>
+      <c r="TT25" t="inlineStr"/>
+      <c r="TU25" t="inlineStr">
+        <is>
+          <t>fastly/go-fastly</t>
+        </is>
+      </c>
+      <c r="TV25" t="n">
+        <v>146</v>
+      </c>
+      <c r="TW25" t="n">
+        <v>69</v>
+      </c>
+      <c r="TX25" t="n">
+        <v>119</v>
+      </c>
+      <c r="TY25" t="inlineStr"/>
+      <c r="TZ25" t="inlineStr">
+        <is>
+          <t>fastly/go-fastly</t>
+        </is>
+      </c>
+      <c r="UA25" t="n">
+        <v>146</v>
+      </c>
+      <c r="UB25" t="n">
+        <v>70</v>
+      </c>
+      <c r="UC25" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -36504,6 +39584,126 @@
       <c r="SO26" t="n">
         <v>703</v>
       </c>
+      <c r="SP26" t="inlineStr"/>
+      <c r="SQ26" t="inlineStr">
+        <is>
+          <t>cloudflare/cloudflared</t>
+        </is>
+      </c>
+      <c r="SR26" t="n">
+        <v>7167</v>
+      </c>
+      <c r="SS26" t="n">
+        <v>92</v>
+      </c>
+      <c r="ST26" t="n">
+        <v>704</v>
+      </c>
+      <c r="SU26" t="inlineStr"/>
+      <c r="SV26" t="inlineStr">
+        <is>
+          <t>cloudflare/cloudflared</t>
+        </is>
+      </c>
+      <c r="SW26" t="n">
+        <v>7177</v>
+      </c>
+      <c r="SX26" t="n">
+        <v>92</v>
+      </c>
+      <c r="SY26" t="n">
+        <v>704</v>
+      </c>
+      <c r="SZ26" t="inlineStr"/>
+      <c r="TA26" t="inlineStr">
+        <is>
+          <t>cloudflare/cloudflared</t>
+        </is>
+      </c>
+      <c r="TB26" t="n">
+        <v>7185</v>
+      </c>
+      <c r="TC26" t="n">
+        <v>92</v>
+      </c>
+      <c r="TD26" t="n">
+        <v>705</v>
+      </c>
+      <c r="TE26" t="inlineStr"/>
+      <c r="TF26" t="inlineStr">
+        <is>
+          <t>cloudflare/cloudflared</t>
+        </is>
+      </c>
+      <c r="TG26" t="n">
+        <v>7187</v>
+      </c>
+      <c r="TH26" t="n">
+        <v>92</v>
+      </c>
+      <c r="TI26" t="n">
+        <v>706</v>
+      </c>
+      <c r="TJ26" t="inlineStr"/>
+      <c r="TK26" t="inlineStr">
+        <is>
+          <t>cloudflare/cloudflared</t>
+        </is>
+      </c>
+      <c r="TL26" t="n">
+        <v>7197</v>
+      </c>
+      <c r="TM26" t="n">
+        <v>92</v>
+      </c>
+      <c r="TN26" t="n">
+        <v>706</v>
+      </c>
+      <c r="TO26" t="inlineStr"/>
+      <c r="TP26" t="inlineStr">
+        <is>
+          <t>cloudflare/cloudflared</t>
+        </is>
+      </c>
+      <c r="TQ26" t="n">
+        <v>7204</v>
+      </c>
+      <c r="TR26" t="n">
+        <v>93</v>
+      </c>
+      <c r="TS26" t="n">
+        <v>706</v>
+      </c>
+      <c r="TT26" t="inlineStr"/>
+      <c r="TU26" t="inlineStr">
+        <is>
+          <t>cloudflare/cloudflared</t>
+        </is>
+      </c>
+      <c r="TV26" t="n">
+        <v>7214</v>
+      </c>
+      <c r="TW26" t="n">
+        <v>93</v>
+      </c>
+      <c r="TX26" t="n">
+        <v>708</v>
+      </c>
+      <c r="TY26" t="inlineStr"/>
+      <c r="TZ26" t="inlineStr">
+        <is>
+          <t>cloudflare/cloudflared</t>
+        </is>
+      </c>
+      <c r="UA26" t="n">
+        <v>7227</v>
+      </c>
+      <c r="UB26" t="n">
+        <v>93</v>
+      </c>
+      <c r="UC26" t="n">
+        <v>708</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -37845,6 +41045,126 @@
       <c r="SO27" t="n">
         <v>93</v>
       </c>
+      <c r="SP27" t="inlineStr"/>
+      <c r="SQ27" t="inlineStr">
+        <is>
+          <t>nutanix/blueprints</t>
+        </is>
+      </c>
+      <c r="SR27" t="n">
+        <v>71</v>
+      </c>
+      <c r="SS27" t="n">
+        <v>30</v>
+      </c>
+      <c r="ST27" t="n">
+        <v>93</v>
+      </c>
+      <c r="SU27" t="inlineStr"/>
+      <c r="SV27" t="inlineStr">
+        <is>
+          <t>nutanix/blueprints</t>
+        </is>
+      </c>
+      <c r="SW27" t="n">
+        <v>71</v>
+      </c>
+      <c r="SX27" t="n">
+        <v>30</v>
+      </c>
+      <c r="SY27" t="n">
+        <v>93</v>
+      </c>
+      <c r="SZ27" t="inlineStr"/>
+      <c r="TA27" t="inlineStr">
+        <is>
+          <t>nutanix/blueprints</t>
+        </is>
+      </c>
+      <c r="TB27" t="n">
+        <v>71</v>
+      </c>
+      <c r="TC27" t="n">
+        <v>30</v>
+      </c>
+      <c r="TD27" t="n">
+        <v>93</v>
+      </c>
+      <c r="TE27" t="inlineStr"/>
+      <c r="TF27" t="inlineStr">
+        <is>
+          <t>nutanix/blueprints</t>
+        </is>
+      </c>
+      <c r="TG27" t="n">
+        <v>71</v>
+      </c>
+      <c r="TH27" t="n">
+        <v>30</v>
+      </c>
+      <c r="TI27" t="n">
+        <v>93</v>
+      </c>
+      <c r="TJ27" t="inlineStr"/>
+      <c r="TK27" t="inlineStr">
+        <is>
+          <t>nutanix/blueprints</t>
+        </is>
+      </c>
+      <c r="TL27" t="n">
+        <v>71</v>
+      </c>
+      <c r="TM27" t="n">
+        <v>30</v>
+      </c>
+      <c r="TN27" t="n">
+        <v>93</v>
+      </c>
+      <c r="TO27" t="inlineStr"/>
+      <c r="TP27" t="inlineStr">
+        <is>
+          <t>nutanix/blueprints</t>
+        </is>
+      </c>
+      <c r="TQ27" t="n">
+        <v>71</v>
+      </c>
+      <c r="TR27" t="n">
+        <v>30</v>
+      </c>
+      <c r="TS27" t="n">
+        <v>93</v>
+      </c>
+      <c r="TT27" t="inlineStr"/>
+      <c r="TU27" t="inlineStr">
+        <is>
+          <t>nutanix/blueprints</t>
+        </is>
+      </c>
+      <c r="TV27" t="n">
+        <v>71</v>
+      </c>
+      <c r="TW27" t="n">
+        <v>30</v>
+      </c>
+      <c r="TX27" t="n">
+        <v>93</v>
+      </c>
+      <c r="TY27" t="inlineStr"/>
+      <c r="TZ27" t="inlineStr">
+        <is>
+          <t>nutanix/blueprints</t>
+        </is>
+      </c>
+      <c r="UA27" t="n">
+        <v>71</v>
+      </c>
+      <c r="UB27" t="n">
+        <v>30</v>
+      </c>
+      <c r="UC27" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -39186,6 +42506,116 @@
       <c r="SO28" t="n">
         <v>194</v>
       </c>
+      <c r="SP28" t="inlineStr"/>
+      <c r="SQ28" t="inlineStr">
+        <is>
+          <t>okta/terraform-provider-okta</t>
+        </is>
+      </c>
+      <c r="SR28" t="n">
+        <v>225</v>
+      </c>
+      <c r="SS28" t="n">
+        <v>29</v>
+      </c>
+      <c r="ST28" t="n">
+        <v>194</v>
+      </c>
+      <c r="SU28" t="inlineStr"/>
+      <c r="SV28" t="inlineStr">
+        <is>
+          <t>okta/terraform-provider-okta</t>
+        </is>
+      </c>
+      <c r="SW28" t="n">
+        <v>225</v>
+      </c>
+      <c r="SX28" t="n">
+        <v>29</v>
+      </c>
+      <c r="SY28" t="n">
+        <v>194</v>
+      </c>
+      <c r="SZ28" t="inlineStr"/>
+      <c r="TA28" t="inlineStr">
+        <is>
+          <t>okta/terraform-provider-okta</t>
+        </is>
+      </c>
+      <c r="TB28" t="n">
+        <v>225</v>
+      </c>
+      <c r="TC28" t="n">
+        <v>29</v>
+      </c>
+      <c r="TD28" t="n">
+        <v>194</v>
+      </c>
+      <c r="TE28" t="inlineStr"/>
+      <c r="TF28" t="inlineStr">
+        <is>
+          <t>okta/terraform-provider-okta</t>
+        </is>
+      </c>
+      <c r="TG28" t="n">
+        <v>225</v>
+      </c>
+      <c r="TH28" t="n">
+        <v>29</v>
+      </c>
+      <c r="TI28" t="n">
+        <v>194</v>
+      </c>
+      <c r="TJ28" t="inlineStr"/>
+      <c r="TK28" t="inlineStr">
+        <is>
+          <t>okta/terraform-provider-okta</t>
+        </is>
+      </c>
+      <c r="TL28" t="n">
+        <v>225</v>
+      </c>
+      <c r="TM28" t="n">
+        <v>29</v>
+      </c>
+      <c r="TN28" t="n">
+        <v>194</v>
+      </c>
+      <c r="TO28" t="inlineStr"/>
+      <c r="TP28" t="inlineStr">
+        <is>
+          <t>okta/terraform-provider-okta</t>
+        </is>
+      </c>
+      <c r="TQ28" t="n">
+        <v>225</v>
+      </c>
+      <c r="TR28" t="n">
+        <v>29</v>
+      </c>
+      <c r="TS28" t="n">
+        <v>195</v>
+      </c>
+      <c r="TT28" t="inlineStr"/>
+      <c r="TU28" t="inlineStr">
+        <is>
+          <t>okta/terraform-provider-okta</t>
+        </is>
+      </c>
+      <c r="TV28" t="n">
+        <v>225</v>
+      </c>
+      <c r="TW28" t="n">
+        <v>29</v>
+      </c>
+      <c r="TX28" t="n">
+        <v>195</v>
+      </c>
+      <c r="TY28" t="inlineStr"/>
+      <c r="TZ28" t="inlineStr"/>
+      <c r="UA28" t="inlineStr"/>
+      <c r="UB28" t="inlineStr"/>
+      <c r="UC28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -40527,6 +43957,116 @@
       <c r="SO29" t="n">
         <v>163</v>
       </c>
+      <c r="SP29" t="inlineStr"/>
+      <c r="SQ29" t="inlineStr">
+        <is>
+          <t>PaloAltoNetworks/ansible-pan</t>
+        </is>
+      </c>
+      <c r="SR29" t="n">
+        <v>221</v>
+      </c>
+      <c r="SS29" t="n">
+        <v>66</v>
+      </c>
+      <c r="ST29" t="n">
+        <v>163</v>
+      </c>
+      <c r="SU29" t="inlineStr"/>
+      <c r="SV29" t="inlineStr">
+        <is>
+          <t>PaloAltoNetworks/ansible-pan</t>
+        </is>
+      </c>
+      <c r="SW29" t="n">
+        <v>221</v>
+      </c>
+      <c r="SX29" t="n">
+        <v>66</v>
+      </c>
+      <c r="SY29" t="n">
+        <v>163</v>
+      </c>
+      <c r="SZ29" t="inlineStr"/>
+      <c r="TA29" t="inlineStr">
+        <is>
+          <t>PaloAltoNetworks/ansible-pan</t>
+        </is>
+      </c>
+      <c r="TB29" t="n">
+        <v>221</v>
+      </c>
+      <c r="TC29" t="n">
+        <v>66</v>
+      </c>
+      <c r="TD29" t="n">
+        <v>163</v>
+      </c>
+      <c r="TE29" t="inlineStr"/>
+      <c r="TF29" t="inlineStr">
+        <is>
+          <t>PaloAltoNetworks/ansible-pan</t>
+        </is>
+      </c>
+      <c r="TG29" t="n">
+        <v>221</v>
+      </c>
+      <c r="TH29" t="n">
+        <v>66</v>
+      </c>
+      <c r="TI29" t="n">
+        <v>163</v>
+      </c>
+      <c r="TJ29" t="inlineStr"/>
+      <c r="TK29" t="inlineStr">
+        <is>
+          <t>PaloAltoNetworks/ansible-pan</t>
+        </is>
+      </c>
+      <c r="TL29" t="n">
+        <v>221</v>
+      </c>
+      <c r="TM29" t="n">
+        <v>66</v>
+      </c>
+      <c r="TN29" t="n">
+        <v>163</v>
+      </c>
+      <c r="TO29" t="inlineStr"/>
+      <c r="TP29" t="inlineStr">
+        <is>
+          <t>PaloAltoNetworks/ansible-pan</t>
+        </is>
+      </c>
+      <c r="TQ29" t="n">
+        <v>222</v>
+      </c>
+      <c r="TR29" t="n">
+        <v>66</v>
+      </c>
+      <c r="TS29" t="n">
+        <v>163</v>
+      </c>
+      <c r="TT29" t="inlineStr"/>
+      <c r="TU29" t="inlineStr">
+        <is>
+          <t>PaloAltoNetworks/ansible-pan</t>
+        </is>
+      </c>
+      <c r="TV29" t="n">
+        <v>222</v>
+      </c>
+      <c r="TW29" t="n">
+        <v>66</v>
+      </c>
+      <c r="TX29" t="n">
+        <v>163</v>
+      </c>
+      <c r="TY29" t="inlineStr"/>
+      <c r="TZ29" t="inlineStr"/>
+      <c r="UA29" t="inlineStr"/>
+      <c r="UB29" t="inlineStr"/>
+      <c r="UC29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -41868,6 +45408,116 @@
       <c r="SO30" t="n">
         <v>162</v>
       </c>
+      <c r="SP30" t="inlineStr"/>
+      <c r="SQ30" t="inlineStr">
+        <is>
+          <t>tenable/pyTenable</t>
+        </is>
+      </c>
+      <c r="SR30" t="n">
+        <v>308</v>
+      </c>
+      <c r="SS30" t="n">
+        <v>47</v>
+      </c>
+      <c r="ST30" t="n">
+        <v>162</v>
+      </c>
+      <c r="SU30" t="inlineStr"/>
+      <c r="SV30" t="inlineStr">
+        <is>
+          <t>tenable/pyTenable</t>
+        </is>
+      </c>
+      <c r="SW30" t="n">
+        <v>308</v>
+      </c>
+      <c r="SX30" t="n">
+        <v>47</v>
+      </c>
+      <c r="SY30" t="n">
+        <v>162</v>
+      </c>
+      <c r="SZ30" t="inlineStr"/>
+      <c r="TA30" t="inlineStr">
+        <is>
+          <t>tenable/pyTenable</t>
+        </is>
+      </c>
+      <c r="TB30" t="n">
+        <v>309</v>
+      </c>
+      <c r="TC30" t="n">
+        <v>47</v>
+      </c>
+      <c r="TD30" t="n">
+        <v>162</v>
+      </c>
+      <c r="TE30" t="inlineStr"/>
+      <c r="TF30" t="inlineStr">
+        <is>
+          <t>tenable/pyTenable</t>
+        </is>
+      </c>
+      <c r="TG30" t="n">
+        <v>309</v>
+      </c>
+      <c r="TH30" t="n">
+        <v>47</v>
+      </c>
+      <c r="TI30" t="n">
+        <v>162</v>
+      </c>
+      <c r="TJ30" t="inlineStr"/>
+      <c r="TK30" t="inlineStr">
+        <is>
+          <t>tenable/pyTenable</t>
+        </is>
+      </c>
+      <c r="TL30" t="n">
+        <v>309</v>
+      </c>
+      <c r="TM30" t="n">
+        <v>47</v>
+      </c>
+      <c r="TN30" t="n">
+        <v>162</v>
+      </c>
+      <c r="TO30" t="inlineStr"/>
+      <c r="TP30" t="inlineStr">
+        <is>
+          <t>tenable/pyTenable</t>
+        </is>
+      </c>
+      <c r="TQ30" t="n">
+        <v>309</v>
+      </c>
+      <c r="TR30" t="n">
+        <v>47</v>
+      </c>
+      <c r="TS30" t="n">
+        <v>162</v>
+      </c>
+      <c r="TT30" t="inlineStr"/>
+      <c r="TU30" t="inlineStr">
+        <is>
+          <t>tenable/pyTenable</t>
+        </is>
+      </c>
+      <c r="TV30" t="n">
+        <v>309</v>
+      </c>
+      <c r="TW30" t="n">
+        <v>47</v>
+      </c>
+      <c r="TX30" t="n">
+        <v>162</v>
+      </c>
+      <c r="TY30" t="inlineStr"/>
+      <c r="TZ30" t="inlineStr"/>
+      <c r="UA30" t="inlineStr"/>
+      <c r="UB30" t="inlineStr"/>
+      <c r="UC30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -43209,6 +46859,116 @@
       <c r="SO31" t="n">
         <v>7</v>
       </c>
+      <c r="SP31" t="inlineStr"/>
+      <c r="SQ31" t="inlineStr">
+        <is>
+          <t>procore/js-sdk</t>
+        </is>
+      </c>
+      <c r="SR31" t="n">
+        <v>13</v>
+      </c>
+      <c r="SS31" t="n">
+        <v>157</v>
+      </c>
+      <c r="ST31" t="n">
+        <v>7</v>
+      </c>
+      <c r="SU31" t="inlineStr"/>
+      <c r="SV31" t="inlineStr">
+        <is>
+          <t>procore/js-sdk</t>
+        </is>
+      </c>
+      <c r="SW31" t="n">
+        <v>13</v>
+      </c>
+      <c r="SX31" t="n">
+        <v>157</v>
+      </c>
+      <c r="SY31" t="n">
+        <v>7</v>
+      </c>
+      <c r="SZ31" t="inlineStr"/>
+      <c r="TA31" t="inlineStr">
+        <is>
+          <t>procore/js-sdk</t>
+        </is>
+      </c>
+      <c r="TB31" t="n">
+        <v>13</v>
+      </c>
+      <c r="TC31" t="n">
+        <v>157</v>
+      </c>
+      <c r="TD31" t="n">
+        <v>7</v>
+      </c>
+      <c r="TE31" t="inlineStr"/>
+      <c r="TF31" t="inlineStr">
+        <is>
+          <t>procore/js-sdk</t>
+        </is>
+      </c>
+      <c r="TG31" t="n">
+        <v>13</v>
+      </c>
+      <c r="TH31" t="n">
+        <v>157</v>
+      </c>
+      <c r="TI31" t="n">
+        <v>7</v>
+      </c>
+      <c r="TJ31" t="inlineStr"/>
+      <c r="TK31" t="inlineStr">
+        <is>
+          <t>procore/js-sdk</t>
+        </is>
+      </c>
+      <c r="TL31" t="n">
+        <v>13</v>
+      </c>
+      <c r="TM31" t="n">
+        <v>156</v>
+      </c>
+      <c r="TN31" t="n">
+        <v>7</v>
+      </c>
+      <c r="TO31" t="inlineStr"/>
+      <c r="TP31" t="inlineStr">
+        <is>
+          <t>procore/js-sdk</t>
+        </is>
+      </c>
+      <c r="TQ31" t="n">
+        <v>13</v>
+      </c>
+      <c r="TR31" t="n">
+        <v>156</v>
+      </c>
+      <c r="TS31" t="n">
+        <v>7</v>
+      </c>
+      <c r="TT31" t="inlineStr"/>
+      <c r="TU31" t="inlineStr">
+        <is>
+          <t>procore/js-sdk</t>
+        </is>
+      </c>
+      <c r="TV31" t="n">
+        <v>13</v>
+      </c>
+      <c r="TW31" t="n">
+        <v>156</v>
+      </c>
+      <c r="TX31" t="n">
+        <v>7</v>
+      </c>
+      <c r="TY31" t="inlineStr"/>
+      <c r="TZ31" t="inlineStr"/>
+      <c r="UA31" t="inlineStr"/>
+      <c r="UB31" t="inlineStr"/>
+      <c r="UC31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -44550,6 +48310,116 @@
       <c r="SO32" t="n">
         <v>72</v>
       </c>
+      <c r="SP32" t="inlineStr"/>
+      <c r="SQ32" t="inlineStr">
+        <is>
+          <t>ringcentral/ringcentral-web-phone</t>
+        </is>
+      </c>
+      <c r="SR32" t="n">
+        <v>102</v>
+      </c>
+      <c r="SS32" t="n">
+        <v>26</v>
+      </c>
+      <c r="ST32" t="n">
+        <v>73</v>
+      </c>
+      <c r="SU32" t="inlineStr"/>
+      <c r="SV32" t="inlineStr">
+        <is>
+          <t>ringcentral/ringcentral-web-phone</t>
+        </is>
+      </c>
+      <c r="SW32" t="n">
+        <v>102</v>
+      </c>
+      <c r="SX32" t="n">
+        <v>26</v>
+      </c>
+      <c r="SY32" t="n">
+        <v>73</v>
+      </c>
+      <c r="SZ32" t="inlineStr"/>
+      <c r="TA32" t="inlineStr">
+        <is>
+          <t>ringcentral/ringcentral-web-phone</t>
+        </is>
+      </c>
+      <c r="TB32" t="n">
+        <v>102</v>
+      </c>
+      <c r="TC32" t="n">
+        <v>26</v>
+      </c>
+      <c r="TD32" t="n">
+        <v>73</v>
+      </c>
+      <c r="TE32" t="inlineStr"/>
+      <c r="TF32" t="inlineStr">
+        <is>
+          <t>ringcentral/ringcentral-web-phone</t>
+        </is>
+      </c>
+      <c r="TG32" t="n">
+        <v>102</v>
+      </c>
+      <c r="TH32" t="n">
+        <v>26</v>
+      </c>
+      <c r="TI32" t="n">
+        <v>73</v>
+      </c>
+      <c r="TJ32" t="inlineStr"/>
+      <c r="TK32" t="inlineStr">
+        <is>
+          <t>ringcentral/ringcentral-web-phone</t>
+        </is>
+      </c>
+      <c r="TL32" t="n">
+        <v>102</v>
+      </c>
+      <c r="TM32" t="n">
+        <v>26</v>
+      </c>
+      <c r="TN32" t="n">
+        <v>73</v>
+      </c>
+      <c r="TO32" t="inlineStr"/>
+      <c r="TP32" t="inlineStr">
+        <is>
+          <t>ringcentral/ringcentral-web-phone</t>
+        </is>
+      </c>
+      <c r="TQ32" t="n">
+        <v>102</v>
+      </c>
+      <c r="TR32" t="n">
+        <v>26</v>
+      </c>
+      <c r="TS32" t="n">
+        <v>73</v>
+      </c>
+      <c r="TT32" t="inlineStr"/>
+      <c r="TU32" t="inlineStr">
+        <is>
+          <t>ringcentral/ringcentral-web-phone</t>
+        </is>
+      </c>
+      <c r="TV32" t="n">
+        <v>102</v>
+      </c>
+      <c r="TW32" t="n">
+        <v>26</v>
+      </c>
+      <c r="TX32" t="n">
+        <v>73</v>
+      </c>
+      <c r="TY32" t="inlineStr"/>
+      <c r="TZ32" t="inlineStr"/>
+      <c r="UA32" t="inlineStr"/>
+      <c r="UB32" t="inlineStr"/>
+      <c r="UC32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -45891,6 +49761,116 @@
       <c r="SO33" t="n">
         <v>82</v>
       </c>
+      <c r="SP33" t="inlineStr"/>
+      <c r="SQ33" t="inlineStr">
+        <is>
+          <t>smartsheet-platform/smartsheet-python-sdk</t>
+        </is>
+      </c>
+      <c r="SR33" t="n">
+        <v>128</v>
+      </c>
+      <c r="SS33" t="n">
+        <v>28</v>
+      </c>
+      <c r="ST33" t="n">
+        <v>82</v>
+      </c>
+      <c r="SU33" t="inlineStr"/>
+      <c r="SV33" t="inlineStr">
+        <is>
+          <t>smartsheet-platform/smartsheet-python-sdk</t>
+        </is>
+      </c>
+      <c r="SW33" t="n">
+        <v>128</v>
+      </c>
+      <c r="SX33" t="n">
+        <v>28</v>
+      </c>
+      <c r="SY33" t="n">
+        <v>82</v>
+      </c>
+      <c r="SZ33" t="inlineStr"/>
+      <c r="TA33" t="inlineStr">
+        <is>
+          <t>smartsheet-platform/smartsheet-python-sdk</t>
+        </is>
+      </c>
+      <c r="TB33" t="n">
+        <v>128</v>
+      </c>
+      <c r="TC33" t="n">
+        <v>28</v>
+      </c>
+      <c r="TD33" t="n">
+        <v>82</v>
+      </c>
+      <c r="TE33" t="inlineStr"/>
+      <c r="TF33" t="inlineStr">
+        <is>
+          <t>smartsheet-platform/smartsheet-python-sdk</t>
+        </is>
+      </c>
+      <c r="TG33" t="n">
+        <v>128</v>
+      </c>
+      <c r="TH33" t="n">
+        <v>28</v>
+      </c>
+      <c r="TI33" t="n">
+        <v>82</v>
+      </c>
+      <c r="TJ33" t="inlineStr"/>
+      <c r="TK33" t="inlineStr">
+        <is>
+          <t>smartsheet-platform/smartsheet-python-sdk</t>
+        </is>
+      </c>
+      <c r="TL33" t="n">
+        <v>128</v>
+      </c>
+      <c r="TM33" t="n">
+        <v>28</v>
+      </c>
+      <c r="TN33" t="n">
+        <v>82</v>
+      </c>
+      <c r="TO33" t="inlineStr"/>
+      <c r="TP33" t="inlineStr">
+        <is>
+          <t>smartsheet-platform/smartsheet-python-sdk</t>
+        </is>
+      </c>
+      <c r="TQ33" t="n">
+        <v>128</v>
+      </c>
+      <c r="TR33" t="n">
+        <v>28</v>
+      </c>
+      <c r="TS33" t="n">
+        <v>82</v>
+      </c>
+      <c r="TT33" t="inlineStr"/>
+      <c r="TU33" t="inlineStr">
+        <is>
+          <t>smartsheet-platform/smartsheet-python-sdk</t>
+        </is>
+      </c>
+      <c r="TV33" t="n">
+        <v>128</v>
+      </c>
+      <c r="TW33" t="n">
+        <v>28</v>
+      </c>
+      <c r="TX33" t="n">
+        <v>82</v>
+      </c>
+      <c r="TY33" t="inlineStr"/>
+      <c r="TZ33" t="inlineStr"/>
+      <c r="UA33" t="inlineStr"/>
+      <c r="UB33" t="inlineStr"/>
+      <c r="UC33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -47232,6 +51212,116 @@
       <c r="SO34" t="n">
         <v>907</v>
       </c>
+      <c r="SP34" t="inlineStr"/>
+      <c r="SQ34" t="inlineStr">
+        <is>
+          <t>confluentinc/confluent-kafka-python</t>
+        </is>
+      </c>
+      <c r="SR34" t="n">
+        <v>3507</v>
+      </c>
+      <c r="SS34" t="n">
+        <v>337</v>
+      </c>
+      <c r="ST34" t="n">
+        <v>907</v>
+      </c>
+      <c r="SU34" t="inlineStr"/>
+      <c r="SV34" t="inlineStr">
+        <is>
+          <t>confluentinc/confluent-kafka-python</t>
+        </is>
+      </c>
+      <c r="SW34" t="n">
+        <v>3508</v>
+      </c>
+      <c r="SX34" t="n">
+        <v>335</v>
+      </c>
+      <c r="SY34" t="n">
+        <v>908</v>
+      </c>
+      <c r="SZ34" t="inlineStr"/>
+      <c r="TA34" t="inlineStr">
+        <is>
+          <t>confluentinc/confluent-kafka-python</t>
+        </is>
+      </c>
+      <c r="TB34" t="n">
+        <v>3508</v>
+      </c>
+      <c r="TC34" t="n">
+        <v>336</v>
+      </c>
+      <c r="TD34" t="n">
+        <v>908</v>
+      </c>
+      <c r="TE34" t="inlineStr"/>
+      <c r="TF34" t="inlineStr">
+        <is>
+          <t>confluentinc/confluent-kafka-python</t>
+        </is>
+      </c>
+      <c r="TG34" t="n">
+        <v>3509</v>
+      </c>
+      <c r="TH34" t="n">
+        <v>336</v>
+      </c>
+      <c r="TI34" t="n">
+        <v>908</v>
+      </c>
+      <c r="TJ34" t="inlineStr"/>
+      <c r="TK34" t="inlineStr">
+        <is>
+          <t>confluentinc/confluent-kafka-python</t>
+        </is>
+      </c>
+      <c r="TL34" t="n">
+        <v>3509</v>
+      </c>
+      <c r="TM34" t="n">
+        <v>336</v>
+      </c>
+      <c r="TN34" t="n">
+        <v>908</v>
+      </c>
+      <c r="TO34" t="inlineStr"/>
+      <c r="TP34" t="inlineStr">
+        <is>
+          <t>confluentinc/confluent-kafka-python</t>
+        </is>
+      </c>
+      <c r="TQ34" t="n">
+        <v>3510</v>
+      </c>
+      <c r="TR34" t="n">
+        <v>336</v>
+      </c>
+      <c r="TS34" t="n">
+        <v>908</v>
+      </c>
+      <c r="TT34" t="inlineStr"/>
+      <c r="TU34" t="inlineStr">
+        <is>
+          <t>confluentinc/confluent-kafka-python</t>
+        </is>
+      </c>
+      <c r="TV34" t="n">
+        <v>3511</v>
+      </c>
+      <c r="TW34" t="n">
+        <v>338</v>
+      </c>
+      <c r="TX34" t="n">
+        <v>908</v>
+      </c>
+      <c r="TY34" t="inlineStr"/>
+      <c r="TZ34" t="inlineStr"/>
+      <c r="UA34" t="inlineStr"/>
+      <c r="UB34" t="inlineStr"/>
+      <c r="UC34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/static/githubstatic/github_data.xlsx
+++ b/static/githubstatic/github_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:UC34"/>
+  <dimension ref="A1:UR39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3156,25 +3156,100 @@
       </c>
       <c r="TY1" s="1" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-10.1</t>
         </is>
       </c>
       <c r="TZ1" s="1" t="inlineStr">
         <is>
+          <t>Repository.109</t>
+        </is>
+      </c>
+      <c r="UA1" s="1" t="inlineStr">
+        <is>
+          <t>Stars.109</t>
+        </is>
+      </c>
+      <c r="UB1" s="1" t="inlineStr">
+        <is>
+          <t>Watches.109</t>
+        </is>
+      </c>
+      <c r="UC1" s="1" t="inlineStr">
+        <is>
+          <t>Forks.109</t>
+        </is>
+      </c>
+      <c r="UD1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-11</t>
+        </is>
+      </c>
+      <c r="UE1" s="1" t="inlineStr">
+        <is>
+          <t>Repository.110</t>
+        </is>
+      </c>
+      <c r="UF1" s="1" t="inlineStr">
+        <is>
+          <t>Stars.110</t>
+        </is>
+      </c>
+      <c r="UG1" s="1" t="inlineStr">
+        <is>
+          <t>Watches.110</t>
+        </is>
+      </c>
+      <c r="UH1" s="1" t="inlineStr">
+        <is>
+          <t>Forks.110</t>
+        </is>
+      </c>
+      <c r="UI1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-11.1</t>
+        </is>
+      </c>
+      <c r="UJ1" s="1" t="inlineStr">
+        <is>
+          <t>Repository.111</t>
+        </is>
+      </c>
+      <c r="UK1" s="1" t="inlineStr">
+        <is>
+          <t>Stars.111</t>
+        </is>
+      </c>
+      <c r="UL1" s="1" t="inlineStr">
+        <is>
+          <t>Watches.111</t>
+        </is>
+      </c>
+      <c r="UM1" s="1" t="inlineStr">
+        <is>
+          <t>Forks.111</t>
+        </is>
+      </c>
+      <c r="UN1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-12</t>
+        </is>
+      </c>
+      <c r="UO1" s="1" t="inlineStr">
+        <is>
           <t>Repository</t>
         </is>
       </c>
-      <c r="UA1" s="1" t="inlineStr">
+      <c r="UP1" s="1" t="inlineStr">
         <is>
           <t>Stars</t>
         </is>
       </c>
-      <c r="UB1" s="1" t="inlineStr">
+      <c r="UQ1" s="1" t="inlineStr">
         <is>
           <t>Watches</t>
         </is>
       </c>
-      <c r="UC1" s="1" t="inlineStr">
+      <c r="UR1" s="1" t="inlineStr">
         <is>
           <t>Forks</t>
         </is>
@@ -4640,6 +4715,51 @@
       <c r="UC2" t="n">
         <v>403</v>
       </c>
+      <c r="UD2" t="inlineStr"/>
+      <c r="UE2" t="inlineStr">
+        <is>
+          <t>DigitalOcean/doctl</t>
+        </is>
+      </c>
+      <c r="UF2" t="n">
+        <v>3171</v>
+      </c>
+      <c r="UG2" t="n">
+        <v>135</v>
+      </c>
+      <c r="UH2" t="n">
+        <v>403</v>
+      </c>
+      <c r="UI2" t="inlineStr"/>
+      <c r="UJ2" t="inlineStr">
+        <is>
+          <t>DigitalOcean/doctl</t>
+        </is>
+      </c>
+      <c r="UK2" t="n">
+        <v>3173</v>
+      </c>
+      <c r="UL2" t="n">
+        <v>135</v>
+      </c>
+      <c r="UM2" t="n">
+        <v>403</v>
+      </c>
+      <c r="UN2" t="inlineStr"/>
+      <c r="UO2" t="inlineStr">
+        <is>
+          <t>DigitalOcean/doctl</t>
+        </is>
+      </c>
+      <c r="UP2" t="n">
+        <v>3173</v>
+      </c>
+      <c r="UQ2" t="n">
+        <v>135</v>
+      </c>
+      <c r="UR2" t="n">
+        <v>403</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6101,6 +6221,51 @@
       <c r="UC3" t="n">
         <v>24012</v>
       </c>
+      <c r="UD3" t="inlineStr"/>
+      <c r="UE3" t="inlineStr">
+        <is>
+          <t>elastic/elasticsearch</t>
+        </is>
+      </c>
+      <c r="UF3" t="n">
+        <v>66370</v>
+      </c>
+      <c r="UG3" t="n">
+        <v>2683</v>
+      </c>
+      <c r="UH3" t="n">
+        <v>24012</v>
+      </c>
+      <c r="UI3" t="inlineStr"/>
+      <c r="UJ3" t="inlineStr">
+        <is>
+          <t>elastic/elasticsearch</t>
+        </is>
+      </c>
+      <c r="UK3" t="n">
+        <v>66385</v>
+      </c>
+      <c r="UL3" t="n">
+        <v>2683</v>
+      </c>
+      <c r="UM3" t="n">
+        <v>24017</v>
+      </c>
+      <c r="UN3" t="inlineStr"/>
+      <c r="UO3" t="inlineStr">
+        <is>
+          <t>elastic/elasticsearch</t>
+        </is>
+      </c>
+      <c r="UP3" t="n">
+        <v>66386</v>
+      </c>
+      <c r="UQ3" t="n">
+        <v>2683</v>
+      </c>
+      <c r="UR3" t="n">
+        <v>24017</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7562,6 +7727,51 @@
       <c r="UC4" t="n">
         <v>11540</v>
       </c>
+      <c r="UD4" t="inlineStr"/>
+      <c r="UE4" t="inlineStr">
+        <is>
+          <t>grafana/grafana</t>
+        </is>
+      </c>
+      <c r="UF4" t="n">
+        <v>58743</v>
+      </c>
+      <c r="UG4" t="n">
+        <v>1270</v>
+      </c>
+      <c r="UH4" t="n">
+        <v>11540</v>
+      </c>
+      <c r="UI4" t="inlineStr"/>
+      <c r="UJ4" t="inlineStr">
+        <is>
+          <t>grafana/grafana</t>
+        </is>
+      </c>
+      <c r="UK4" t="n">
+        <v>58756</v>
+      </c>
+      <c r="UL4" t="n">
+        <v>1268</v>
+      </c>
+      <c r="UM4" t="n">
+        <v>11544</v>
+      </c>
+      <c r="UN4" t="inlineStr"/>
+      <c r="UO4" t="inlineStr">
+        <is>
+          <t>grafana/grafana</t>
+        </is>
+      </c>
+      <c r="UP4" t="n">
+        <v>58758</v>
+      </c>
+      <c r="UQ4" t="n">
+        <v>1268</v>
+      </c>
+      <c r="UR4" t="n">
+        <v>11544</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9023,6 +9233,51 @@
       <c r="UC5" t="n">
         <v>8703</v>
       </c>
+      <c r="UD5" t="inlineStr"/>
+      <c r="UE5" t="inlineStr">
+        <is>
+          <t>prometheus/prometheus</t>
+        </is>
+      </c>
+      <c r="UF5" t="n">
+        <v>51308</v>
+      </c>
+      <c r="UG5" t="n">
+        <v>1135</v>
+      </c>
+      <c r="UH5" t="n">
+        <v>8703</v>
+      </c>
+      <c r="UI5" t="inlineStr"/>
+      <c r="UJ5" t="inlineStr">
+        <is>
+          <t>prometheus/prometheus</t>
+        </is>
+      </c>
+      <c r="UK5" t="n">
+        <v>51323</v>
+      </c>
+      <c r="UL5" t="n">
+        <v>1135</v>
+      </c>
+      <c r="UM5" t="n">
+        <v>8706</v>
+      </c>
+      <c r="UN5" t="inlineStr"/>
+      <c r="UO5" t="inlineStr">
+        <is>
+          <t>prometheus/prometheus</t>
+        </is>
+      </c>
+      <c r="UP5" t="n">
+        <v>51324</v>
+      </c>
+      <c r="UQ5" t="n">
+        <v>1135</v>
+      </c>
+      <c r="UR5" t="n">
+        <v>8706</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -10484,6 +10739,51 @@
       <c r="UC6" t="n">
         <v>5507</v>
       </c>
+      <c r="UD6" t="inlineStr"/>
+      <c r="UE6" t="inlineStr">
+        <is>
+          <t>mongodb/mongo</t>
+        </is>
+      </c>
+      <c r="UF6" t="n">
+        <v>24913</v>
+      </c>
+      <c r="UG6" t="n">
+        <v>1233</v>
+      </c>
+      <c r="UH6" t="n">
+        <v>5507</v>
+      </c>
+      <c r="UI6" t="inlineStr"/>
+      <c r="UJ6" t="inlineStr">
+        <is>
+          <t>mongodb/mongo</t>
+        </is>
+      </c>
+      <c r="UK6" t="n">
+        <v>24918</v>
+      </c>
+      <c r="UL6" t="n">
+        <v>1233</v>
+      </c>
+      <c r="UM6" t="n">
+        <v>5510</v>
+      </c>
+      <c r="UN6" t="inlineStr"/>
+      <c r="UO6" t="inlineStr">
+        <is>
+          <t>mongodb/mongo</t>
+        </is>
+      </c>
+      <c r="UP6" t="n">
+        <v>24918</v>
+      </c>
+      <c r="UQ6" t="n">
+        <v>1233</v>
+      </c>
+      <c r="UR6" t="n">
+        <v>5510</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -11945,6 +12245,51 @@
       <c r="UC7" t="n">
         <v>9328</v>
       </c>
+      <c r="UD7" t="inlineStr"/>
+      <c r="UE7" t="inlineStr">
+        <is>
+          <t>hashicorp/terraform</t>
+        </is>
+      </c>
+      <c r="UF7" t="n">
+        <v>40025</v>
+      </c>
+      <c r="UG7" t="n">
+        <v>1190</v>
+      </c>
+      <c r="UH7" t="n">
+        <v>9330</v>
+      </c>
+      <c r="UI7" t="inlineStr"/>
+      <c r="UJ7" t="inlineStr">
+        <is>
+          <t>hashicorp/terraform</t>
+        </is>
+      </c>
+      <c r="UK7" t="n">
+        <v>40035</v>
+      </c>
+      <c r="UL7" t="n">
+        <v>1190</v>
+      </c>
+      <c r="UM7" t="n">
+        <v>9329</v>
+      </c>
+      <c r="UN7" t="inlineStr"/>
+      <c r="UO7" t="inlineStr">
+        <is>
+          <t>hashicorp/terraform</t>
+        </is>
+      </c>
+      <c r="UP7" t="n">
+        <v>40037</v>
+      </c>
+      <c r="UQ7" t="n">
+        <v>1190</v>
+      </c>
+      <c r="UR7" t="n">
+        <v>9329</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -13406,6 +13751,51 @@
       <c r="UC8" t="n">
         <v>4091</v>
       </c>
+      <c r="UD8" t="inlineStr"/>
+      <c r="UE8" t="inlineStr">
+        <is>
+          <t>hashicorp/vault</t>
+        </is>
+      </c>
+      <c r="UF8" t="n">
+        <v>29122</v>
+      </c>
+      <c r="UG8" t="n">
+        <v>827</v>
+      </c>
+      <c r="UH8" t="n">
+        <v>4091</v>
+      </c>
+      <c r="UI8" t="inlineStr"/>
+      <c r="UJ8" t="inlineStr">
+        <is>
+          <t>hashicorp/vault</t>
+        </is>
+      </c>
+      <c r="UK8" t="n">
+        <v>29135</v>
+      </c>
+      <c r="UL8" t="n">
+        <v>827</v>
+      </c>
+      <c r="UM8" t="n">
+        <v>4091</v>
+      </c>
+      <c r="UN8" t="inlineStr"/>
+      <c r="UO8" t="inlineStr">
+        <is>
+          <t>hashicorp/vault</t>
+        </is>
+      </c>
+      <c r="UP8" t="n">
+        <v>29135</v>
+      </c>
+      <c r="UQ8" t="n">
+        <v>827</v>
+      </c>
+      <c r="UR8" t="n">
+        <v>4091</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -14867,6 +15257,51 @@
       <c r="UC9" t="n">
         <v>5782</v>
       </c>
+      <c r="UD9" t="inlineStr"/>
+      <c r="UE9" t="inlineStr">
+        <is>
+          <t>gitlabhq/gitlabhq</t>
+        </is>
+      </c>
+      <c r="UF9" t="n">
+        <v>23464</v>
+      </c>
+      <c r="UG9" t="n">
+        <v>975</v>
+      </c>
+      <c r="UH9" t="n">
+        <v>5782</v>
+      </c>
+      <c r="UI9" t="inlineStr"/>
+      <c r="UJ9" t="inlineStr">
+        <is>
+          <t>hashicorp/consul</t>
+        </is>
+      </c>
+      <c r="UK9" t="n">
+        <v>27472</v>
+      </c>
+      <c r="UL9" t="n">
+        <v>930</v>
+      </c>
+      <c r="UM9" t="n">
+        <v>4437</v>
+      </c>
+      <c r="UN9" t="inlineStr"/>
+      <c r="UO9" t="inlineStr">
+        <is>
+          <t>hashicorp/consul</t>
+        </is>
+      </c>
+      <c r="UP9" t="n">
+        <v>27472</v>
+      </c>
+      <c r="UQ9" t="n">
+        <v>930</v>
+      </c>
+      <c r="UR9" t="n">
+        <v>4437</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -16328,6 +16763,51 @@
       <c r="UC10" t="n">
         <v>13367</v>
       </c>
+      <c r="UD10" t="inlineStr"/>
+      <c r="UE10" t="inlineStr">
+        <is>
+          <t>apache/kafka</t>
+        </is>
+      </c>
+      <c r="UF10" t="n">
+        <v>26591</v>
+      </c>
+      <c r="UG10" t="n">
+        <v>1075</v>
+      </c>
+      <c r="UH10" t="n">
+        <v>13366</v>
+      </c>
+      <c r="UI10" t="inlineStr"/>
+      <c r="UJ10" t="inlineStr">
+        <is>
+          <t>hashicorp/nomad</t>
+        </is>
+      </c>
+      <c r="UK10" t="n">
+        <v>14194</v>
+      </c>
+      <c r="UL10" t="n">
+        <v>538</v>
+      </c>
+      <c r="UM10" t="n">
+        <v>1896</v>
+      </c>
+      <c r="UN10" t="inlineStr"/>
+      <c r="UO10" t="inlineStr">
+        <is>
+          <t>hashicorp/nomad</t>
+        </is>
+      </c>
+      <c r="UP10" t="n">
+        <v>14194</v>
+      </c>
+      <c r="UQ10" t="n">
+        <v>538</v>
+      </c>
+      <c r="UR10" t="n">
+        <v>1896</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -17789,6 +18269,51 @@
       <c r="UC11" t="n">
         <v>13007</v>
       </c>
+      <c r="UD11" t="inlineStr"/>
+      <c r="UE11" t="inlineStr">
+        <is>
+          <t>apache/flink</t>
+        </is>
+      </c>
+      <c r="UF11" t="n">
+        <v>22582</v>
+      </c>
+      <c r="UG11" t="n">
+        <v>943</v>
+      </c>
+      <c r="UH11" t="n">
+        <v>13008</v>
+      </c>
+      <c r="UI11" t="inlineStr"/>
+      <c r="UJ11" t="inlineStr">
+        <is>
+          <t>hashicorp/vagrant</t>
+        </is>
+      </c>
+      <c r="UK11" t="n">
+        <v>25609</v>
+      </c>
+      <c r="UL11" t="n">
+        <v>726</v>
+      </c>
+      <c r="UM11" t="n">
+        <v>4493</v>
+      </c>
+      <c r="UN11" t="inlineStr"/>
+      <c r="UO11" t="inlineStr">
+        <is>
+          <t>hashicorp/vagrant</t>
+        </is>
+      </c>
+      <c r="UP11" t="n">
+        <v>25610</v>
+      </c>
+      <c r="UQ11" t="n">
+        <v>726</v>
+      </c>
+      <c r="UR11" t="n">
+        <v>4493</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -19250,6 +19775,51 @@
       <c r="UC12" t="n">
         <v>28110</v>
       </c>
+      <c r="UD12" t="inlineStr"/>
+      <c r="UE12" t="inlineStr">
+        <is>
+          <t>apache/spark</t>
+        </is>
+      </c>
+      <c r="UF12" t="n">
+        <v>37555</v>
+      </c>
+      <c r="UG12" t="n">
+        <v>2033</v>
+      </c>
+      <c r="UH12" t="n">
+        <v>28110</v>
+      </c>
+      <c r="UI12" t="inlineStr"/>
+      <c r="UJ12" t="inlineStr">
+        <is>
+          <t>hashicorp/boundary</t>
+        </is>
+      </c>
+      <c r="UK12" t="n">
+        <v>3733</v>
+      </c>
+      <c r="UL12" t="n">
+        <v>200</v>
+      </c>
+      <c r="UM12" t="n">
+        <v>274</v>
+      </c>
+      <c r="UN12" t="inlineStr"/>
+      <c r="UO12" t="inlineStr">
+        <is>
+          <t>hashicorp/boundary</t>
+        </is>
+      </c>
+      <c r="UP12" t="n">
+        <v>3733</v>
+      </c>
+      <c r="UQ12" t="n">
+        <v>200</v>
+      </c>
+      <c r="UR12" t="n">
+        <v>274</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -20711,6 +21281,51 @@
       <c r="UC13" t="n">
         <v>644</v>
       </c>
+      <c r="UD13" t="inlineStr"/>
+      <c r="UE13" t="inlineStr">
+        <is>
+          <t>atlassian-api/atlassian-python-api</t>
+        </is>
+      </c>
+      <c r="UF13" t="n">
+        <v>1197</v>
+      </c>
+      <c r="UG13" t="n">
+        <v>40</v>
+      </c>
+      <c r="UH13" t="n">
+        <v>644</v>
+      </c>
+      <c r="UI13" t="inlineStr"/>
+      <c r="UJ13" t="inlineStr">
+        <is>
+          <t>hashicorp/packer</t>
+        </is>
+      </c>
+      <c r="UK13" t="n">
+        <v>14750</v>
+      </c>
+      <c r="UL13" t="n">
+        <v>479</v>
+      </c>
+      <c r="UM13" t="n">
+        <v>3371</v>
+      </c>
+      <c r="UN13" t="inlineStr"/>
+      <c r="UO13" t="inlineStr">
+        <is>
+          <t>hashicorp/packer</t>
+        </is>
+      </c>
+      <c r="UP13" t="n">
+        <v>14750</v>
+      </c>
+      <c r="UQ13" t="n">
+        <v>479</v>
+      </c>
+      <c r="UR13" t="n">
+        <v>3372</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -22172,6 +22787,51 @@
       <c r="UC14" t="n">
         <v>136</v>
       </c>
+      <c r="UD14" t="inlineStr"/>
+      <c r="UE14" t="inlineStr">
+        <is>
+          <t>dynatrace/dynatrace-operator</t>
+        </is>
+      </c>
+      <c r="UF14" t="n">
+        <v>142</v>
+      </c>
+      <c r="UG14" t="n">
+        <v>12</v>
+      </c>
+      <c r="UH14" t="n">
+        <v>136</v>
+      </c>
+      <c r="UI14" t="inlineStr"/>
+      <c r="UJ14" t="inlineStr">
+        <is>
+          <t>gitlabhq/gitlabhq</t>
+        </is>
+      </c>
+      <c r="UK14" t="n">
+        <v>23469</v>
+      </c>
+      <c r="UL14" t="n">
+        <v>975</v>
+      </c>
+      <c r="UM14" t="n">
+        <v>5784</v>
+      </c>
+      <c r="UN14" t="inlineStr"/>
+      <c r="UO14" t="inlineStr">
+        <is>
+          <t>gitlabhq/gitlabhq</t>
+        </is>
+      </c>
+      <c r="UP14" t="n">
+        <v>23469</v>
+      </c>
+      <c r="UQ14" t="n">
+        <v>975</v>
+      </c>
+      <c r="UR14" t="n">
+        <v>5784</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -23633,6 +24293,51 @@
       <c r="UC15" t="n">
         <v>304</v>
       </c>
+      <c r="UD15" t="inlineStr"/>
+      <c r="UE15" t="inlineStr">
+        <is>
+          <t>couchbase/couchbase-lite-ios</t>
+        </is>
+      </c>
+      <c r="UF15" t="n">
+        <v>1607</v>
+      </c>
+      <c r="UG15" t="n">
+        <v>85</v>
+      </c>
+      <c r="UH15" t="n">
+        <v>304</v>
+      </c>
+      <c r="UI15" t="inlineStr"/>
+      <c r="UJ15" t="inlineStr">
+        <is>
+          <t>apache/kafka</t>
+        </is>
+      </c>
+      <c r="UK15" t="n">
+        <v>26598</v>
+      </c>
+      <c r="UL15" t="n">
+        <v>1075</v>
+      </c>
+      <c r="UM15" t="n">
+        <v>13369</v>
+      </c>
+      <c r="UN15" t="inlineStr"/>
+      <c r="UO15" t="inlineStr">
+        <is>
+          <t>apache/kafka</t>
+        </is>
+      </c>
+      <c r="UP15" t="n">
+        <v>26599</v>
+      </c>
+      <c r="UQ15" t="n">
+        <v>1075</v>
+      </c>
+      <c r="UR15" t="n">
+        <v>13369</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -25094,6 +25799,51 @@
       <c r="UC16" t="n">
         <v>1131</v>
       </c>
+      <c r="UD16" t="inlineStr"/>
+      <c r="UE16" t="inlineStr">
+        <is>
+          <t>DataDog/datadog-agent</t>
+        </is>
+      </c>
+      <c r="UF16" t="n">
+        <v>2435</v>
+      </c>
+      <c r="UG16" t="n">
+        <v>489</v>
+      </c>
+      <c r="UH16" t="n">
+        <v>1131</v>
+      </c>
+      <c r="UI16" t="inlineStr"/>
+      <c r="UJ16" t="inlineStr">
+        <is>
+          <t>apache/flink</t>
+        </is>
+      </c>
+      <c r="UK16" t="n">
+        <v>22619</v>
+      </c>
+      <c r="UL16" t="n">
+        <v>944</v>
+      </c>
+      <c r="UM16" t="n">
+        <v>13014</v>
+      </c>
+      <c r="UN16" t="inlineStr"/>
+      <c r="UO16" t="inlineStr">
+        <is>
+          <t>apache/flink</t>
+        </is>
+      </c>
+      <c r="UP16" t="n">
+        <v>22624</v>
+      </c>
+      <c r="UQ16" t="n">
+        <v>944</v>
+      </c>
+      <c r="UR16" t="n">
+        <v>13014</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -26555,6 +27305,51 @@
       <c r="UC17" t="n">
         <v>853</v>
       </c>
+      <c r="UD17" t="inlineStr"/>
+      <c r="UE17" t="inlineStr">
+        <is>
+          <t>DataDog/dd-agent</t>
+        </is>
+      </c>
+      <c r="UF17" t="n">
+        <v>1297</v>
+      </c>
+      <c r="UG17" t="n">
+        <v>393</v>
+      </c>
+      <c r="UH17" t="n">
+        <v>853</v>
+      </c>
+      <c r="UI17" t="inlineStr"/>
+      <c r="UJ17" t="inlineStr">
+        <is>
+          <t>apache/spark</t>
+        </is>
+      </c>
+      <c r="UK17" t="n">
+        <v>37570</v>
+      </c>
+      <c r="UL17" t="n">
+        <v>2032</v>
+      </c>
+      <c r="UM17" t="n">
+        <v>28116</v>
+      </c>
+      <c r="UN17" t="inlineStr"/>
+      <c r="UO17" t="inlineStr">
+        <is>
+          <t>apache/spark</t>
+        </is>
+      </c>
+      <c r="UP17" t="n">
+        <v>37570</v>
+      </c>
+      <c r="UQ17" t="n">
+        <v>2032</v>
+      </c>
+      <c r="UR17" t="n">
+        <v>28116</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -28016,6 +28811,51 @@
       <c r="UC18" t="n">
         <v>337</v>
       </c>
+      <c r="UD18" t="inlineStr"/>
+      <c r="UE18" t="inlineStr">
+        <is>
+          <t>DataDog/datadogpy</t>
+        </is>
+      </c>
+      <c r="UF18" t="n">
+        <v>585</v>
+      </c>
+      <c r="UG18" t="n">
+        <v>515</v>
+      </c>
+      <c r="UH18" t="n">
+        <v>337</v>
+      </c>
+      <c r="UI18" t="inlineStr"/>
+      <c r="UJ18" t="inlineStr">
+        <is>
+          <t>atlassian-api/atlassian-python-api</t>
+        </is>
+      </c>
+      <c r="UK18" t="n">
+        <v>1197</v>
+      </c>
+      <c r="UL18" t="n">
+        <v>40</v>
+      </c>
+      <c r="UM18" t="n">
+        <v>645</v>
+      </c>
+      <c r="UN18" t="inlineStr"/>
+      <c r="UO18" t="inlineStr">
+        <is>
+          <t>atlassian-api/atlassian-python-api</t>
+        </is>
+      </c>
+      <c r="UP18" t="n">
+        <v>1197</v>
+      </c>
+      <c r="UQ18" t="n">
+        <v>40</v>
+      </c>
+      <c r="UR18" t="n">
+        <v>645</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -29477,6 +30317,51 @@
       <c r="UC19" t="n">
         <v>737</v>
       </c>
+      <c r="UD19" t="inlineStr"/>
+      <c r="UE19" t="inlineStr">
+        <is>
+          <t>HubSpot/odometer</t>
+        </is>
+      </c>
+      <c r="UF19" t="n">
+        <v>7261</v>
+      </c>
+      <c r="UG19" t="n">
+        <v>286</v>
+      </c>
+      <c r="UH19" t="n">
+        <v>737</v>
+      </c>
+      <c r="UI19" t="inlineStr"/>
+      <c r="UJ19" t="inlineStr">
+        <is>
+          <t>dynatrace/dynatrace-operator</t>
+        </is>
+      </c>
+      <c r="UK19" t="n">
+        <v>144</v>
+      </c>
+      <c r="UL19" t="n">
+        <v>12</v>
+      </c>
+      <c r="UM19" t="n">
+        <v>136</v>
+      </c>
+      <c r="UN19" t="inlineStr"/>
+      <c r="UO19" t="inlineStr">
+        <is>
+          <t>dynatrace/dynatrace-operator</t>
+        </is>
+      </c>
+      <c r="UP19" t="n">
+        <v>144</v>
+      </c>
+      <c r="UQ19" t="n">
+        <v>12</v>
+      </c>
+      <c r="UR19" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -30938,6 +31823,51 @@
       <c r="UC20" t="n">
         <v>56</v>
       </c>
+      <c r="UD20" t="inlineStr"/>
+      <c r="UE20" t="inlineStr">
+        <is>
+          <t>MicroStrategy/mstrio-py</t>
+        </is>
+      </c>
+      <c r="UF20" t="n">
+        <v>87</v>
+      </c>
+      <c r="UG20" t="n">
+        <v>25</v>
+      </c>
+      <c r="UH20" t="n">
+        <v>56</v>
+      </c>
+      <c r="UI20" t="inlineStr"/>
+      <c r="UJ20" t="inlineStr">
+        <is>
+          <t>couchbase/couchbase-lite-ios</t>
+        </is>
+      </c>
+      <c r="UK20" t="n">
+        <v>1607</v>
+      </c>
+      <c r="UL20" t="n">
+        <v>85</v>
+      </c>
+      <c r="UM20" t="n">
+        <v>304</v>
+      </c>
+      <c r="UN20" t="inlineStr"/>
+      <c r="UO20" t="inlineStr">
+        <is>
+          <t>couchbase/couchbase-lite-ios</t>
+        </is>
+      </c>
+      <c r="UP20" t="n">
+        <v>1607</v>
+      </c>
+      <c r="UQ20" t="n">
+        <v>85</v>
+      </c>
+      <c r="UR20" t="n">
+        <v>304</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -32399,6 +33329,51 @@
       <c r="UC21" t="n">
         <v>744</v>
       </c>
+      <c r="UD21" t="inlineStr"/>
+      <c r="UE21" t="inlineStr">
+        <is>
+          <t>twilio/twilio-python</t>
+        </is>
+      </c>
+      <c r="UF21" t="n">
+        <v>1747</v>
+      </c>
+      <c r="UG21" t="n">
+        <v>125</v>
+      </c>
+      <c r="UH21" t="n">
+        <v>744</v>
+      </c>
+      <c r="UI21" t="inlineStr"/>
+      <c r="UJ21" t="inlineStr">
+        <is>
+          <t>DataDog/datadog-agent</t>
+        </is>
+      </c>
+      <c r="UK21" t="n">
+        <v>2436</v>
+      </c>
+      <c r="UL21" t="n">
+        <v>489</v>
+      </c>
+      <c r="UM21" t="n">
+        <v>1132</v>
+      </c>
+      <c r="UN21" t="inlineStr"/>
+      <c r="UO21" t="inlineStr">
+        <is>
+          <t>DataDog/datadog-agent</t>
+        </is>
+      </c>
+      <c r="UP21" t="n">
+        <v>2436</v>
+      </c>
+      <c r="UQ21" t="n">
+        <v>489</v>
+      </c>
+      <c r="UR21" t="n">
+        <v>1132</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -33860,6 +34835,51 @@
       <c r="UC22" t="n">
         <v>607</v>
       </c>
+      <c r="UD22" t="inlineStr"/>
+      <c r="UE22" t="inlineStr">
+        <is>
+          <t>twilio/twilio-php</t>
+        </is>
+      </c>
+      <c r="UF22" t="n">
+        <v>1466</v>
+      </c>
+      <c r="UG22" t="n">
+        <v>128</v>
+      </c>
+      <c r="UH22" t="n">
+        <v>607</v>
+      </c>
+      <c r="UI22" t="inlineStr"/>
+      <c r="UJ22" t="inlineStr">
+        <is>
+          <t>DataDog/dd-agent</t>
+        </is>
+      </c>
+      <c r="UK22" t="n">
+        <v>1297</v>
+      </c>
+      <c r="UL22" t="n">
+        <v>393</v>
+      </c>
+      <c r="UM22" t="n">
+        <v>853</v>
+      </c>
+      <c r="UN22" t="inlineStr"/>
+      <c r="UO22" t="inlineStr">
+        <is>
+          <t>DataDog/dd-agent</t>
+        </is>
+      </c>
+      <c r="UP22" t="n">
+        <v>1297</v>
+      </c>
+      <c r="UQ22" t="n">
+        <v>393</v>
+      </c>
+      <c r="UR22" t="n">
+        <v>853</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -35321,6 +36341,51 @@
       <c r="UC23" t="n">
         <v>68</v>
       </c>
+      <c r="UD23" t="inlineStr"/>
+      <c r="UE23" t="inlineStr">
+        <is>
+          <t>ropensci/qualtRics</t>
+        </is>
+      </c>
+      <c r="UF23" t="n">
+        <v>207</v>
+      </c>
+      <c r="UG23" t="n">
+        <v>19</v>
+      </c>
+      <c r="UH23" t="n">
+        <v>68</v>
+      </c>
+      <c r="UI23" t="inlineStr"/>
+      <c r="UJ23" t="inlineStr">
+        <is>
+          <t>DataDog/datadogpy</t>
+        </is>
+      </c>
+      <c r="UK23" t="n">
+        <v>585</v>
+      </c>
+      <c r="UL23" t="n">
+        <v>515</v>
+      </c>
+      <c r="UM23" t="n">
+        <v>337</v>
+      </c>
+      <c r="UN23" t="inlineStr"/>
+      <c r="UO23" t="inlineStr">
+        <is>
+          <t>DataDog/datadogpy</t>
+        </is>
+      </c>
+      <c r="UP23" t="n">
+        <v>585</v>
+      </c>
+      <c r="UQ23" t="n">
+        <v>515</v>
+      </c>
+      <c r="UR23" t="n">
+        <v>337</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -36782,6 +37847,51 @@
       <c r="UC24" t="n">
         <v>139</v>
       </c>
+      <c r="UD24" t="inlineStr"/>
+      <c r="UE24" t="inlineStr">
+        <is>
+          <t>CrowdStrike/CRT</t>
+        </is>
+      </c>
+      <c r="UF24" t="n">
+        <v>677</v>
+      </c>
+      <c r="UG24" t="n">
+        <v>35</v>
+      </c>
+      <c r="UH24" t="n">
+        <v>139</v>
+      </c>
+      <c r="UI24" t="inlineStr"/>
+      <c r="UJ24" t="inlineStr">
+        <is>
+          <t>HubSpot/odometer</t>
+        </is>
+      </c>
+      <c r="UK24" t="n">
+        <v>7261</v>
+      </c>
+      <c r="UL24" t="n">
+        <v>286</v>
+      </c>
+      <c r="UM24" t="n">
+        <v>737</v>
+      </c>
+      <c r="UN24" t="inlineStr"/>
+      <c r="UO24" t="inlineStr">
+        <is>
+          <t>HubSpot/odometer</t>
+        </is>
+      </c>
+      <c r="UP24" t="n">
+        <v>7261</v>
+      </c>
+      <c r="UQ24" t="n">
+        <v>286</v>
+      </c>
+      <c r="UR24" t="n">
+        <v>737</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -38243,6 +39353,51 @@
       <c r="UC25" t="n">
         <v>119</v>
       </c>
+      <c r="UD25" t="inlineStr"/>
+      <c r="UE25" t="inlineStr">
+        <is>
+          <t>fastly/go-fastly</t>
+        </is>
+      </c>
+      <c r="UF25" t="n">
+        <v>146</v>
+      </c>
+      <c r="UG25" t="n">
+        <v>70</v>
+      </c>
+      <c r="UH25" t="n">
+        <v>119</v>
+      </c>
+      <c r="UI25" t="inlineStr"/>
+      <c r="UJ25" t="inlineStr">
+        <is>
+          <t>MicroStrategy/mstrio-py</t>
+        </is>
+      </c>
+      <c r="UK25" t="n">
+        <v>87</v>
+      </c>
+      <c r="UL25" t="n">
+        <v>25</v>
+      </c>
+      <c r="UM25" t="n">
+        <v>56</v>
+      </c>
+      <c r="UN25" t="inlineStr"/>
+      <c r="UO25" t="inlineStr">
+        <is>
+          <t>MicroStrategy/mstrio-py</t>
+        </is>
+      </c>
+      <c r="UP25" t="n">
+        <v>87</v>
+      </c>
+      <c r="UQ25" t="n">
+        <v>25</v>
+      </c>
+      <c r="UR25" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -39704,6 +40859,51 @@
       <c r="UC26" t="n">
         <v>708</v>
       </c>
+      <c r="UD26" t="inlineStr"/>
+      <c r="UE26" t="inlineStr">
+        <is>
+          <t>cloudflare/cloudflared</t>
+        </is>
+      </c>
+      <c r="UF26" t="n">
+        <v>7230</v>
+      </c>
+      <c r="UG26" t="n">
+        <v>93</v>
+      </c>
+      <c r="UH26" t="n">
+        <v>708</v>
+      </c>
+      <c r="UI26" t="inlineStr"/>
+      <c r="UJ26" t="inlineStr">
+        <is>
+          <t>twilio/twilio-python</t>
+        </is>
+      </c>
+      <c r="UK26" t="n">
+        <v>1748</v>
+      </c>
+      <c r="UL26" t="n">
+        <v>125</v>
+      </c>
+      <c r="UM26" t="n">
+        <v>745</v>
+      </c>
+      <c r="UN26" t="inlineStr"/>
+      <c r="UO26" t="inlineStr">
+        <is>
+          <t>twilio/twilio-python</t>
+        </is>
+      </c>
+      <c r="UP26" t="n">
+        <v>1748</v>
+      </c>
+      <c r="UQ26" t="n">
+        <v>125</v>
+      </c>
+      <c r="UR26" t="n">
+        <v>745</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -41165,6 +42365,51 @@
       <c r="UC27" t="n">
         <v>93</v>
       </c>
+      <c r="UD27" t="inlineStr"/>
+      <c r="UE27" t="inlineStr">
+        <is>
+          <t>nutanix/blueprints</t>
+        </is>
+      </c>
+      <c r="UF27" t="n">
+        <v>71</v>
+      </c>
+      <c r="UG27" t="n">
+        <v>30</v>
+      </c>
+      <c r="UH27" t="n">
+        <v>93</v>
+      </c>
+      <c r="UI27" t="inlineStr"/>
+      <c r="UJ27" t="inlineStr">
+        <is>
+          <t>twilio/twilio-php</t>
+        </is>
+      </c>
+      <c r="UK27" t="n">
+        <v>1467</v>
+      </c>
+      <c r="UL27" t="n">
+        <v>128</v>
+      </c>
+      <c r="UM27" t="n">
+        <v>607</v>
+      </c>
+      <c r="UN27" t="inlineStr"/>
+      <c r="UO27" t="inlineStr">
+        <is>
+          <t>twilio/twilio-php</t>
+        </is>
+      </c>
+      <c r="UP27" t="n">
+        <v>1467</v>
+      </c>
+      <c r="UQ27" t="n">
+        <v>128</v>
+      </c>
+      <c r="UR27" t="n">
+        <v>607</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -42616,6 +43861,51 @@
       <c r="UA28" t="inlineStr"/>
       <c r="UB28" t="inlineStr"/>
       <c r="UC28" t="inlineStr"/>
+      <c r="UD28" t="inlineStr"/>
+      <c r="UE28" t="inlineStr">
+        <is>
+          <t>okta/terraform-provider-okta</t>
+        </is>
+      </c>
+      <c r="UF28" t="n">
+        <v>225</v>
+      </c>
+      <c r="UG28" t="n">
+        <v>29</v>
+      </c>
+      <c r="UH28" t="n">
+        <v>195</v>
+      </c>
+      <c r="UI28" t="inlineStr"/>
+      <c r="UJ28" t="inlineStr">
+        <is>
+          <t>ropensci/qualtRics</t>
+        </is>
+      </c>
+      <c r="UK28" t="n">
+        <v>207</v>
+      </c>
+      <c r="UL28" t="n">
+        <v>19</v>
+      </c>
+      <c r="UM28" t="n">
+        <v>68</v>
+      </c>
+      <c r="UN28" t="inlineStr"/>
+      <c r="UO28" t="inlineStr">
+        <is>
+          <t>ropensci/qualtRics</t>
+        </is>
+      </c>
+      <c r="UP28" t="n">
+        <v>207</v>
+      </c>
+      <c r="UQ28" t="n">
+        <v>19</v>
+      </c>
+      <c r="UR28" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -44067,6 +45357,51 @@
       <c r="UA29" t="inlineStr"/>
       <c r="UB29" t="inlineStr"/>
       <c r="UC29" t="inlineStr"/>
+      <c r="UD29" t="inlineStr"/>
+      <c r="UE29" t="inlineStr">
+        <is>
+          <t>PaloAltoNetworks/ansible-pan</t>
+        </is>
+      </c>
+      <c r="UF29" t="n">
+        <v>222</v>
+      </c>
+      <c r="UG29" t="n">
+        <v>66</v>
+      </c>
+      <c r="UH29" t="n">
+        <v>163</v>
+      </c>
+      <c r="UI29" t="inlineStr"/>
+      <c r="UJ29" t="inlineStr">
+        <is>
+          <t>CrowdStrike/CRT</t>
+        </is>
+      </c>
+      <c r="UK29" t="n">
+        <v>678</v>
+      </c>
+      <c r="UL29" t="n">
+        <v>35</v>
+      </c>
+      <c r="UM29" t="n">
+        <v>139</v>
+      </c>
+      <c r="UN29" t="inlineStr"/>
+      <c r="UO29" t="inlineStr">
+        <is>
+          <t>CrowdStrike/CRT</t>
+        </is>
+      </c>
+      <c r="UP29" t="n">
+        <v>678</v>
+      </c>
+      <c r="UQ29" t="n">
+        <v>35</v>
+      </c>
+      <c r="UR29" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -45518,6 +46853,51 @@
       <c r="UA30" t="inlineStr"/>
       <c r="UB30" t="inlineStr"/>
       <c r="UC30" t="inlineStr"/>
+      <c r="UD30" t="inlineStr"/>
+      <c r="UE30" t="inlineStr">
+        <is>
+          <t>tenable/pyTenable</t>
+        </is>
+      </c>
+      <c r="UF30" t="n">
+        <v>309</v>
+      </c>
+      <c r="UG30" t="n">
+        <v>47</v>
+      </c>
+      <c r="UH30" t="n">
+        <v>162</v>
+      </c>
+      <c r="UI30" t="inlineStr"/>
+      <c r="UJ30" t="inlineStr">
+        <is>
+          <t>fastly/go-fastly</t>
+        </is>
+      </c>
+      <c r="UK30" t="n">
+        <v>146</v>
+      </c>
+      <c r="UL30" t="n">
+        <v>69</v>
+      </c>
+      <c r="UM30" t="n">
+        <v>119</v>
+      </c>
+      <c r="UN30" t="inlineStr"/>
+      <c r="UO30" t="inlineStr">
+        <is>
+          <t>fastly/go-fastly</t>
+        </is>
+      </c>
+      <c r="UP30" t="n">
+        <v>146</v>
+      </c>
+      <c r="UQ30" t="n">
+        <v>69</v>
+      </c>
+      <c r="UR30" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -46969,6 +48349,51 @@
       <c r="UA31" t="inlineStr"/>
       <c r="UB31" t="inlineStr"/>
       <c r="UC31" t="inlineStr"/>
+      <c r="UD31" t="inlineStr"/>
+      <c r="UE31" t="inlineStr">
+        <is>
+          <t>procore/js-sdk</t>
+        </is>
+      </c>
+      <c r="UF31" t="n">
+        <v>13</v>
+      </c>
+      <c r="UG31" t="n">
+        <v>156</v>
+      </c>
+      <c r="UH31" t="n">
+        <v>7</v>
+      </c>
+      <c r="UI31" t="inlineStr"/>
+      <c r="UJ31" t="inlineStr">
+        <is>
+          <t>cloudflare/cloudflared</t>
+        </is>
+      </c>
+      <c r="UK31" t="n">
+        <v>7240</v>
+      </c>
+      <c r="UL31" t="n">
+        <v>92</v>
+      </c>
+      <c r="UM31" t="n">
+        <v>710</v>
+      </c>
+      <c r="UN31" t="inlineStr"/>
+      <c r="UO31" t="inlineStr">
+        <is>
+          <t>cloudflare/cloudflared</t>
+        </is>
+      </c>
+      <c r="UP31" t="n">
+        <v>7240</v>
+      </c>
+      <c r="UQ31" t="n">
+        <v>92</v>
+      </c>
+      <c r="UR31" t="n">
+        <v>710</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -48420,6 +49845,51 @@
       <c r="UA32" t="inlineStr"/>
       <c r="UB32" t="inlineStr"/>
       <c r="UC32" t="inlineStr"/>
+      <c r="UD32" t="inlineStr"/>
+      <c r="UE32" t="inlineStr">
+        <is>
+          <t>ringcentral/ringcentral-web-phone</t>
+        </is>
+      </c>
+      <c r="UF32" t="n">
+        <v>102</v>
+      </c>
+      <c r="UG32" t="n">
+        <v>26</v>
+      </c>
+      <c r="UH32" t="n">
+        <v>73</v>
+      </c>
+      <c r="UI32" t="inlineStr"/>
+      <c r="UJ32" t="inlineStr">
+        <is>
+          <t>nutanix/blueprints</t>
+        </is>
+      </c>
+      <c r="UK32" t="n">
+        <v>71</v>
+      </c>
+      <c r="UL32" t="n">
+        <v>30</v>
+      </c>
+      <c r="UM32" t="n">
+        <v>93</v>
+      </c>
+      <c r="UN32" t="inlineStr"/>
+      <c r="UO32" t="inlineStr">
+        <is>
+          <t>nutanix/blueprints</t>
+        </is>
+      </c>
+      <c r="UP32" t="n">
+        <v>71</v>
+      </c>
+      <c r="UQ32" t="n">
+        <v>30</v>
+      </c>
+      <c r="UR32" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -49871,6 +51341,51 @@
       <c r="UA33" t="inlineStr"/>
       <c r="UB33" t="inlineStr"/>
       <c r="UC33" t="inlineStr"/>
+      <c r="UD33" t="inlineStr"/>
+      <c r="UE33" t="inlineStr">
+        <is>
+          <t>smartsheet-platform/smartsheet-python-sdk</t>
+        </is>
+      </c>
+      <c r="UF33" t="n">
+        <v>128</v>
+      </c>
+      <c r="UG33" t="n">
+        <v>28</v>
+      </c>
+      <c r="UH33" t="n">
+        <v>82</v>
+      </c>
+      <c r="UI33" t="inlineStr"/>
+      <c r="UJ33" t="inlineStr">
+        <is>
+          <t>okta/terraform-provider-okta</t>
+        </is>
+      </c>
+      <c r="UK33" t="n">
+        <v>225</v>
+      </c>
+      <c r="UL33" t="n">
+        <v>29</v>
+      </c>
+      <c r="UM33" t="n">
+        <v>195</v>
+      </c>
+      <c r="UN33" t="inlineStr"/>
+      <c r="UO33" t="inlineStr">
+        <is>
+          <t>okta/terraform-provider-okta</t>
+        </is>
+      </c>
+      <c r="UP33" t="n">
+        <v>225</v>
+      </c>
+      <c r="UQ33" t="n">
+        <v>29</v>
+      </c>
+      <c r="UR33" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -51322,6 +52837,2981 @@
       <c r="UA34" t="inlineStr"/>
       <c r="UB34" t="inlineStr"/>
       <c r="UC34" t="inlineStr"/>
+      <c r="UD34" t="inlineStr"/>
+      <c r="UE34" t="inlineStr">
+        <is>
+          <t>confluentinc/confluent-kafka-python</t>
+        </is>
+      </c>
+      <c r="UF34" t="n">
+        <v>3513</v>
+      </c>
+      <c r="UG34" t="n">
+        <v>338</v>
+      </c>
+      <c r="UH34" t="n">
+        <v>908</v>
+      </c>
+      <c r="UI34" t="inlineStr"/>
+      <c r="UJ34" t="inlineStr">
+        <is>
+          <t>PaloAltoNetworks/ansible-pan</t>
+        </is>
+      </c>
+      <c r="UK34" t="n">
+        <v>223</v>
+      </c>
+      <c r="UL34" t="n">
+        <v>66</v>
+      </c>
+      <c r="UM34" t="n">
+        <v>163</v>
+      </c>
+      <c r="UN34" t="inlineStr"/>
+      <c r="UO34" t="inlineStr">
+        <is>
+          <t>PaloAltoNetworks/ansible-pan</t>
+        </is>
+      </c>
+      <c r="UP34" t="n">
+        <v>223</v>
+      </c>
+      <c r="UQ34" t="n">
+        <v>66</v>
+      </c>
+      <c r="UR34" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr"/>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AU35" t="inlineStr"/>
+      <c r="AV35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr"/>
+      <c r="AX35" t="inlineStr"/>
+      <c r="AY35" t="inlineStr"/>
+      <c r="AZ35" t="inlineStr"/>
+      <c r="BA35" t="inlineStr"/>
+      <c r="BB35" t="inlineStr"/>
+      <c r="BC35" t="inlineStr"/>
+      <c r="BD35" t="inlineStr"/>
+      <c r="BE35" t="inlineStr"/>
+      <c r="BF35" t="inlineStr"/>
+      <c r="BG35" t="inlineStr"/>
+      <c r="BH35" t="inlineStr"/>
+      <c r="BI35" t="inlineStr"/>
+      <c r="BJ35" t="inlineStr"/>
+      <c r="BK35" t="inlineStr"/>
+      <c r="BL35" t="inlineStr"/>
+      <c r="BM35" t="inlineStr"/>
+      <c r="BN35" t="inlineStr"/>
+      <c r="BO35" t="inlineStr"/>
+      <c r="BP35" t="inlineStr"/>
+      <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
+      <c r="BS35" t="inlineStr"/>
+      <c r="BT35" t="inlineStr"/>
+      <c r="BU35" t="inlineStr"/>
+      <c r="BV35" t="inlineStr"/>
+      <c r="BW35" t="inlineStr"/>
+      <c r="BX35" t="inlineStr"/>
+      <c r="BY35" t="inlineStr"/>
+      <c r="BZ35" t="inlineStr"/>
+      <c r="CA35" t="inlineStr"/>
+      <c r="CB35" t="inlineStr"/>
+      <c r="CC35" t="inlineStr"/>
+      <c r="CD35" t="inlineStr"/>
+      <c r="CE35" t="inlineStr"/>
+      <c r="CF35" t="inlineStr"/>
+      <c r="CG35" t="inlineStr"/>
+      <c r="CH35" t="inlineStr"/>
+      <c r="CI35" t="inlineStr"/>
+      <c r="CJ35" t="inlineStr"/>
+      <c r="CK35" t="inlineStr"/>
+      <c r="CL35" t="inlineStr"/>
+      <c r="CM35" t="inlineStr"/>
+      <c r="CN35" t="inlineStr"/>
+      <c r="CO35" t="inlineStr"/>
+      <c r="CP35" t="inlineStr"/>
+      <c r="CQ35" t="inlineStr"/>
+      <c r="CR35" t="inlineStr"/>
+      <c r="CS35" t="inlineStr"/>
+      <c r="CT35" t="inlineStr"/>
+      <c r="CU35" t="inlineStr"/>
+      <c r="CV35" t="inlineStr"/>
+      <c r="CW35" t="inlineStr"/>
+      <c r="CX35" t="inlineStr"/>
+      <c r="CY35" t="inlineStr"/>
+      <c r="CZ35" t="inlineStr"/>
+      <c r="DA35" t="inlineStr"/>
+      <c r="DB35" t="inlineStr"/>
+      <c r="DC35" t="inlineStr"/>
+      <c r="DD35" t="inlineStr"/>
+      <c r="DE35" t="inlineStr"/>
+      <c r="DF35" t="inlineStr"/>
+      <c r="DG35" t="inlineStr"/>
+      <c r="DH35" t="inlineStr"/>
+      <c r="DI35" t="inlineStr"/>
+      <c r="DJ35" t="inlineStr"/>
+      <c r="DK35" t="inlineStr"/>
+      <c r="DL35" t="inlineStr"/>
+      <c r="DM35" t="inlineStr"/>
+      <c r="DN35" t="inlineStr"/>
+      <c r="DO35" t="inlineStr"/>
+      <c r="DP35" t="inlineStr"/>
+      <c r="DQ35" t="inlineStr"/>
+      <c r="DR35" t="inlineStr"/>
+      <c r="DS35" t="inlineStr"/>
+      <c r="DT35" t="inlineStr"/>
+      <c r="DU35" t="inlineStr"/>
+      <c r="DV35" t="inlineStr"/>
+      <c r="DW35" t="inlineStr"/>
+      <c r="DX35" t="inlineStr"/>
+      <c r="DY35" t="inlineStr"/>
+      <c r="DZ35" t="inlineStr"/>
+      <c r="EA35" t="inlineStr"/>
+      <c r="EB35" t="inlineStr"/>
+      <c r="EC35" t="inlineStr"/>
+      <c r="ED35" t="inlineStr"/>
+      <c r="EE35" t="inlineStr"/>
+      <c r="EF35" t="inlineStr"/>
+      <c r="EG35" t="inlineStr"/>
+      <c r="EH35" t="inlineStr"/>
+      <c r="EI35" t="inlineStr"/>
+      <c r="EJ35" t="inlineStr"/>
+      <c r="EK35" t="inlineStr"/>
+      <c r="EL35" t="inlineStr"/>
+      <c r="EM35" t="inlineStr"/>
+      <c r="EN35" t="inlineStr"/>
+      <c r="EO35" t="inlineStr"/>
+      <c r="EP35" t="inlineStr"/>
+      <c r="EQ35" t="inlineStr"/>
+      <c r="ER35" t="inlineStr"/>
+      <c r="ES35" t="inlineStr"/>
+      <c r="ET35" t="inlineStr"/>
+      <c r="EU35" t="inlineStr"/>
+      <c r="EV35" t="inlineStr"/>
+      <c r="EW35" t="inlineStr"/>
+      <c r="EX35" t="inlineStr"/>
+      <c r="EY35" t="inlineStr"/>
+      <c r="EZ35" t="inlineStr"/>
+      <c r="FA35" t="inlineStr"/>
+      <c r="FB35" t="inlineStr"/>
+      <c r="FC35" t="inlineStr"/>
+      <c r="FD35" t="inlineStr"/>
+      <c r="FE35" t="inlineStr"/>
+      <c r="FF35" t="inlineStr"/>
+      <c r="FG35" t="inlineStr"/>
+      <c r="FH35" t="inlineStr"/>
+      <c r="FI35" t="inlineStr"/>
+      <c r="FJ35" t="inlineStr"/>
+      <c r="FK35" t="inlineStr"/>
+      <c r="FL35" t="inlineStr"/>
+      <c r="FM35" t="inlineStr"/>
+      <c r="FN35" t="inlineStr"/>
+      <c r="FO35" t="inlineStr"/>
+      <c r="FP35" t="inlineStr"/>
+      <c r="FQ35" t="inlineStr"/>
+      <c r="FR35" t="inlineStr"/>
+      <c r="FS35" t="inlineStr"/>
+      <c r="FT35" t="inlineStr"/>
+      <c r="FU35" t="inlineStr"/>
+      <c r="FV35" t="inlineStr"/>
+      <c r="FW35" t="inlineStr"/>
+      <c r="FX35" t="inlineStr"/>
+      <c r="FY35" t="inlineStr"/>
+      <c r="FZ35" t="inlineStr"/>
+      <c r="GA35" t="inlineStr"/>
+      <c r="GB35" t="inlineStr"/>
+      <c r="GC35" t="inlineStr"/>
+      <c r="GD35" t="inlineStr"/>
+      <c r="GE35" t="inlineStr"/>
+      <c r="GF35" t="inlineStr"/>
+      <c r="GG35" t="inlineStr"/>
+      <c r="GH35" t="inlineStr"/>
+      <c r="GI35" t="inlineStr"/>
+      <c r="GJ35" t="inlineStr"/>
+      <c r="GK35" t="inlineStr"/>
+      <c r="GL35" t="inlineStr"/>
+      <c r="GM35" t="inlineStr"/>
+      <c r="GN35" t="inlineStr"/>
+      <c r="GO35" t="inlineStr"/>
+      <c r="GP35" t="inlineStr"/>
+      <c r="GQ35" t="inlineStr"/>
+      <c r="GR35" t="inlineStr"/>
+      <c r="GS35" t="inlineStr"/>
+      <c r="GT35" t="inlineStr"/>
+      <c r="GU35" t="inlineStr"/>
+      <c r="GV35" t="inlineStr"/>
+      <c r="GW35" t="inlineStr"/>
+      <c r="GX35" t="inlineStr"/>
+      <c r="GY35" t="inlineStr"/>
+      <c r="GZ35" t="inlineStr"/>
+      <c r="HA35" t="inlineStr"/>
+      <c r="HB35" t="inlineStr"/>
+      <c r="HC35" t="inlineStr"/>
+      <c r="HD35" t="inlineStr"/>
+      <c r="HE35" t="inlineStr"/>
+      <c r="HF35" t="inlineStr"/>
+      <c r="HG35" t="inlineStr"/>
+      <c r="HH35" t="inlineStr"/>
+      <c r="HI35" t="inlineStr"/>
+      <c r="HJ35" t="inlineStr"/>
+      <c r="HK35" t="inlineStr"/>
+      <c r="HL35" t="inlineStr"/>
+      <c r="HM35" t="inlineStr"/>
+      <c r="HN35" t="inlineStr"/>
+      <c r="HO35" t="inlineStr"/>
+      <c r="HP35" t="inlineStr"/>
+      <c r="HQ35" t="inlineStr"/>
+      <c r="HR35" t="inlineStr"/>
+      <c r="HS35" t="inlineStr"/>
+      <c r="HT35" t="inlineStr"/>
+      <c r="HU35" t="inlineStr"/>
+      <c r="HV35" t="inlineStr"/>
+      <c r="HW35" t="inlineStr"/>
+      <c r="HX35" t="inlineStr"/>
+      <c r="HY35" t="inlineStr"/>
+      <c r="HZ35" t="inlineStr"/>
+      <c r="IA35" t="inlineStr"/>
+      <c r="IB35" t="inlineStr"/>
+      <c r="IC35" t="inlineStr"/>
+      <c r="ID35" t="inlineStr"/>
+      <c r="IE35" t="inlineStr"/>
+      <c r="IF35" t="inlineStr"/>
+      <c r="IG35" t="inlineStr"/>
+      <c r="IH35" t="inlineStr"/>
+      <c r="II35" t="inlineStr"/>
+      <c r="IJ35" t="inlineStr"/>
+      <c r="IK35" t="inlineStr"/>
+      <c r="IL35" t="inlineStr"/>
+      <c r="IM35" t="inlineStr"/>
+      <c r="IN35" t="inlineStr"/>
+      <c r="IO35" t="inlineStr"/>
+      <c r="IP35" t="inlineStr"/>
+      <c r="IQ35" t="inlineStr"/>
+      <c r="IR35" t="inlineStr"/>
+      <c r="IS35" t="inlineStr"/>
+      <c r="IT35" t="inlineStr"/>
+      <c r="IU35" t="inlineStr"/>
+      <c r="IV35" t="inlineStr"/>
+      <c r="IW35" t="inlineStr"/>
+      <c r="IX35" t="inlineStr"/>
+      <c r="IY35" t="inlineStr"/>
+      <c r="IZ35" t="inlineStr"/>
+      <c r="JA35" t="inlineStr"/>
+      <c r="JB35" t="inlineStr"/>
+      <c r="JC35" t="inlineStr"/>
+      <c r="JD35" t="inlineStr"/>
+      <c r="JE35" t="inlineStr"/>
+      <c r="JF35" t="inlineStr"/>
+      <c r="JG35" t="inlineStr"/>
+      <c r="JH35" t="inlineStr"/>
+      <c r="JI35" t="inlineStr"/>
+      <c r="JJ35" t="inlineStr"/>
+      <c r="JK35" t="inlineStr"/>
+      <c r="JL35" t="inlineStr"/>
+      <c r="JM35" t="inlineStr"/>
+      <c r="JN35" t="inlineStr"/>
+      <c r="JO35" t="inlineStr"/>
+      <c r="JP35" t="inlineStr"/>
+      <c r="JQ35" t="inlineStr"/>
+      <c r="JR35" t="inlineStr"/>
+      <c r="JS35" t="inlineStr"/>
+      <c r="JT35" t="inlineStr"/>
+      <c r="JU35" t="inlineStr"/>
+      <c r="JV35" t="inlineStr"/>
+      <c r="JW35" t="inlineStr"/>
+      <c r="JX35" t="inlineStr"/>
+      <c r="JY35" t="inlineStr"/>
+      <c r="JZ35" t="inlineStr"/>
+      <c r="KA35" t="inlineStr"/>
+      <c r="KB35" t="inlineStr"/>
+      <c r="KC35" t="inlineStr"/>
+      <c r="KD35" t="inlineStr"/>
+      <c r="KE35" t="inlineStr"/>
+      <c r="KF35" t="inlineStr"/>
+      <c r="KG35" t="inlineStr"/>
+      <c r="KH35" t="inlineStr"/>
+      <c r="KI35" t="inlineStr"/>
+      <c r="KJ35" t="inlineStr"/>
+      <c r="KK35" t="inlineStr"/>
+      <c r="KL35" t="inlineStr"/>
+      <c r="KM35" t="inlineStr"/>
+      <c r="KN35" t="inlineStr"/>
+      <c r="KO35" t="inlineStr"/>
+      <c r="KP35" t="inlineStr"/>
+      <c r="KQ35" t="inlineStr"/>
+      <c r="KR35" t="inlineStr"/>
+      <c r="KS35" t="inlineStr"/>
+      <c r="KT35" t="inlineStr"/>
+      <c r="KU35" t="inlineStr"/>
+      <c r="KV35" t="inlineStr"/>
+      <c r="KW35" t="inlineStr"/>
+      <c r="KX35" t="inlineStr"/>
+      <c r="KY35" t="inlineStr"/>
+      <c r="KZ35" t="inlineStr"/>
+      <c r="LA35" t="inlineStr"/>
+      <c r="LB35" t="inlineStr"/>
+      <c r="LC35" t="inlineStr"/>
+      <c r="LD35" t="inlineStr"/>
+      <c r="LE35" t="inlineStr"/>
+      <c r="LF35" t="inlineStr"/>
+      <c r="LG35" t="inlineStr"/>
+      <c r="LH35" t="inlineStr"/>
+      <c r="LI35" t="inlineStr"/>
+      <c r="LJ35" t="inlineStr"/>
+      <c r="LK35" t="inlineStr"/>
+      <c r="LL35" t="inlineStr"/>
+      <c r="LM35" t="inlineStr"/>
+      <c r="LN35" t="inlineStr"/>
+      <c r="LO35" t="inlineStr"/>
+      <c r="LP35" t="inlineStr"/>
+      <c r="LQ35" t="inlineStr"/>
+      <c r="LR35" t="inlineStr"/>
+      <c r="LS35" t="inlineStr"/>
+      <c r="LT35" t="inlineStr"/>
+      <c r="LU35" t="inlineStr"/>
+      <c r="LV35" t="inlineStr"/>
+      <c r="LW35" t="inlineStr"/>
+      <c r="LX35" t="inlineStr"/>
+      <c r="LY35" t="inlineStr"/>
+      <c r="LZ35" t="inlineStr"/>
+      <c r="MA35" t="inlineStr"/>
+      <c r="MB35" t="inlineStr"/>
+      <c r="MC35" t="inlineStr"/>
+      <c r="MD35" t="inlineStr"/>
+      <c r="ME35" t="inlineStr"/>
+      <c r="MF35" t="inlineStr"/>
+      <c r="MG35" t="inlineStr"/>
+      <c r="MH35" t="inlineStr"/>
+      <c r="MI35" t="inlineStr"/>
+      <c r="MJ35" t="inlineStr"/>
+      <c r="MK35" t="inlineStr"/>
+      <c r="ML35" t="inlineStr"/>
+      <c r="MM35" t="inlineStr"/>
+      <c r="MN35" t="inlineStr"/>
+      <c r="MO35" t="inlineStr"/>
+      <c r="MP35" t="inlineStr"/>
+      <c r="MQ35" t="inlineStr"/>
+      <c r="MR35" t="inlineStr"/>
+      <c r="MS35" t="inlineStr"/>
+      <c r="MT35" t="inlineStr"/>
+      <c r="MU35" t="inlineStr"/>
+      <c r="MV35" t="inlineStr"/>
+      <c r="MW35" t="inlineStr"/>
+      <c r="MX35" t="inlineStr"/>
+      <c r="MY35" t="inlineStr"/>
+      <c r="MZ35" t="inlineStr"/>
+      <c r="NA35" t="inlineStr"/>
+      <c r="NB35" t="inlineStr"/>
+      <c r="NC35" t="inlineStr"/>
+      <c r="ND35" t="inlineStr"/>
+      <c r="NE35" t="inlineStr"/>
+      <c r="NF35" t="inlineStr"/>
+      <c r="NG35" t="inlineStr"/>
+      <c r="NH35" t="inlineStr"/>
+      <c r="NI35" t="inlineStr"/>
+      <c r="NJ35" t="inlineStr"/>
+      <c r="NK35" t="inlineStr"/>
+      <c r="NL35" t="inlineStr"/>
+      <c r="NM35" t="inlineStr"/>
+      <c r="NN35" t="inlineStr"/>
+      <c r="NO35" t="inlineStr"/>
+      <c r="NP35" t="inlineStr"/>
+      <c r="NQ35" t="inlineStr"/>
+      <c r="NR35" t="inlineStr"/>
+      <c r="NS35" t="inlineStr"/>
+      <c r="NT35" t="inlineStr"/>
+      <c r="NU35" t="inlineStr"/>
+      <c r="NV35" t="inlineStr"/>
+      <c r="NW35" t="inlineStr"/>
+      <c r="NX35" t="inlineStr"/>
+      <c r="NY35" t="inlineStr"/>
+      <c r="NZ35" t="inlineStr"/>
+      <c r="OA35" t="inlineStr"/>
+      <c r="OB35" t="inlineStr"/>
+      <c r="OC35" t="inlineStr"/>
+      <c r="OD35" t="inlineStr"/>
+      <c r="OE35" t="inlineStr"/>
+      <c r="OF35" t="inlineStr"/>
+      <c r="OG35" t="inlineStr"/>
+      <c r="OH35" t="inlineStr"/>
+      <c r="OI35" t="inlineStr"/>
+      <c r="OJ35" t="inlineStr"/>
+      <c r="OK35" t="inlineStr"/>
+      <c r="OL35" t="inlineStr"/>
+      <c r="OM35" t="inlineStr"/>
+      <c r="ON35" t="inlineStr"/>
+      <c r="OO35" t="inlineStr"/>
+      <c r="OP35" t="inlineStr"/>
+      <c r="OQ35" t="inlineStr"/>
+      <c r="OR35" t="inlineStr"/>
+      <c r="OS35" t="inlineStr"/>
+      <c r="OT35" t="inlineStr"/>
+      <c r="OU35" t="inlineStr"/>
+      <c r="OV35" t="inlineStr"/>
+      <c r="OW35" t="inlineStr"/>
+      <c r="OX35" t="inlineStr"/>
+      <c r="OY35" t="inlineStr"/>
+      <c r="OZ35" t="inlineStr"/>
+      <c r="PA35" t="inlineStr"/>
+      <c r="PB35" t="inlineStr"/>
+      <c r="PC35" t="inlineStr"/>
+      <c r="PD35" t="inlineStr"/>
+      <c r="PE35" t="inlineStr"/>
+      <c r="PF35" t="inlineStr"/>
+      <c r="PG35" t="inlineStr"/>
+      <c r="PH35" t="inlineStr"/>
+      <c r="PI35" t="inlineStr"/>
+      <c r="PJ35" t="inlineStr"/>
+      <c r="PK35" t="inlineStr"/>
+      <c r="PL35" t="inlineStr"/>
+      <c r="PM35" t="inlineStr"/>
+      <c r="PN35" t="inlineStr"/>
+      <c r="PO35" t="inlineStr"/>
+      <c r="PP35" t="inlineStr"/>
+      <c r="PQ35" t="inlineStr"/>
+      <c r="PR35" t="inlineStr"/>
+      <c r="PS35" t="inlineStr"/>
+      <c r="PT35" t="inlineStr"/>
+      <c r="PU35" t="inlineStr"/>
+      <c r="PV35" t="inlineStr"/>
+      <c r="PW35" t="inlineStr"/>
+      <c r="PX35" t="inlineStr"/>
+      <c r="PY35" t="inlineStr"/>
+      <c r="PZ35" t="inlineStr"/>
+      <c r="QA35" t="inlineStr"/>
+      <c r="QB35" t="inlineStr"/>
+      <c r="QC35" t="inlineStr"/>
+      <c r="QD35" t="inlineStr"/>
+      <c r="QE35" t="inlineStr"/>
+      <c r="QF35" t="inlineStr"/>
+      <c r="QG35" t="inlineStr"/>
+      <c r="QH35" t="inlineStr"/>
+      <c r="QI35" t="inlineStr"/>
+      <c r="QJ35" t="inlineStr"/>
+      <c r="QK35" t="inlineStr"/>
+      <c r="QL35" t="inlineStr"/>
+      <c r="QM35" t="inlineStr"/>
+      <c r="QN35" t="inlineStr"/>
+      <c r="QO35" t="inlineStr"/>
+      <c r="QP35" t="inlineStr"/>
+      <c r="QQ35" t="inlineStr"/>
+      <c r="QR35" t="inlineStr"/>
+      <c r="QS35" t="inlineStr"/>
+      <c r="QT35" t="inlineStr"/>
+      <c r="QU35" t="inlineStr"/>
+      <c r="QV35" t="inlineStr"/>
+      <c r="QW35" t="inlineStr"/>
+      <c r="QX35" t="inlineStr"/>
+      <c r="QY35" t="inlineStr"/>
+      <c r="QZ35" t="inlineStr"/>
+      <c r="RA35" t="inlineStr"/>
+      <c r="RB35" t="inlineStr"/>
+      <c r="RC35" t="inlineStr"/>
+      <c r="RD35" t="inlineStr"/>
+      <c r="RE35" t="inlineStr"/>
+      <c r="RF35" t="inlineStr"/>
+      <c r="RG35" t="inlineStr"/>
+      <c r="RH35" t="inlineStr"/>
+      <c r="RI35" t="inlineStr"/>
+      <c r="RJ35" t="inlineStr"/>
+      <c r="RK35" t="inlineStr"/>
+      <c r="RL35" t="inlineStr"/>
+      <c r="RM35" t="inlineStr"/>
+      <c r="RN35" t="inlineStr"/>
+      <c r="RO35" t="inlineStr"/>
+      <c r="RP35" t="inlineStr"/>
+      <c r="RQ35" t="inlineStr"/>
+      <c r="RR35" t="inlineStr"/>
+      <c r="RS35" t="inlineStr"/>
+      <c r="RT35" t="inlineStr"/>
+      <c r="RU35" t="inlineStr"/>
+      <c r="RV35" t="inlineStr"/>
+      <c r="RW35" t="inlineStr"/>
+      <c r="RX35" t="inlineStr"/>
+      <c r="RY35" t="inlineStr"/>
+      <c r="RZ35" t="inlineStr"/>
+      <c r="SA35" t="inlineStr"/>
+      <c r="SB35" t="inlineStr"/>
+      <c r="SC35" t="inlineStr"/>
+      <c r="SD35" t="inlineStr"/>
+      <c r="SE35" t="inlineStr"/>
+      <c r="SF35" t="inlineStr"/>
+      <c r="SG35" t="inlineStr"/>
+      <c r="SH35" t="inlineStr"/>
+      <c r="SI35" t="inlineStr"/>
+      <c r="SJ35" t="inlineStr"/>
+      <c r="SK35" t="inlineStr"/>
+      <c r="SL35" t="inlineStr"/>
+      <c r="SM35" t="inlineStr"/>
+      <c r="SN35" t="inlineStr"/>
+      <c r="SO35" t="inlineStr"/>
+      <c r="SP35" t="inlineStr"/>
+      <c r="SQ35" t="inlineStr"/>
+      <c r="SR35" t="inlineStr"/>
+      <c r="SS35" t="inlineStr"/>
+      <c r="ST35" t="inlineStr"/>
+      <c r="SU35" t="inlineStr"/>
+      <c r="SV35" t="inlineStr"/>
+      <c r="SW35" t="inlineStr"/>
+      <c r="SX35" t="inlineStr"/>
+      <c r="SY35" t="inlineStr"/>
+      <c r="SZ35" t="inlineStr"/>
+      <c r="TA35" t="inlineStr"/>
+      <c r="TB35" t="inlineStr"/>
+      <c r="TC35" t="inlineStr"/>
+      <c r="TD35" t="inlineStr"/>
+      <c r="TE35" t="inlineStr"/>
+      <c r="TF35" t="inlineStr"/>
+      <c r="TG35" t="inlineStr"/>
+      <c r="TH35" t="inlineStr"/>
+      <c r="TI35" t="inlineStr"/>
+      <c r="TJ35" t="inlineStr"/>
+      <c r="TK35" t="inlineStr"/>
+      <c r="TL35" t="inlineStr"/>
+      <c r="TM35" t="inlineStr"/>
+      <c r="TN35" t="inlineStr"/>
+      <c r="TO35" t="inlineStr"/>
+      <c r="TP35" t="inlineStr"/>
+      <c r="TQ35" t="inlineStr"/>
+      <c r="TR35" t="inlineStr"/>
+      <c r="TS35" t="inlineStr"/>
+      <c r="TT35" t="inlineStr"/>
+      <c r="TU35" t="inlineStr"/>
+      <c r="TV35" t="inlineStr"/>
+      <c r="TW35" t="inlineStr"/>
+      <c r="TX35" t="inlineStr"/>
+      <c r="TY35" t="inlineStr"/>
+      <c r="TZ35" t="inlineStr"/>
+      <c r="UA35" t="inlineStr"/>
+      <c r="UB35" t="inlineStr"/>
+      <c r="UC35" t="inlineStr"/>
+      <c r="UD35" t="inlineStr"/>
+      <c r="UE35" t="inlineStr"/>
+      <c r="UF35" t="inlineStr"/>
+      <c r="UG35" t="inlineStr"/>
+      <c r="UH35" t="inlineStr"/>
+      <c r="UI35" t="inlineStr"/>
+      <c r="UJ35" t="inlineStr">
+        <is>
+          <t>tenable/pyTenable</t>
+        </is>
+      </c>
+      <c r="UK35" t="n">
+        <v>311</v>
+      </c>
+      <c r="UL35" t="n">
+        <v>47</v>
+      </c>
+      <c r="UM35" t="n">
+        <v>162</v>
+      </c>
+      <c r="UN35" t="inlineStr"/>
+      <c r="UO35" t="inlineStr">
+        <is>
+          <t>tenable/pyTenable</t>
+        </is>
+      </c>
+      <c r="UP35" t="n">
+        <v>311</v>
+      </c>
+      <c r="UQ35" t="n">
+        <v>47</v>
+      </c>
+      <c r="UR35" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr"/>
+      <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="inlineStr"/>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AU36" t="inlineStr"/>
+      <c r="AV36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr"/>
+      <c r="AX36" t="inlineStr"/>
+      <c r="AY36" t="inlineStr"/>
+      <c r="AZ36" t="inlineStr"/>
+      <c r="BA36" t="inlineStr"/>
+      <c r="BB36" t="inlineStr"/>
+      <c r="BC36" t="inlineStr"/>
+      <c r="BD36" t="inlineStr"/>
+      <c r="BE36" t="inlineStr"/>
+      <c r="BF36" t="inlineStr"/>
+      <c r="BG36" t="inlineStr"/>
+      <c r="BH36" t="inlineStr"/>
+      <c r="BI36" t="inlineStr"/>
+      <c r="BJ36" t="inlineStr"/>
+      <c r="BK36" t="inlineStr"/>
+      <c r="BL36" t="inlineStr"/>
+      <c r="BM36" t="inlineStr"/>
+      <c r="BN36" t="inlineStr"/>
+      <c r="BO36" t="inlineStr"/>
+      <c r="BP36" t="inlineStr"/>
+      <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
+      <c r="BS36" t="inlineStr"/>
+      <c r="BT36" t="inlineStr"/>
+      <c r="BU36" t="inlineStr"/>
+      <c r="BV36" t="inlineStr"/>
+      <c r="BW36" t="inlineStr"/>
+      <c r="BX36" t="inlineStr"/>
+      <c r="BY36" t="inlineStr"/>
+      <c r="BZ36" t="inlineStr"/>
+      <c r="CA36" t="inlineStr"/>
+      <c r="CB36" t="inlineStr"/>
+      <c r="CC36" t="inlineStr"/>
+      <c r="CD36" t="inlineStr"/>
+      <c r="CE36" t="inlineStr"/>
+      <c r="CF36" t="inlineStr"/>
+      <c r="CG36" t="inlineStr"/>
+      <c r="CH36" t="inlineStr"/>
+      <c r="CI36" t="inlineStr"/>
+      <c r="CJ36" t="inlineStr"/>
+      <c r="CK36" t="inlineStr"/>
+      <c r="CL36" t="inlineStr"/>
+      <c r="CM36" t="inlineStr"/>
+      <c r="CN36" t="inlineStr"/>
+      <c r="CO36" t="inlineStr"/>
+      <c r="CP36" t="inlineStr"/>
+      <c r="CQ36" t="inlineStr"/>
+      <c r="CR36" t="inlineStr"/>
+      <c r="CS36" t="inlineStr"/>
+      <c r="CT36" t="inlineStr"/>
+      <c r="CU36" t="inlineStr"/>
+      <c r="CV36" t="inlineStr"/>
+      <c r="CW36" t="inlineStr"/>
+      <c r="CX36" t="inlineStr"/>
+      <c r="CY36" t="inlineStr"/>
+      <c r="CZ36" t="inlineStr"/>
+      <c r="DA36" t="inlineStr"/>
+      <c r="DB36" t="inlineStr"/>
+      <c r="DC36" t="inlineStr"/>
+      <c r="DD36" t="inlineStr"/>
+      <c r="DE36" t="inlineStr"/>
+      <c r="DF36" t="inlineStr"/>
+      <c r="DG36" t="inlineStr"/>
+      <c r="DH36" t="inlineStr"/>
+      <c r="DI36" t="inlineStr"/>
+      <c r="DJ36" t="inlineStr"/>
+      <c r="DK36" t="inlineStr"/>
+      <c r="DL36" t="inlineStr"/>
+      <c r="DM36" t="inlineStr"/>
+      <c r="DN36" t="inlineStr"/>
+      <c r="DO36" t="inlineStr"/>
+      <c r="DP36" t="inlineStr"/>
+      <c r="DQ36" t="inlineStr"/>
+      <c r="DR36" t="inlineStr"/>
+      <c r="DS36" t="inlineStr"/>
+      <c r="DT36" t="inlineStr"/>
+      <c r="DU36" t="inlineStr"/>
+      <c r="DV36" t="inlineStr"/>
+      <c r="DW36" t="inlineStr"/>
+      <c r="DX36" t="inlineStr"/>
+      <c r="DY36" t="inlineStr"/>
+      <c r="DZ36" t="inlineStr"/>
+      <c r="EA36" t="inlineStr"/>
+      <c r="EB36" t="inlineStr"/>
+      <c r="EC36" t="inlineStr"/>
+      <c r="ED36" t="inlineStr"/>
+      <c r="EE36" t="inlineStr"/>
+      <c r="EF36" t="inlineStr"/>
+      <c r="EG36" t="inlineStr"/>
+      <c r="EH36" t="inlineStr"/>
+      <c r="EI36" t="inlineStr"/>
+      <c r="EJ36" t="inlineStr"/>
+      <c r="EK36" t="inlineStr"/>
+      <c r="EL36" t="inlineStr"/>
+      <c r="EM36" t="inlineStr"/>
+      <c r="EN36" t="inlineStr"/>
+      <c r="EO36" t="inlineStr"/>
+      <c r="EP36" t="inlineStr"/>
+      <c r="EQ36" t="inlineStr"/>
+      <c r="ER36" t="inlineStr"/>
+      <c r="ES36" t="inlineStr"/>
+      <c r="ET36" t="inlineStr"/>
+      <c r="EU36" t="inlineStr"/>
+      <c r="EV36" t="inlineStr"/>
+      <c r="EW36" t="inlineStr"/>
+      <c r="EX36" t="inlineStr"/>
+      <c r="EY36" t="inlineStr"/>
+      <c r="EZ36" t="inlineStr"/>
+      <c r="FA36" t="inlineStr"/>
+      <c r="FB36" t="inlineStr"/>
+      <c r="FC36" t="inlineStr"/>
+      <c r="FD36" t="inlineStr"/>
+      <c r="FE36" t="inlineStr"/>
+      <c r="FF36" t="inlineStr"/>
+      <c r="FG36" t="inlineStr"/>
+      <c r="FH36" t="inlineStr"/>
+      <c r="FI36" t="inlineStr"/>
+      <c r="FJ36" t="inlineStr"/>
+      <c r="FK36" t="inlineStr"/>
+      <c r="FL36" t="inlineStr"/>
+      <c r="FM36" t="inlineStr"/>
+      <c r="FN36" t="inlineStr"/>
+      <c r="FO36" t="inlineStr"/>
+      <c r="FP36" t="inlineStr"/>
+      <c r="FQ36" t="inlineStr"/>
+      <c r="FR36" t="inlineStr"/>
+      <c r="FS36" t="inlineStr"/>
+      <c r="FT36" t="inlineStr"/>
+      <c r="FU36" t="inlineStr"/>
+      <c r="FV36" t="inlineStr"/>
+      <c r="FW36" t="inlineStr"/>
+      <c r="FX36" t="inlineStr"/>
+      <c r="FY36" t="inlineStr"/>
+      <c r="FZ36" t="inlineStr"/>
+      <c r="GA36" t="inlineStr"/>
+      <c r="GB36" t="inlineStr"/>
+      <c r="GC36" t="inlineStr"/>
+      <c r="GD36" t="inlineStr"/>
+      <c r="GE36" t="inlineStr"/>
+      <c r="GF36" t="inlineStr"/>
+      <c r="GG36" t="inlineStr"/>
+      <c r="GH36" t="inlineStr"/>
+      <c r="GI36" t="inlineStr"/>
+      <c r="GJ36" t="inlineStr"/>
+      <c r="GK36" t="inlineStr"/>
+      <c r="GL36" t="inlineStr"/>
+      <c r="GM36" t="inlineStr"/>
+      <c r="GN36" t="inlineStr"/>
+      <c r="GO36" t="inlineStr"/>
+      <c r="GP36" t="inlineStr"/>
+      <c r="GQ36" t="inlineStr"/>
+      <c r="GR36" t="inlineStr"/>
+      <c r="GS36" t="inlineStr"/>
+      <c r="GT36" t="inlineStr"/>
+      <c r="GU36" t="inlineStr"/>
+      <c r="GV36" t="inlineStr"/>
+      <c r="GW36" t="inlineStr"/>
+      <c r="GX36" t="inlineStr"/>
+      <c r="GY36" t="inlineStr"/>
+      <c r="GZ36" t="inlineStr"/>
+      <c r="HA36" t="inlineStr"/>
+      <c r="HB36" t="inlineStr"/>
+      <c r="HC36" t="inlineStr"/>
+      <c r="HD36" t="inlineStr"/>
+      <c r="HE36" t="inlineStr"/>
+      <c r="HF36" t="inlineStr"/>
+      <c r="HG36" t="inlineStr"/>
+      <c r="HH36" t="inlineStr"/>
+      <c r="HI36" t="inlineStr"/>
+      <c r="HJ36" t="inlineStr"/>
+      <c r="HK36" t="inlineStr"/>
+      <c r="HL36" t="inlineStr"/>
+      <c r="HM36" t="inlineStr"/>
+      <c r="HN36" t="inlineStr"/>
+      <c r="HO36" t="inlineStr"/>
+      <c r="HP36" t="inlineStr"/>
+      <c r="HQ36" t="inlineStr"/>
+      <c r="HR36" t="inlineStr"/>
+      <c r="HS36" t="inlineStr"/>
+      <c r="HT36" t="inlineStr"/>
+      <c r="HU36" t="inlineStr"/>
+      <c r="HV36" t="inlineStr"/>
+      <c r="HW36" t="inlineStr"/>
+      <c r="HX36" t="inlineStr"/>
+      <c r="HY36" t="inlineStr"/>
+      <c r="HZ36" t="inlineStr"/>
+      <c r="IA36" t="inlineStr"/>
+      <c r="IB36" t="inlineStr"/>
+      <c r="IC36" t="inlineStr"/>
+      <c r="ID36" t="inlineStr"/>
+      <c r="IE36" t="inlineStr"/>
+      <c r="IF36" t="inlineStr"/>
+      <c r="IG36" t="inlineStr"/>
+      <c r="IH36" t="inlineStr"/>
+      <c r="II36" t="inlineStr"/>
+      <c r="IJ36" t="inlineStr"/>
+      <c r="IK36" t="inlineStr"/>
+      <c r="IL36" t="inlineStr"/>
+      <c r="IM36" t="inlineStr"/>
+      <c r="IN36" t="inlineStr"/>
+      <c r="IO36" t="inlineStr"/>
+      <c r="IP36" t="inlineStr"/>
+      <c r="IQ36" t="inlineStr"/>
+      <c r="IR36" t="inlineStr"/>
+      <c r="IS36" t="inlineStr"/>
+      <c r="IT36" t="inlineStr"/>
+      <c r="IU36" t="inlineStr"/>
+      <c r="IV36" t="inlineStr"/>
+      <c r="IW36" t="inlineStr"/>
+      <c r="IX36" t="inlineStr"/>
+      <c r="IY36" t="inlineStr"/>
+      <c r="IZ36" t="inlineStr"/>
+      <c r="JA36" t="inlineStr"/>
+      <c r="JB36" t="inlineStr"/>
+      <c r="JC36" t="inlineStr"/>
+      <c r="JD36" t="inlineStr"/>
+      <c r="JE36" t="inlineStr"/>
+      <c r="JF36" t="inlineStr"/>
+      <c r="JG36" t="inlineStr"/>
+      <c r="JH36" t="inlineStr"/>
+      <c r="JI36" t="inlineStr"/>
+      <c r="JJ36" t="inlineStr"/>
+      <c r="JK36" t="inlineStr"/>
+      <c r="JL36" t="inlineStr"/>
+      <c r="JM36" t="inlineStr"/>
+      <c r="JN36" t="inlineStr"/>
+      <c r="JO36" t="inlineStr"/>
+      <c r="JP36" t="inlineStr"/>
+      <c r="JQ36" t="inlineStr"/>
+      <c r="JR36" t="inlineStr"/>
+      <c r="JS36" t="inlineStr"/>
+      <c r="JT36" t="inlineStr"/>
+      <c r="JU36" t="inlineStr"/>
+      <c r="JV36" t="inlineStr"/>
+      <c r="JW36" t="inlineStr"/>
+      <c r="JX36" t="inlineStr"/>
+      <c r="JY36" t="inlineStr"/>
+      <c r="JZ36" t="inlineStr"/>
+      <c r="KA36" t="inlineStr"/>
+      <c r="KB36" t="inlineStr"/>
+      <c r="KC36" t="inlineStr"/>
+      <c r="KD36" t="inlineStr"/>
+      <c r="KE36" t="inlineStr"/>
+      <c r="KF36" t="inlineStr"/>
+      <c r="KG36" t="inlineStr"/>
+      <c r="KH36" t="inlineStr"/>
+      <c r="KI36" t="inlineStr"/>
+      <c r="KJ36" t="inlineStr"/>
+      <c r="KK36" t="inlineStr"/>
+      <c r="KL36" t="inlineStr"/>
+      <c r="KM36" t="inlineStr"/>
+      <c r="KN36" t="inlineStr"/>
+      <c r="KO36" t="inlineStr"/>
+      <c r="KP36" t="inlineStr"/>
+      <c r="KQ36" t="inlineStr"/>
+      <c r="KR36" t="inlineStr"/>
+      <c r="KS36" t="inlineStr"/>
+      <c r="KT36" t="inlineStr"/>
+      <c r="KU36" t="inlineStr"/>
+      <c r="KV36" t="inlineStr"/>
+      <c r="KW36" t="inlineStr"/>
+      <c r="KX36" t="inlineStr"/>
+      <c r="KY36" t="inlineStr"/>
+      <c r="KZ36" t="inlineStr"/>
+      <c r="LA36" t="inlineStr"/>
+      <c r="LB36" t="inlineStr"/>
+      <c r="LC36" t="inlineStr"/>
+      <c r="LD36" t="inlineStr"/>
+      <c r="LE36" t="inlineStr"/>
+      <c r="LF36" t="inlineStr"/>
+      <c r="LG36" t="inlineStr"/>
+      <c r="LH36" t="inlineStr"/>
+      <c r="LI36" t="inlineStr"/>
+      <c r="LJ36" t="inlineStr"/>
+      <c r="LK36" t="inlineStr"/>
+      <c r="LL36" t="inlineStr"/>
+      <c r="LM36" t="inlineStr"/>
+      <c r="LN36" t="inlineStr"/>
+      <c r="LO36" t="inlineStr"/>
+      <c r="LP36" t="inlineStr"/>
+      <c r="LQ36" t="inlineStr"/>
+      <c r="LR36" t="inlineStr"/>
+      <c r="LS36" t="inlineStr"/>
+      <c r="LT36" t="inlineStr"/>
+      <c r="LU36" t="inlineStr"/>
+      <c r="LV36" t="inlineStr"/>
+      <c r="LW36" t="inlineStr"/>
+      <c r="LX36" t="inlineStr"/>
+      <c r="LY36" t="inlineStr"/>
+      <c r="LZ36" t="inlineStr"/>
+      <c r="MA36" t="inlineStr"/>
+      <c r="MB36" t="inlineStr"/>
+      <c r="MC36" t="inlineStr"/>
+      <c r="MD36" t="inlineStr"/>
+      <c r="ME36" t="inlineStr"/>
+      <c r="MF36" t="inlineStr"/>
+      <c r="MG36" t="inlineStr"/>
+      <c r="MH36" t="inlineStr"/>
+      <c r="MI36" t="inlineStr"/>
+      <c r="MJ36" t="inlineStr"/>
+      <c r="MK36" t="inlineStr"/>
+      <c r="ML36" t="inlineStr"/>
+      <c r="MM36" t="inlineStr"/>
+      <c r="MN36" t="inlineStr"/>
+      <c r="MO36" t="inlineStr"/>
+      <c r="MP36" t="inlineStr"/>
+      <c r="MQ36" t="inlineStr"/>
+      <c r="MR36" t="inlineStr"/>
+      <c r="MS36" t="inlineStr"/>
+      <c r="MT36" t="inlineStr"/>
+      <c r="MU36" t="inlineStr"/>
+      <c r="MV36" t="inlineStr"/>
+      <c r="MW36" t="inlineStr"/>
+      <c r="MX36" t="inlineStr"/>
+      <c r="MY36" t="inlineStr"/>
+      <c r="MZ36" t="inlineStr"/>
+      <c r="NA36" t="inlineStr"/>
+      <c r="NB36" t="inlineStr"/>
+      <c r="NC36" t="inlineStr"/>
+      <c r="ND36" t="inlineStr"/>
+      <c r="NE36" t="inlineStr"/>
+      <c r="NF36" t="inlineStr"/>
+      <c r="NG36" t="inlineStr"/>
+      <c r="NH36" t="inlineStr"/>
+      <c r="NI36" t="inlineStr"/>
+      <c r="NJ36" t="inlineStr"/>
+      <c r="NK36" t="inlineStr"/>
+      <c r="NL36" t="inlineStr"/>
+      <c r="NM36" t="inlineStr"/>
+      <c r="NN36" t="inlineStr"/>
+      <c r="NO36" t="inlineStr"/>
+      <c r="NP36" t="inlineStr"/>
+      <c r="NQ36" t="inlineStr"/>
+      <c r="NR36" t="inlineStr"/>
+      <c r="NS36" t="inlineStr"/>
+      <c r="NT36" t="inlineStr"/>
+      <c r="NU36" t="inlineStr"/>
+      <c r="NV36" t="inlineStr"/>
+      <c r="NW36" t="inlineStr"/>
+      <c r="NX36" t="inlineStr"/>
+      <c r="NY36" t="inlineStr"/>
+      <c r="NZ36" t="inlineStr"/>
+      <c r="OA36" t="inlineStr"/>
+      <c r="OB36" t="inlineStr"/>
+      <c r="OC36" t="inlineStr"/>
+      <c r="OD36" t="inlineStr"/>
+      <c r="OE36" t="inlineStr"/>
+      <c r="OF36" t="inlineStr"/>
+      <c r="OG36" t="inlineStr"/>
+      <c r="OH36" t="inlineStr"/>
+      <c r="OI36" t="inlineStr"/>
+      <c r="OJ36" t="inlineStr"/>
+      <c r="OK36" t="inlineStr"/>
+      <c r="OL36" t="inlineStr"/>
+      <c r="OM36" t="inlineStr"/>
+      <c r="ON36" t="inlineStr"/>
+      <c r="OO36" t="inlineStr"/>
+      <c r="OP36" t="inlineStr"/>
+      <c r="OQ36" t="inlineStr"/>
+      <c r="OR36" t="inlineStr"/>
+      <c r="OS36" t="inlineStr"/>
+      <c r="OT36" t="inlineStr"/>
+      <c r="OU36" t="inlineStr"/>
+      <c r="OV36" t="inlineStr"/>
+      <c r="OW36" t="inlineStr"/>
+      <c r="OX36" t="inlineStr"/>
+      <c r="OY36" t="inlineStr"/>
+      <c r="OZ36" t="inlineStr"/>
+      <c r="PA36" t="inlineStr"/>
+      <c r="PB36" t="inlineStr"/>
+      <c r="PC36" t="inlineStr"/>
+      <c r="PD36" t="inlineStr"/>
+      <c r="PE36" t="inlineStr"/>
+      <c r="PF36" t="inlineStr"/>
+      <c r="PG36" t="inlineStr"/>
+      <c r="PH36" t="inlineStr"/>
+      <c r="PI36" t="inlineStr"/>
+      <c r="PJ36" t="inlineStr"/>
+      <c r="PK36" t="inlineStr"/>
+      <c r="PL36" t="inlineStr"/>
+      <c r="PM36" t="inlineStr"/>
+      <c r="PN36" t="inlineStr"/>
+      <c r="PO36" t="inlineStr"/>
+      <c r="PP36" t="inlineStr"/>
+      <c r="PQ36" t="inlineStr"/>
+      <c r="PR36" t="inlineStr"/>
+      <c r="PS36" t="inlineStr"/>
+      <c r="PT36" t="inlineStr"/>
+      <c r="PU36" t="inlineStr"/>
+      <c r="PV36" t="inlineStr"/>
+      <c r="PW36" t="inlineStr"/>
+      <c r="PX36" t="inlineStr"/>
+      <c r="PY36" t="inlineStr"/>
+      <c r="PZ36" t="inlineStr"/>
+      <c r="QA36" t="inlineStr"/>
+      <c r="QB36" t="inlineStr"/>
+      <c r="QC36" t="inlineStr"/>
+      <c r="QD36" t="inlineStr"/>
+      <c r="QE36" t="inlineStr"/>
+      <c r="QF36" t="inlineStr"/>
+      <c r="QG36" t="inlineStr"/>
+      <c r="QH36" t="inlineStr"/>
+      <c r="QI36" t="inlineStr"/>
+      <c r="QJ36" t="inlineStr"/>
+      <c r="QK36" t="inlineStr"/>
+      <c r="QL36" t="inlineStr"/>
+      <c r="QM36" t="inlineStr"/>
+      <c r="QN36" t="inlineStr"/>
+      <c r="QO36" t="inlineStr"/>
+      <c r="QP36" t="inlineStr"/>
+      <c r="QQ36" t="inlineStr"/>
+      <c r="QR36" t="inlineStr"/>
+      <c r="QS36" t="inlineStr"/>
+      <c r="QT36" t="inlineStr"/>
+      <c r="QU36" t="inlineStr"/>
+      <c r="QV36" t="inlineStr"/>
+      <c r="QW36" t="inlineStr"/>
+      <c r="QX36" t="inlineStr"/>
+      <c r="QY36" t="inlineStr"/>
+      <c r="QZ36" t="inlineStr"/>
+      <c r="RA36" t="inlineStr"/>
+      <c r="RB36" t="inlineStr"/>
+      <c r="RC36" t="inlineStr"/>
+      <c r="RD36" t="inlineStr"/>
+      <c r="RE36" t="inlineStr"/>
+      <c r="RF36" t="inlineStr"/>
+      <c r="RG36" t="inlineStr"/>
+      <c r="RH36" t="inlineStr"/>
+      <c r="RI36" t="inlineStr"/>
+      <c r="RJ36" t="inlineStr"/>
+      <c r="RK36" t="inlineStr"/>
+      <c r="RL36" t="inlineStr"/>
+      <c r="RM36" t="inlineStr"/>
+      <c r="RN36" t="inlineStr"/>
+      <c r="RO36" t="inlineStr"/>
+      <c r="RP36" t="inlineStr"/>
+      <c r="RQ36" t="inlineStr"/>
+      <c r="RR36" t="inlineStr"/>
+      <c r="RS36" t="inlineStr"/>
+      <c r="RT36" t="inlineStr"/>
+      <c r="RU36" t="inlineStr"/>
+      <c r="RV36" t="inlineStr"/>
+      <c r="RW36" t="inlineStr"/>
+      <c r="RX36" t="inlineStr"/>
+      <c r="RY36" t="inlineStr"/>
+      <c r="RZ36" t="inlineStr"/>
+      <c r="SA36" t="inlineStr"/>
+      <c r="SB36" t="inlineStr"/>
+      <c r="SC36" t="inlineStr"/>
+      <c r="SD36" t="inlineStr"/>
+      <c r="SE36" t="inlineStr"/>
+      <c r="SF36" t="inlineStr"/>
+      <c r="SG36" t="inlineStr"/>
+      <c r="SH36" t="inlineStr"/>
+      <c r="SI36" t="inlineStr"/>
+      <c r="SJ36" t="inlineStr"/>
+      <c r="SK36" t="inlineStr"/>
+      <c r="SL36" t="inlineStr"/>
+      <c r="SM36" t="inlineStr"/>
+      <c r="SN36" t="inlineStr"/>
+      <c r="SO36" t="inlineStr"/>
+      <c r="SP36" t="inlineStr"/>
+      <c r="SQ36" t="inlineStr"/>
+      <c r="SR36" t="inlineStr"/>
+      <c r="SS36" t="inlineStr"/>
+      <c r="ST36" t="inlineStr"/>
+      <c r="SU36" t="inlineStr"/>
+      <c r="SV36" t="inlineStr"/>
+      <c r="SW36" t="inlineStr"/>
+      <c r="SX36" t="inlineStr"/>
+      <c r="SY36" t="inlineStr"/>
+      <c r="SZ36" t="inlineStr"/>
+      <c r="TA36" t="inlineStr"/>
+      <c r="TB36" t="inlineStr"/>
+      <c r="TC36" t="inlineStr"/>
+      <c r="TD36" t="inlineStr"/>
+      <c r="TE36" t="inlineStr"/>
+      <c r="TF36" t="inlineStr"/>
+      <c r="TG36" t="inlineStr"/>
+      <c r="TH36" t="inlineStr"/>
+      <c r="TI36" t="inlineStr"/>
+      <c r="TJ36" t="inlineStr"/>
+      <c r="TK36" t="inlineStr"/>
+      <c r="TL36" t="inlineStr"/>
+      <c r="TM36" t="inlineStr"/>
+      <c r="TN36" t="inlineStr"/>
+      <c r="TO36" t="inlineStr"/>
+      <c r="TP36" t="inlineStr"/>
+      <c r="TQ36" t="inlineStr"/>
+      <c r="TR36" t="inlineStr"/>
+      <c r="TS36" t="inlineStr"/>
+      <c r="TT36" t="inlineStr"/>
+      <c r="TU36" t="inlineStr"/>
+      <c r="TV36" t="inlineStr"/>
+      <c r="TW36" t="inlineStr"/>
+      <c r="TX36" t="inlineStr"/>
+      <c r="TY36" t="inlineStr"/>
+      <c r="TZ36" t="inlineStr"/>
+      <c r="UA36" t="inlineStr"/>
+      <c r="UB36" t="inlineStr"/>
+      <c r="UC36" t="inlineStr"/>
+      <c r="UD36" t="inlineStr"/>
+      <c r="UE36" t="inlineStr"/>
+      <c r="UF36" t="inlineStr"/>
+      <c r="UG36" t="inlineStr"/>
+      <c r="UH36" t="inlineStr"/>
+      <c r="UI36" t="inlineStr"/>
+      <c r="UJ36" t="inlineStr">
+        <is>
+          <t>procore/js-sdk</t>
+        </is>
+      </c>
+      <c r="UK36" t="n">
+        <v>13</v>
+      </c>
+      <c r="UL36" t="n">
+        <v>156</v>
+      </c>
+      <c r="UM36" t="n">
+        <v>7</v>
+      </c>
+      <c r="UN36" t="inlineStr"/>
+      <c r="UO36" t="inlineStr">
+        <is>
+          <t>procore/js-sdk</t>
+        </is>
+      </c>
+      <c r="UP36" t="n">
+        <v>13</v>
+      </c>
+      <c r="UQ36" t="n">
+        <v>156</v>
+      </c>
+      <c r="UR36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr"/>
+      <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="inlineStr"/>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AU37" t="inlineStr"/>
+      <c r="AV37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr"/>
+      <c r="AX37" t="inlineStr"/>
+      <c r="AY37" t="inlineStr"/>
+      <c r="AZ37" t="inlineStr"/>
+      <c r="BA37" t="inlineStr"/>
+      <c r="BB37" t="inlineStr"/>
+      <c r="BC37" t="inlineStr"/>
+      <c r="BD37" t="inlineStr"/>
+      <c r="BE37" t="inlineStr"/>
+      <c r="BF37" t="inlineStr"/>
+      <c r="BG37" t="inlineStr"/>
+      <c r="BH37" t="inlineStr"/>
+      <c r="BI37" t="inlineStr"/>
+      <c r="BJ37" t="inlineStr"/>
+      <c r="BK37" t="inlineStr"/>
+      <c r="BL37" t="inlineStr"/>
+      <c r="BM37" t="inlineStr"/>
+      <c r="BN37" t="inlineStr"/>
+      <c r="BO37" t="inlineStr"/>
+      <c r="BP37" t="inlineStr"/>
+      <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
+      <c r="BS37" t="inlineStr"/>
+      <c r="BT37" t="inlineStr"/>
+      <c r="BU37" t="inlineStr"/>
+      <c r="BV37" t="inlineStr"/>
+      <c r="BW37" t="inlineStr"/>
+      <c r="BX37" t="inlineStr"/>
+      <c r="BY37" t="inlineStr"/>
+      <c r="BZ37" t="inlineStr"/>
+      <c r="CA37" t="inlineStr"/>
+      <c r="CB37" t="inlineStr"/>
+      <c r="CC37" t="inlineStr"/>
+      <c r="CD37" t="inlineStr"/>
+      <c r="CE37" t="inlineStr"/>
+      <c r="CF37" t="inlineStr"/>
+      <c r="CG37" t="inlineStr"/>
+      <c r="CH37" t="inlineStr"/>
+      <c r="CI37" t="inlineStr"/>
+      <c r="CJ37" t="inlineStr"/>
+      <c r="CK37" t="inlineStr"/>
+      <c r="CL37" t="inlineStr"/>
+      <c r="CM37" t="inlineStr"/>
+      <c r="CN37" t="inlineStr"/>
+      <c r="CO37" t="inlineStr"/>
+      <c r="CP37" t="inlineStr"/>
+      <c r="CQ37" t="inlineStr"/>
+      <c r="CR37" t="inlineStr"/>
+      <c r="CS37" t="inlineStr"/>
+      <c r="CT37" t="inlineStr"/>
+      <c r="CU37" t="inlineStr"/>
+      <c r="CV37" t="inlineStr"/>
+      <c r="CW37" t="inlineStr"/>
+      <c r="CX37" t="inlineStr"/>
+      <c r="CY37" t="inlineStr"/>
+      <c r="CZ37" t="inlineStr"/>
+      <c r="DA37" t="inlineStr"/>
+      <c r="DB37" t="inlineStr"/>
+      <c r="DC37" t="inlineStr"/>
+      <c r="DD37" t="inlineStr"/>
+      <c r="DE37" t="inlineStr"/>
+      <c r="DF37" t="inlineStr"/>
+      <c r="DG37" t="inlineStr"/>
+      <c r="DH37" t="inlineStr"/>
+      <c r="DI37" t="inlineStr"/>
+      <c r="DJ37" t="inlineStr"/>
+      <c r="DK37" t="inlineStr"/>
+      <c r="DL37" t="inlineStr"/>
+      <c r="DM37" t="inlineStr"/>
+      <c r="DN37" t="inlineStr"/>
+      <c r="DO37" t="inlineStr"/>
+      <c r="DP37" t="inlineStr"/>
+      <c r="DQ37" t="inlineStr"/>
+      <c r="DR37" t="inlineStr"/>
+      <c r="DS37" t="inlineStr"/>
+      <c r="DT37" t="inlineStr"/>
+      <c r="DU37" t="inlineStr"/>
+      <c r="DV37" t="inlineStr"/>
+      <c r="DW37" t="inlineStr"/>
+      <c r="DX37" t="inlineStr"/>
+      <c r="DY37" t="inlineStr"/>
+      <c r="DZ37" t="inlineStr"/>
+      <c r="EA37" t="inlineStr"/>
+      <c r="EB37" t="inlineStr"/>
+      <c r="EC37" t="inlineStr"/>
+      <c r="ED37" t="inlineStr"/>
+      <c r="EE37" t="inlineStr"/>
+      <c r="EF37" t="inlineStr"/>
+      <c r="EG37" t="inlineStr"/>
+      <c r="EH37" t="inlineStr"/>
+      <c r="EI37" t="inlineStr"/>
+      <c r="EJ37" t="inlineStr"/>
+      <c r="EK37" t="inlineStr"/>
+      <c r="EL37" t="inlineStr"/>
+      <c r="EM37" t="inlineStr"/>
+      <c r="EN37" t="inlineStr"/>
+      <c r="EO37" t="inlineStr"/>
+      <c r="EP37" t="inlineStr"/>
+      <c r="EQ37" t="inlineStr"/>
+      <c r="ER37" t="inlineStr"/>
+      <c r="ES37" t="inlineStr"/>
+      <c r="ET37" t="inlineStr"/>
+      <c r="EU37" t="inlineStr"/>
+      <c r="EV37" t="inlineStr"/>
+      <c r="EW37" t="inlineStr"/>
+      <c r="EX37" t="inlineStr"/>
+      <c r="EY37" t="inlineStr"/>
+      <c r="EZ37" t="inlineStr"/>
+      <c r="FA37" t="inlineStr"/>
+      <c r="FB37" t="inlineStr"/>
+      <c r="FC37" t="inlineStr"/>
+      <c r="FD37" t="inlineStr"/>
+      <c r="FE37" t="inlineStr"/>
+      <c r="FF37" t="inlineStr"/>
+      <c r="FG37" t="inlineStr"/>
+      <c r="FH37" t="inlineStr"/>
+      <c r="FI37" t="inlineStr"/>
+      <c r="FJ37" t="inlineStr"/>
+      <c r="FK37" t="inlineStr"/>
+      <c r="FL37" t="inlineStr"/>
+      <c r="FM37" t="inlineStr"/>
+      <c r="FN37" t="inlineStr"/>
+      <c r="FO37" t="inlineStr"/>
+      <c r="FP37" t="inlineStr"/>
+      <c r="FQ37" t="inlineStr"/>
+      <c r="FR37" t="inlineStr"/>
+      <c r="FS37" t="inlineStr"/>
+      <c r="FT37" t="inlineStr"/>
+      <c r="FU37" t="inlineStr"/>
+      <c r="FV37" t="inlineStr"/>
+      <c r="FW37" t="inlineStr"/>
+      <c r="FX37" t="inlineStr"/>
+      <c r="FY37" t="inlineStr"/>
+      <c r="FZ37" t="inlineStr"/>
+      <c r="GA37" t="inlineStr"/>
+      <c r="GB37" t="inlineStr"/>
+      <c r="GC37" t="inlineStr"/>
+      <c r="GD37" t="inlineStr"/>
+      <c r="GE37" t="inlineStr"/>
+      <c r="GF37" t="inlineStr"/>
+      <c r="GG37" t="inlineStr"/>
+      <c r="GH37" t="inlineStr"/>
+      <c r="GI37" t="inlineStr"/>
+      <c r="GJ37" t="inlineStr"/>
+      <c r="GK37" t="inlineStr"/>
+      <c r="GL37" t="inlineStr"/>
+      <c r="GM37" t="inlineStr"/>
+      <c r="GN37" t="inlineStr"/>
+      <c r="GO37" t="inlineStr"/>
+      <c r="GP37" t="inlineStr"/>
+      <c r="GQ37" t="inlineStr"/>
+      <c r="GR37" t="inlineStr"/>
+      <c r="GS37" t="inlineStr"/>
+      <c r="GT37" t="inlineStr"/>
+      <c r="GU37" t="inlineStr"/>
+      <c r="GV37" t="inlineStr"/>
+      <c r="GW37" t="inlineStr"/>
+      <c r="GX37" t="inlineStr"/>
+      <c r="GY37" t="inlineStr"/>
+      <c r="GZ37" t="inlineStr"/>
+      <c r="HA37" t="inlineStr"/>
+      <c r="HB37" t="inlineStr"/>
+      <c r="HC37" t="inlineStr"/>
+      <c r="HD37" t="inlineStr"/>
+      <c r="HE37" t="inlineStr"/>
+      <c r="HF37" t="inlineStr"/>
+      <c r="HG37" t="inlineStr"/>
+      <c r="HH37" t="inlineStr"/>
+      <c r="HI37" t="inlineStr"/>
+      <c r="HJ37" t="inlineStr"/>
+      <c r="HK37" t="inlineStr"/>
+      <c r="HL37" t="inlineStr"/>
+      <c r="HM37" t="inlineStr"/>
+      <c r="HN37" t="inlineStr"/>
+      <c r="HO37" t="inlineStr"/>
+      <c r="HP37" t="inlineStr"/>
+      <c r="HQ37" t="inlineStr"/>
+      <c r="HR37" t="inlineStr"/>
+      <c r="HS37" t="inlineStr"/>
+      <c r="HT37" t="inlineStr"/>
+      <c r="HU37" t="inlineStr"/>
+      <c r="HV37" t="inlineStr"/>
+      <c r="HW37" t="inlineStr"/>
+      <c r="HX37" t="inlineStr"/>
+      <c r="HY37" t="inlineStr"/>
+      <c r="HZ37" t="inlineStr"/>
+      <c r="IA37" t="inlineStr"/>
+      <c r="IB37" t="inlineStr"/>
+      <c r="IC37" t="inlineStr"/>
+      <c r="ID37" t="inlineStr"/>
+      <c r="IE37" t="inlineStr"/>
+      <c r="IF37" t="inlineStr"/>
+      <c r="IG37" t="inlineStr"/>
+      <c r="IH37" t="inlineStr"/>
+      <c r="II37" t="inlineStr"/>
+      <c r="IJ37" t="inlineStr"/>
+      <c r="IK37" t="inlineStr"/>
+      <c r="IL37" t="inlineStr"/>
+      <c r="IM37" t="inlineStr"/>
+      <c r="IN37" t="inlineStr"/>
+      <c r="IO37" t="inlineStr"/>
+      <c r="IP37" t="inlineStr"/>
+      <c r="IQ37" t="inlineStr"/>
+      <c r="IR37" t="inlineStr"/>
+      <c r="IS37" t="inlineStr"/>
+      <c r="IT37" t="inlineStr"/>
+      <c r="IU37" t="inlineStr"/>
+      <c r="IV37" t="inlineStr"/>
+      <c r="IW37" t="inlineStr"/>
+      <c r="IX37" t="inlineStr"/>
+      <c r="IY37" t="inlineStr"/>
+      <c r="IZ37" t="inlineStr"/>
+      <c r="JA37" t="inlineStr"/>
+      <c r="JB37" t="inlineStr"/>
+      <c r="JC37" t="inlineStr"/>
+      <c r="JD37" t="inlineStr"/>
+      <c r="JE37" t="inlineStr"/>
+      <c r="JF37" t="inlineStr"/>
+      <c r="JG37" t="inlineStr"/>
+      <c r="JH37" t="inlineStr"/>
+      <c r="JI37" t="inlineStr"/>
+      <c r="JJ37" t="inlineStr"/>
+      <c r="JK37" t="inlineStr"/>
+      <c r="JL37" t="inlineStr"/>
+      <c r="JM37" t="inlineStr"/>
+      <c r="JN37" t="inlineStr"/>
+      <c r="JO37" t="inlineStr"/>
+      <c r="JP37" t="inlineStr"/>
+      <c r="JQ37" t="inlineStr"/>
+      <c r="JR37" t="inlineStr"/>
+      <c r="JS37" t="inlineStr"/>
+      <c r="JT37" t="inlineStr"/>
+      <c r="JU37" t="inlineStr"/>
+      <c r="JV37" t="inlineStr"/>
+      <c r="JW37" t="inlineStr"/>
+      <c r="JX37" t="inlineStr"/>
+      <c r="JY37" t="inlineStr"/>
+      <c r="JZ37" t="inlineStr"/>
+      <c r="KA37" t="inlineStr"/>
+      <c r="KB37" t="inlineStr"/>
+      <c r="KC37" t="inlineStr"/>
+      <c r="KD37" t="inlineStr"/>
+      <c r="KE37" t="inlineStr"/>
+      <c r="KF37" t="inlineStr"/>
+      <c r="KG37" t="inlineStr"/>
+      <c r="KH37" t="inlineStr"/>
+      <c r="KI37" t="inlineStr"/>
+      <c r="KJ37" t="inlineStr"/>
+      <c r="KK37" t="inlineStr"/>
+      <c r="KL37" t="inlineStr"/>
+      <c r="KM37" t="inlineStr"/>
+      <c r="KN37" t="inlineStr"/>
+      <c r="KO37" t="inlineStr"/>
+      <c r="KP37" t="inlineStr"/>
+      <c r="KQ37" t="inlineStr"/>
+      <c r="KR37" t="inlineStr"/>
+      <c r="KS37" t="inlineStr"/>
+      <c r="KT37" t="inlineStr"/>
+      <c r="KU37" t="inlineStr"/>
+      <c r="KV37" t="inlineStr"/>
+      <c r="KW37" t="inlineStr"/>
+      <c r="KX37" t="inlineStr"/>
+      <c r="KY37" t="inlineStr"/>
+      <c r="KZ37" t="inlineStr"/>
+      <c r="LA37" t="inlineStr"/>
+      <c r="LB37" t="inlineStr"/>
+      <c r="LC37" t="inlineStr"/>
+      <c r="LD37" t="inlineStr"/>
+      <c r="LE37" t="inlineStr"/>
+      <c r="LF37" t="inlineStr"/>
+      <c r="LG37" t="inlineStr"/>
+      <c r="LH37" t="inlineStr"/>
+      <c r="LI37" t="inlineStr"/>
+      <c r="LJ37" t="inlineStr"/>
+      <c r="LK37" t="inlineStr"/>
+      <c r="LL37" t="inlineStr"/>
+      <c r="LM37" t="inlineStr"/>
+      <c r="LN37" t="inlineStr"/>
+      <c r="LO37" t="inlineStr"/>
+      <c r="LP37" t="inlineStr"/>
+      <c r="LQ37" t="inlineStr"/>
+      <c r="LR37" t="inlineStr"/>
+      <c r="LS37" t="inlineStr"/>
+      <c r="LT37" t="inlineStr"/>
+      <c r="LU37" t="inlineStr"/>
+      <c r="LV37" t="inlineStr"/>
+      <c r="LW37" t="inlineStr"/>
+      <c r="LX37" t="inlineStr"/>
+      <c r="LY37" t="inlineStr"/>
+      <c r="LZ37" t="inlineStr"/>
+      <c r="MA37" t="inlineStr"/>
+      <c r="MB37" t="inlineStr"/>
+      <c r="MC37" t="inlineStr"/>
+      <c r="MD37" t="inlineStr"/>
+      <c r="ME37" t="inlineStr"/>
+      <c r="MF37" t="inlineStr"/>
+      <c r="MG37" t="inlineStr"/>
+      <c r="MH37" t="inlineStr"/>
+      <c r="MI37" t="inlineStr"/>
+      <c r="MJ37" t="inlineStr"/>
+      <c r="MK37" t="inlineStr"/>
+      <c r="ML37" t="inlineStr"/>
+      <c r="MM37" t="inlineStr"/>
+      <c r="MN37" t="inlineStr"/>
+      <c r="MO37" t="inlineStr"/>
+      <c r="MP37" t="inlineStr"/>
+      <c r="MQ37" t="inlineStr"/>
+      <c r="MR37" t="inlineStr"/>
+      <c r="MS37" t="inlineStr"/>
+      <c r="MT37" t="inlineStr"/>
+      <c r="MU37" t="inlineStr"/>
+      <c r="MV37" t="inlineStr"/>
+      <c r="MW37" t="inlineStr"/>
+      <c r="MX37" t="inlineStr"/>
+      <c r="MY37" t="inlineStr"/>
+      <c r="MZ37" t="inlineStr"/>
+      <c r="NA37" t="inlineStr"/>
+      <c r="NB37" t="inlineStr"/>
+      <c r="NC37" t="inlineStr"/>
+      <c r="ND37" t="inlineStr"/>
+      <c r="NE37" t="inlineStr"/>
+      <c r="NF37" t="inlineStr"/>
+      <c r="NG37" t="inlineStr"/>
+      <c r="NH37" t="inlineStr"/>
+      <c r="NI37" t="inlineStr"/>
+      <c r="NJ37" t="inlineStr"/>
+      <c r="NK37" t="inlineStr"/>
+      <c r="NL37" t="inlineStr"/>
+      <c r="NM37" t="inlineStr"/>
+      <c r="NN37" t="inlineStr"/>
+      <c r="NO37" t="inlineStr"/>
+      <c r="NP37" t="inlineStr"/>
+      <c r="NQ37" t="inlineStr"/>
+      <c r="NR37" t="inlineStr"/>
+      <c r="NS37" t="inlineStr"/>
+      <c r="NT37" t="inlineStr"/>
+      <c r="NU37" t="inlineStr"/>
+      <c r="NV37" t="inlineStr"/>
+      <c r="NW37" t="inlineStr"/>
+      <c r="NX37" t="inlineStr"/>
+      <c r="NY37" t="inlineStr"/>
+      <c r="NZ37" t="inlineStr"/>
+      <c r="OA37" t="inlineStr"/>
+      <c r="OB37" t="inlineStr"/>
+      <c r="OC37" t="inlineStr"/>
+      <c r="OD37" t="inlineStr"/>
+      <c r="OE37" t="inlineStr"/>
+      <c r="OF37" t="inlineStr"/>
+      <c r="OG37" t="inlineStr"/>
+      <c r="OH37" t="inlineStr"/>
+      <c r="OI37" t="inlineStr"/>
+      <c r="OJ37" t="inlineStr"/>
+      <c r="OK37" t="inlineStr"/>
+      <c r="OL37" t="inlineStr"/>
+      <c r="OM37" t="inlineStr"/>
+      <c r="ON37" t="inlineStr"/>
+      <c r="OO37" t="inlineStr"/>
+      <c r="OP37" t="inlineStr"/>
+      <c r="OQ37" t="inlineStr"/>
+      <c r="OR37" t="inlineStr"/>
+      <c r="OS37" t="inlineStr"/>
+      <c r="OT37" t="inlineStr"/>
+      <c r="OU37" t="inlineStr"/>
+      <c r="OV37" t="inlineStr"/>
+      <c r="OW37" t="inlineStr"/>
+      <c r="OX37" t="inlineStr"/>
+      <c r="OY37" t="inlineStr"/>
+      <c r="OZ37" t="inlineStr"/>
+      <c r="PA37" t="inlineStr"/>
+      <c r="PB37" t="inlineStr"/>
+      <c r="PC37" t="inlineStr"/>
+      <c r="PD37" t="inlineStr"/>
+      <c r="PE37" t="inlineStr"/>
+      <c r="PF37" t="inlineStr"/>
+      <c r="PG37" t="inlineStr"/>
+      <c r="PH37" t="inlineStr"/>
+      <c r="PI37" t="inlineStr"/>
+      <c r="PJ37" t="inlineStr"/>
+      <c r="PK37" t="inlineStr"/>
+      <c r="PL37" t="inlineStr"/>
+      <c r="PM37" t="inlineStr"/>
+      <c r="PN37" t="inlineStr"/>
+      <c r="PO37" t="inlineStr"/>
+      <c r="PP37" t="inlineStr"/>
+      <c r="PQ37" t="inlineStr"/>
+      <c r="PR37" t="inlineStr"/>
+      <c r="PS37" t="inlineStr"/>
+      <c r="PT37" t="inlineStr"/>
+      <c r="PU37" t="inlineStr"/>
+      <c r="PV37" t="inlineStr"/>
+      <c r="PW37" t="inlineStr"/>
+      <c r="PX37" t="inlineStr"/>
+      <c r="PY37" t="inlineStr"/>
+      <c r="PZ37" t="inlineStr"/>
+      <c r="QA37" t="inlineStr"/>
+      <c r="QB37" t="inlineStr"/>
+      <c r="QC37" t="inlineStr"/>
+      <c r="QD37" t="inlineStr"/>
+      <c r="QE37" t="inlineStr"/>
+      <c r="QF37" t="inlineStr"/>
+      <c r="QG37" t="inlineStr"/>
+      <c r="QH37" t="inlineStr"/>
+      <c r="QI37" t="inlineStr"/>
+      <c r="QJ37" t="inlineStr"/>
+      <c r="QK37" t="inlineStr"/>
+      <c r="QL37" t="inlineStr"/>
+      <c r="QM37" t="inlineStr"/>
+      <c r="QN37" t="inlineStr"/>
+      <c r="QO37" t="inlineStr"/>
+      <c r="QP37" t="inlineStr"/>
+      <c r="QQ37" t="inlineStr"/>
+      <c r="QR37" t="inlineStr"/>
+      <c r="QS37" t="inlineStr"/>
+      <c r="QT37" t="inlineStr"/>
+      <c r="QU37" t="inlineStr"/>
+      <c r="QV37" t="inlineStr"/>
+      <c r="QW37" t="inlineStr"/>
+      <c r="QX37" t="inlineStr"/>
+      <c r="QY37" t="inlineStr"/>
+      <c r="QZ37" t="inlineStr"/>
+      <c r="RA37" t="inlineStr"/>
+      <c r="RB37" t="inlineStr"/>
+      <c r="RC37" t="inlineStr"/>
+      <c r="RD37" t="inlineStr"/>
+      <c r="RE37" t="inlineStr"/>
+      <c r="RF37" t="inlineStr"/>
+      <c r="RG37" t="inlineStr"/>
+      <c r="RH37" t="inlineStr"/>
+      <c r="RI37" t="inlineStr"/>
+      <c r="RJ37" t="inlineStr"/>
+      <c r="RK37" t="inlineStr"/>
+      <c r="RL37" t="inlineStr"/>
+      <c r="RM37" t="inlineStr"/>
+      <c r="RN37" t="inlineStr"/>
+      <c r="RO37" t="inlineStr"/>
+      <c r="RP37" t="inlineStr"/>
+      <c r="RQ37" t="inlineStr"/>
+      <c r="RR37" t="inlineStr"/>
+      <c r="RS37" t="inlineStr"/>
+      <c r="RT37" t="inlineStr"/>
+      <c r="RU37" t="inlineStr"/>
+      <c r="RV37" t="inlineStr"/>
+      <c r="RW37" t="inlineStr"/>
+      <c r="RX37" t="inlineStr"/>
+      <c r="RY37" t="inlineStr"/>
+      <c r="RZ37" t="inlineStr"/>
+      <c r="SA37" t="inlineStr"/>
+      <c r="SB37" t="inlineStr"/>
+      <c r="SC37" t="inlineStr"/>
+      <c r="SD37" t="inlineStr"/>
+      <c r="SE37" t="inlineStr"/>
+      <c r="SF37" t="inlineStr"/>
+      <c r="SG37" t="inlineStr"/>
+      <c r="SH37" t="inlineStr"/>
+      <c r="SI37" t="inlineStr"/>
+      <c r="SJ37" t="inlineStr"/>
+      <c r="SK37" t="inlineStr"/>
+      <c r="SL37" t="inlineStr"/>
+      <c r="SM37" t="inlineStr"/>
+      <c r="SN37" t="inlineStr"/>
+      <c r="SO37" t="inlineStr"/>
+      <c r="SP37" t="inlineStr"/>
+      <c r="SQ37" t="inlineStr"/>
+      <c r="SR37" t="inlineStr"/>
+      <c r="SS37" t="inlineStr"/>
+      <c r="ST37" t="inlineStr"/>
+      <c r="SU37" t="inlineStr"/>
+      <c r="SV37" t="inlineStr"/>
+      <c r="SW37" t="inlineStr"/>
+      <c r="SX37" t="inlineStr"/>
+      <c r="SY37" t="inlineStr"/>
+      <c r="SZ37" t="inlineStr"/>
+      <c r="TA37" t="inlineStr"/>
+      <c r="TB37" t="inlineStr"/>
+      <c r="TC37" t="inlineStr"/>
+      <c r="TD37" t="inlineStr"/>
+      <c r="TE37" t="inlineStr"/>
+      <c r="TF37" t="inlineStr"/>
+      <c r="TG37" t="inlineStr"/>
+      <c r="TH37" t="inlineStr"/>
+      <c r="TI37" t="inlineStr"/>
+      <c r="TJ37" t="inlineStr"/>
+      <c r="TK37" t="inlineStr"/>
+      <c r="TL37" t="inlineStr"/>
+      <c r="TM37" t="inlineStr"/>
+      <c r="TN37" t="inlineStr"/>
+      <c r="TO37" t="inlineStr"/>
+      <c r="TP37" t="inlineStr"/>
+      <c r="TQ37" t="inlineStr"/>
+      <c r="TR37" t="inlineStr"/>
+      <c r="TS37" t="inlineStr"/>
+      <c r="TT37" t="inlineStr"/>
+      <c r="TU37" t="inlineStr"/>
+      <c r="TV37" t="inlineStr"/>
+      <c r="TW37" t="inlineStr"/>
+      <c r="TX37" t="inlineStr"/>
+      <c r="TY37" t="inlineStr"/>
+      <c r="TZ37" t="inlineStr"/>
+      <c r="UA37" t="inlineStr"/>
+      <c r="UB37" t="inlineStr"/>
+      <c r="UC37" t="inlineStr"/>
+      <c r="UD37" t="inlineStr"/>
+      <c r="UE37" t="inlineStr"/>
+      <c r="UF37" t="inlineStr"/>
+      <c r="UG37" t="inlineStr"/>
+      <c r="UH37" t="inlineStr"/>
+      <c r="UI37" t="inlineStr"/>
+      <c r="UJ37" t="inlineStr">
+        <is>
+          <t>ringcentral/ringcentral-web-phone</t>
+        </is>
+      </c>
+      <c r="UK37" t="n">
+        <v>102</v>
+      </c>
+      <c r="UL37" t="n">
+        <v>26</v>
+      </c>
+      <c r="UM37" t="n">
+        <v>73</v>
+      </c>
+      <c r="UN37" t="inlineStr"/>
+      <c r="UO37" t="inlineStr">
+        <is>
+          <t>ringcentral/ringcentral-web-phone</t>
+        </is>
+      </c>
+      <c r="UP37" t="n">
+        <v>102</v>
+      </c>
+      <c r="UQ37" t="n">
+        <v>26</v>
+      </c>
+      <c r="UR37" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr"/>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="inlineStr"/>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AU38" t="inlineStr"/>
+      <c r="AV38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr"/>
+      <c r="AX38" t="inlineStr"/>
+      <c r="AY38" t="inlineStr"/>
+      <c r="AZ38" t="inlineStr"/>
+      <c r="BA38" t="inlineStr"/>
+      <c r="BB38" t="inlineStr"/>
+      <c r="BC38" t="inlineStr"/>
+      <c r="BD38" t="inlineStr"/>
+      <c r="BE38" t="inlineStr"/>
+      <c r="BF38" t="inlineStr"/>
+      <c r="BG38" t="inlineStr"/>
+      <c r="BH38" t="inlineStr"/>
+      <c r="BI38" t="inlineStr"/>
+      <c r="BJ38" t="inlineStr"/>
+      <c r="BK38" t="inlineStr"/>
+      <c r="BL38" t="inlineStr"/>
+      <c r="BM38" t="inlineStr"/>
+      <c r="BN38" t="inlineStr"/>
+      <c r="BO38" t="inlineStr"/>
+      <c r="BP38" t="inlineStr"/>
+      <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
+      <c r="BS38" t="inlineStr"/>
+      <c r="BT38" t="inlineStr"/>
+      <c r="BU38" t="inlineStr"/>
+      <c r="BV38" t="inlineStr"/>
+      <c r="BW38" t="inlineStr"/>
+      <c r="BX38" t="inlineStr"/>
+      <c r="BY38" t="inlineStr"/>
+      <c r="BZ38" t="inlineStr"/>
+      <c r="CA38" t="inlineStr"/>
+      <c r="CB38" t="inlineStr"/>
+      <c r="CC38" t="inlineStr"/>
+      <c r="CD38" t="inlineStr"/>
+      <c r="CE38" t="inlineStr"/>
+      <c r="CF38" t="inlineStr"/>
+      <c r="CG38" t="inlineStr"/>
+      <c r="CH38" t="inlineStr"/>
+      <c r="CI38" t="inlineStr"/>
+      <c r="CJ38" t="inlineStr"/>
+      <c r="CK38" t="inlineStr"/>
+      <c r="CL38" t="inlineStr"/>
+      <c r="CM38" t="inlineStr"/>
+      <c r="CN38" t="inlineStr"/>
+      <c r="CO38" t="inlineStr"/>
+      <c r="CP38" t="inlineStr"/>
+      <c r="CQ38" t="inlineStr"/>
+      <c r="CR38" t="inlineStr"/>
+      <c r="CS38" t="inlineStr"/>
+      <c r="CT38" t="inlineStr"/>
+      <c r="CU38" t="inlineStr"/>
+      <c r="CV38" t="inlineStr"/>
+      <c r="CW38" t="inlineStr"/>
+      <c r="CX38" t="inlineStr"/>
+      <c r="CY38" t="inlineStr"/>
+      <c r="CZ38" t="inlineStr"/>
+      <c r="DA38" t="inlineStr"/>
+      <c r="DB38" t="inlineStr"/>
+      <c r="DC38" t="inlineStr"/>
+      <c r="DD38" t="inlineStr"/>
+      <c r="DE38" t="inlineStr"/>
+      <c r="DF38" t="inlineStr"/>
+      <c r="DG38" t="inlineStr"/>
+      <c r="DH38" t="inlineStr"/>
+      <c r="DI38" t="inlineStr"/>
+      <c r="DJ38" t="inlineStr"/>
+      <c r="DK38" t="inlineStr"/>
+      <c r="DL38" t="inlineStr"/>
+      <c r="DM38" t="inlineStr"/>
+      <c r="DN38" t="inlineStr"/>
+      <c r="DO38" t="inlineStr"/>
+      <c r="DP38" t="inlineStr"/>
+      <c r="DQ38" t="inlineStr"/>
+      <c r="DR38" t="inlineStr"/>
+      <c r="DS38" t="inlineStr"/>
+      <c r="DT38" t="inlineStr"/>
+      <c r="DU38" t="inlineStr"/>
+      <c r="DV38" t="inlineStr"/>
+      <c r="DW38" t="inlineStr"/>
+      <c r="DX38" t="inlineStr"/>
+      <c r="DY38" t="inlineStr"/>
+      <c r="DZ38" t="inlineStr"/>
+      <c r="EA38" t="inlineStr"/>
+      <c r="EB38" t="inlineStr"/>
+      <c r="EC38" t="inlineStr"/>
+      <c r="ED38" t="inlineStr"/>
+      <c r="EE38" t="inlineStr"/>
+      <c r="EF38" t="inlineStr"/>
+      <c r="EG38" t="inlineStr"/>
+      <c r="EH38" t="inlineStr"/>
+      <c r="EI38" t="inlineStr"/>
+      <c r="EJ38" t="inlineStr"/>
+      <c r="EK38" t="inlineStr"/>
+      <c r="EL38" t="inlineStr"/>
+      <c r="EM38" t="inlineStr"/>
+      <c r="EN38" t="inlineStr"/>
+      <c r="EO38" t="inlineStr"/>
+      <c r="EP38" t="inlineStr"/>
+      <c r="EQ38" t="inlineStr"/>
+      <c r="ER38" t="inlineStr"/>
+      <c r="ES38" t="inlineStr"/>
+      <c r="ET38" t="inlineStr"/>
+      <c r="EU38" t="inlineStr"/>
+      <c r="EV38" t="inlineStr"/>
+      <c r="EW38" t="inlineStr"/>
+      <c r="EX38" t="inlineStr"/>
+      <c r="EY38" t="inlineStr"/>
+      <c r="EZ38" t="inlineStr"/>
+      <c r="FA38" t="inlineStr"/>
+      <c r="FB38" t="inlineStr"/>
+      <c r="FC38" t="inlineStr"/>
+      <c r="FD38" t="inlineStr"/>
+      <c r="FE38" t="inlineStr"/>
+      <c r="FF38" t="inlineStr"/>
+      <c r="FG38" t="inlineStr"/>
+      <c r="FH38" t="inlineStr"/>
+      <c r="FI38" t="inlineStr"/>
+      <c r="FJ38" t="inlineStr"/>
+      <c r="FK38" t="inlineStr"/>
+      <c r="FL38" t="inlineStr"/>
+      <c r="FM38" t="inlineStr"/>
+      <c r="FN38" t="inlineStr"/>
+      <c r="FO38" t="inlineStr"/>
+      <c r="FP38" t="inlineStr"/>
+      <c r="FQ38" t="inlineStr"/>
+      <c r="FR38" t="inlineStr"/>
+      <c r="FS38" t="inlineStr"/>
+      <c r="FT38" t="inlineStr"/>
+      <c r="FU38" t="inlineStr"/>
+      <c r="FV38" t="inlineStr"/>
+      <c r="FW38" t="inlineStr"/>
+      <c r="FX38" t="inlineStr"/>
+      <c r="FY38" t="inlineStr"/>
+      <c r="FZ38" t="inlineStr"/>
+      <c r="GA38" t="inlineStr"/>
+      <c r="GB38" t="inlineStr"/>
+      <c r="GC38" t="inlineStr"/>
+      <c r="GD38" t="inlineStr"/>
+      <c r="GE38" t="inlineStr"/>
+      <c r="GF38" t="inlineStr"/>
+      <c r="GG38" t="inlineStr"/>
+      <c r="GH38" t="inlineStr"/>
+      <c r="GI38" t="inlineStr"/>
+      <c r="GJ38" t="inlineStr"/>
+      <c r="GK38" t="inlineStr"/>
+      <c r="GL38" t="inlineStr"/>
+      <c r="GM38" t="inlineStr"/>
+      <c r="GN38" t="inlineStr"/>
+      <c r="GO38" t="inlineStr"/>
+      <c r="GP38" t="inlineStr"/>
+      <c r="GQ38" t="inlineStr"/>
+      <c r="GR38" t="inlineStr"/>
+      <c r="GS38" t="inlineStr"/>
+      <c r="GT38" t="inlineStr"/>
+      <c r="GU38" t="inlineStr"/>
+      <c r="GV38" t="inlineStr"/>
+      <c r="GW38" t="inlineStr"/>
+      <c r="GX38" t="inlineStr"/>
+      <c r="GY38" t="inlineStr"/>
+      <c r="GZ38" t="inlineStr"/>
+      <c r="HA38" t="inlineStr"/>
+      <c r="HB38" t="inlineStr"/>
+      <c r="HC38" t="inlineStr"/>
+      <c r="HD38" t="inlineStr"/>
+      <c r="HE38" t="inlineStr"/>
+      <c r="HF38" t="inlineStr"/>
+      <c r="HG38" t="inlineStr"/>
+      <c r="HH38" t="inlineStr"/>
+      <c r="HI38" t="inlineStr"/>
+      <c r="HJ38" t="inlineStr"/>
+      <c r="HK38" t="inlineStr"/>
+      <c r="HL38" t="inlineStr"/>
+      <c r="HM38" t="inlineStr"/>
+      <c r="HN38" t="inlineStr"/>
+      <c r="HO38" t="inlineStr"/>
+      <c r="HP38" t="inlineStr"/>
+      <c r="HQ38" t="inlineStr"/>
+      <c r="HR38" t="inlineStr"/>
+      <c r="HS38" t="inlineStr"/>
+      <c r="HT38" t="inlineStr"/>
+      <c r="HU38" t="inlineStr"/>
+      <c r="HV38" t="inlineStr"/>
+      <c r="HW38" t="inlineStr"/>
+      <c r="HX38" t="inlineStr"/>
+      <c r="HY38" t="inlineStr"/>
+      <c r="HZ38" t="inlineStr"/>
+      <c r="IA38" t="inlineStr"/>
+      <c r="IB38" t="inlineStr"/>
+      <c r="IC38" t="inlineStr"/>
+      <c r="ID38" t="inlineStr"/>
+      <c r="IE38" t="inlineStr"/>
+      <c r="IF38" t="inlineStr"/>
+      <c r="IG38" t="inlineStr"/>
+      <c r="IH38" t="inlineStr"/>
+      <c r="II38" t="inlineStr"/>
+      <c r="IJ38" t="inlineStr"/>
+      <c r="IK38" t="inlineStr"/>
+      <c r="IL38" t="inlineStr"/>
+      <c r="IM38" t="inlineStr"/>
+      <c r="IN38" t="inlineStr"/>
+      <c r="IO38" t="inlineStr"/>
+      <c r="IP38" t="inlineStr"/>
+      <c r="IQ38" t="inlineStr"/>
+      <c r="IR38" t="inlineStr"/>
+      <c r="IS38" t="inlineStr"/>
+      <c r="IT38" t="inlineStr"/>
+      <c r="IU38" t="inlineStr"/>
+      <c r="IV38" t="inlineStr"/>
+      <c r="IW38" t="inlineStr"/>
+      <c r="IX38" t="inlineStr"/>
+      <c r="IY38" t="inlineStr"/>
+      <c r="IZ38" t="inlineStr"/>
+      <c r="JA38" t="inlineStr"/>
+      <c r="JB38" t="inlineStr"/>
+      <c r="JC38" t="inlineStr"/>
+      <c r="JD38" t="inlineStr"/>
+      <c r="JE38" t="inlineStr"/>
+      <c r="JF38" t="inlineStr"/>
+      <c r="JG38" t="inlineStr"/>
+      <c r="JH38" t="inlineStr"/>
+      <c r="JI38" t="inlineStr"/>
+      <c r="JJ38" t="inlineStr"/>
+      <c r="JK38" t="inlineStr"/>
+      <c r="JL38" t="inlineStr"/>
+      <c r="JM38" t="inlineStr"/>
+      <c r="JN38" t="inlineStr"/>
+      <c r="JO38" t="inlineStr"/>
+      <c r="JP38" t="inlineStr"/>
+      <c r="JQ38" t="inlineStr"/>
+      <c r="JR38" t="inlineStr"/>
+      <c r="JS38" t="inlineStr"/>
+      <c r="JT38" t="inlineStr"/>
+      <c r="JU38" t="inlineStr"/>
+      <c r="JV38" t="inlineStr"/>
+      <c r="JW38" t="inlineStr"/>
+      <c r="JX38" t="inlineStr"/>
+      <c r="JY38" t="inlineStr"/>
+      <c r="JZ38" t="inlineStr"/>
+      <c r="KA38" t="inlineStr"/>
+      <c r="KB38" t="inlineStr"/>
+      <c r="KC38" t="inlineStr"/>
+      <c r="KD38" t="inlineStr"/>
+      <c r="KE38" t="inlineStr"/>
+      <c r="KF38" t="inlineStr"/>
+      <c r="KG38" t="inlineStr"/>
+      <c r="KH38" t="inlineStr"/>
+      <c r="KI38" t="inlineStr"/>
+      <c r="KJ38" t="inlineStr"/>
+      <c r="KK38" t="inlineStr"/>
+      <c r="KL38" t="inlineStr"/>
+      <c r="KM38" t="inlineStr"/>
+      <c r="KN38" t="inlineStr"/>
+      <c r="KO38" t="inlineStr"/>
+      <c r="KP38" t="inlineStr"/>
+      <c r="KQ38" t="inlineStr"/>
+      <c r="KR38" t="inlineStr"/>
+      <c r="KS38" t="inlineStr"/>
+      <c r="KT38" t="inlineStr"/>
+      <c r="KU38" t="inlineStr"/>
+      <c r="KV38" t="inlineStr"/>
+      <c r="KW38" t="inlineStr"/>
+      <c r="KX38" t="inlineStr"/>
+      <c r="KY38" t="inlineStr"/>
+      <c r="KZ38" t="inlineStr"/>
+      <c r="LA38" t="inlineStr"/>
+      <c r="LB38" t="inlineStr"/>
+      <c r="LC38" t="inlineStr"/>
+      <c r="LD38" t="inlineStr"/>
+      <c r="LE38" t="inlineStr"/>
+      <c r="LF38" t="inlineStr"/>
+      <c r="LG38" t="inlineStr"/>
+      <c r="LH38" t="inlineStr"/>
+      <c r="LI38" t="inlineStr"/>
+      <c r="LJ38" t="inlineStr"/>
+      <c r="LK38" t="inlineStr"/>
+      <c r="LL38" t="inlineStr"/>
+      <c r="LM38" t="inlineStr"/>
+      <c r="LN38" t="inlineStr"/>
+      <c r="LO38" t="inlineStr"/>
+      <c r="LP38" t="inlineStr"/>
+      <c r="LQ38" t="inlineStr"/>
+      <c r="LR38" t="inlineStr"/>
+      <c r="LS38" t="inlineStr"/>
+      <c r="LT38" t="inlineStr"/>
+      <c r="LU38" t="inlineStr"/>
+      <c r="LV38" t="inlineStr"/>
+      <c r="LW38" t="inlineStr"/>
+      <c r="LX38" t="inlineStr"/>
+      <c r="LY38" t="inlineStr"/>
+      <c r="LZ38" t="inlineStr"/>
+      <c r="MA38" t="inlineStr"/>
+      <c r="MB38" t="inlineStr"/>
+      <c r="MC38" t="inlineStr"/>
+      <c r="MD38" t="inlineStr"/>
+      <c r="ME38" t="inlineStr"/>
+      <c r="MF38" t="inlineStr"/>
+      <c r="MG38" t="inlineStr"/>
+      <c r="MH38" t="inlineStr"/>
+      <c r="MI38" t="inlineStr"/>
+      <c r="MJ38" t="inlineStr"/>
+      <c r="MK38" t="inlineStr"/>
+      <c r="ML38" t="inlineStr"/>
+      <c r="MM38" t="inlineStr"/>
+      <c r="MN38" t="inlineStr"/>
+      <c r="MO38" t="inlineStr"/>
+      <c r="MP38" t="inlineStr"/>
+      <c r="MQ38" t="inlineStr"/>
+      <c r="MR38" t="inlineStr"/>
+      <c r="MS38" t="inlineStr"/>
+      <c r="MT38" t="inlineStr"/>
+      <c r="MU38" t="inlineStr"/>
+      <c r="MV38" t="inlineStr"/>
+      <c r="MW38" t="inlineStr"/>
+      <c r="MX38" t="inlineStr"/>
+      <c r="MY38" t="inlineStr"/>
+      <c r="MZ38" t="inlineStr"/>
+      <c r="NA38" t="inlineStr"/>
+      <c r="NB38" t="inlineStr"/>
+      <c r="NC38" t="inlineStr"/>
+      <c r="ND38" t="inlineStr"/>
+      <c r="NE38" t="inlineStr"/>
+      <c r="NF38" t="inlineStr"/>
+      <c r="NG38" t="inlineStr"/>
+      <c r="NH38" t="inlineStr"/>
+      <c r="NI38" t="inlineStr"/>
+      <c r="NJ38" t="inlineStr"/>
+      <c r="NK38" t="inlineStr"/>
+      <c r="NL38" t="inlineStr"/>
+      <c r="NM38" t="inlineStr"/>
+      <c r="NN38" t="inlineStr"/>
+      <c r="NO38" t="inlineStr"/>
+      <c r="NP38" t="inlineStr"/>
+      <c r="NQ38" t="inlineStr"/>
+      <c r="NR38" t="inlineStr"/>
+      <c r="NS38" t="inlineStr"/>
+      <c r="NT38" t="inlineStr"/>
+      <c r="NU38" t="inlineStr"/>
+      <c r="NV38" t="inlineStr"/>
+      <c r="NW38" t="inlineStr"/>
+      <c r="NX38" t="inlineStr"/>
+      <c r="NY38" t="inlineStr"/>
+      <c r="NZ38" t="inlineStr"/>
+      <c r="OA38" t="inlineStr"/>
+      <c r="OB38" t="inlineStr"/>
+      <c r="OC38" t="inlineStr"/>
+      <c r="OD38" t="inlineStr"/>
+      <c r="OE38" t="inlineStr"/>
+      <c r="OF38" t="inlineStr"/>
+      <c r="OG38" t="inlineStr"/>
+      <c r="OH38" t="inlineStr"/>
+      <c r="OI38" t="inlineStr"/>
+      <c r="OJ38" t="inlineStr"/>
+      <c r="OK38" t="inlineStr"/>
+      <c r="OL38" t="inlineStr"/>
+      <c r="OM38" t="inlineStr"/>
+      <c r="ON38" t="inlineStr"/>
+      <c r="OO38" t="inlineStr"/>
+      <c r="OP38" t="inlineStr"/>
+      <c r="OQ38" t="inlineStr"/>
+      <c r="OR38" t="inlineStr"/>
+      <c r="OS38" t="inlineStr"/>
+      <c r="OT38" t="inlineStr"/>
+      <c r="OU38" t="inlineStr"/>
+      <c r="OV38" t="inlineStr"/>
+      <c r="OW38" t="inlineStr"/>
+      <c r="OX38" t="inlineStr"/>
+      <c r="OY38" t="inlineStr"/>
+      <c r="OZ38" t="inlineStr"/>
+      <c r="PA38" t="inlineStr"/>
+      <c r="PB38" t="inlineStr"/>
+      <c r="PC38" t="inlineStr"/>
+      <c r="PD38" t="inlineStr"/>
+      <c r="PE38" t="inlineStr"/>
+      <c r="PF38" t="inlineStr"/>
+      <c r="PG38" t="inlineStr"/>
+      <c r="PH38" t="inlineStr"/>
+      <c r="PI38" t="inlineStr"/>
+      <c r="PJ38" t="inlineStr"/>
+      <c r="PK38" t="inlineStr"/>
+      <c r="PL38" t="inlineStr"/>
+      <c r="PM38" t="inlineStr"/>
+      <c r="PN38" t="inlineStr"/>
+      <c r="PO38" t="inlineStr"/>
+      <c r="PP38" t="inlineStr"/>
+      <c r="PQ38" t="inlineStr"/>
+      <c r="PR38" t="inlineStr"/>
+      <c r="PS38" t="inlineStr"/>
+      <c r="PT38" t="inlineStr"/>
+      <c r="PU38" t="inlineStr"/>
+      <c r="PV38" t="inlineStr"/>
+      <c r="PW38" t="inlineStr"/>
+      <c r="PX38" t="inlineStr"/>
+      <c r="PY38" t="inlineStr"/>
+      <c r="PZ38" t="inlineStr"/>
+      <c r="QA38" t="inlineStr"/>
+      <c r="QB38" t="inlineStr"/>
+      <c r="QC38" t="inlineStr"/>
+      <c r="QD38" t="inlineStr"/>
+      <c r="QE38" t="inlineStr"/>
+      <c r="QF38" t="inlineStr"/>
+      <c r="QG38" t="inlineStr"/>
+      <c r="QH38" t="inlineStr"/>
+      <c r="QI38" t="inlineStr"/>
+      <c r="QJ38" t="inlineStr"/>
+      <c r="QK38" t="inlineStr"/>
+      <c r="QL38" t="inlineStr"/>
+      <c r="QM38" t="inlineStr"/>
+      <c r="QN38" t="inlineStr"/>
+      <c r="QO38" t="inlineStr"/>
+      <c r="QP38" t="inlineStr"/>
+      <c r="QQ38" t="inlineStr"/>
+      <c r="QR38" t="inlineStr"/>
+      <c r="QS38" t="inlineStr"/>
+      <c r="QT38" t="inlineStr"/>
+      <c r="QU38" t="inlineStr"/>
+      <c r="QV38" t="inlineStr"/>
+      <c r="QW38" t="inlineStr"/>
+      <c r="QX38" t="inlineStr"/>
+      <c r="QY38" t="inlineStr"/>
+      <c r="QZ38" t="inlineStr"/>
+      <c r="RA38" t="inlineStr"/>
+      <c r="RB38" t="inlineStr"/>
+      <c r="RC38" t="inlineStr"/>
+      <c r="RD38" t="inlineStr"/>
+      <c r="RE38" t="inlineStr"/>
+      <c r="RF38" t="inlineStr"/>
+      <c r="RG38" t="inlineStr"/>
+      <c r="RH38" t="inlineStr"/>
+      <c r="RI38" t="inlineStr"/>
+      <c r="RJ38" t="inlineStr"/>
+      <c r="RK38" t="inlineStr"/>
+      <c r="RL38" t="inlineStr"/>
+      <c r="RM38" t="inlineStr"/>
+      <c r="RN38" t="inlineStr"/>
+      <c r="RO38" t="inlineStr"/>
+      <c r="RP38" t="inlineStr"/>
+      <c r="RQ38" t="inlineStr"/>
+      <c r="RR38" t="inlineStr"/>
+      <c r="RS38" t="inlineStr"/>
+      <c r="RT38" t="inlineStr"/>
+      <c r="RU38" t="inlineStr"/>
+      <c r="RV38" t="inlineStr"/>
+      <c r="RW38" t="inlineStr"/>
+      <c r="RX38" t="inlineStr"/>
+      <c r="RY38" t="inlineStr"/>
+      <c r="RZ38" t="inlineStr"/>
+      <c r="SA38" t="inlineStr"/>
+      <c r="SB38" t="inlineStr"/>
+      <c r="SC38" t="inlineStr"/>
+      <c r="SD38" t="inlineStr"/>
+      <c r="SE38" t="inlineStr"/>
+      <c r="SF38" t="inlineStr"/>
+      <c r="SG38" t="inlineStr"/>
+      <c r="SH38" t="inlineStr"/>
+      <c r="SI38" t="inlineStr"/>
+      <c r="SJ38" t="inlineStr"/>
+      <c r="SK38" t="inlineStr"/>
+      <c r="SL38" t="inlineStr"/>
+      <c r="SM38" t="inlineStr"/>
+      <c r="SN38" t="inlineStr"/>
+      <c r="SO38" t="inlineStr"/>
+      <c r="SP38" t="inlineStr"/>
+      <c r="SQ38" t="inlineStr"/>
+      <c r="SR38" t="inlineStr"/>
+      <c r="SS38" t="inlineStr"/>
+      <c r="ST38" t="inlineStr"/>
+      <c r="SU38" t="inlineStr"/>
+      <c r="SV38" t="inlineStr"/>
+      <c r="SW38" t="inlineStr"/>
+      <c r="SX38" t="inlineStr"/>
+      <c r="SY38" t="inlineStr"/>
+      <c r="SZ38" t="inlineStr"/>
+      <c r="TA38" t="inlineStr"/>
+      <c r="TB38" t="inlineStr"/>
+      <c r="TC38" t="inlineStr"/>
+      <c r="TD38" t="inlineStr"/>
+      <c r="TE38" t="inlineStr"/>
+      <c r="TF38" t="inlineStr"/>
+      <c r="TG38" t="inlineStr"/>
+      <c r="TH38" t="inlineStr"/>
+      <c r="TI38" t="inlineStr"/>
+      <c r="TJ38" t="inlineStr"/>
+      <c r="TK38" t="inlineStr"/>
+      <c r="TL38" t="inlineStr"/>
+      <c r="TM38" t="inlineStr"/>
+      <c r="TN38" t="inlineStr"/>
+      <c r="TO38" t="inlineStr"/>
+      <c r="TP38" t="inlineStr"/>
+      <c r="TQ38" t="inlineStr"/>
+      <c r="TR38" t="inlineStr"/>
+      <c r="TS38" t="inlineStr"/>
+      <c r="TT38" t="inlineStr"/>
+      <c r="TU38" t="inlineStr"/>
+      <c r="TV38" t="inlineStr"/>
+      <c r="TW38" t="inlineStr"/>
+      <c r="TX38" t="inlineStr"/>
+      <c r="TY38" t="inlineStr"/>
+      <c r="TZ38" t="inlineStr"/>
+      <c r="UA38" t="inlineStr"/>
+      <c r="UB38" t="inlineStr"/>
+      <c r="UC38" t="inlineStr"/>
+      <c r="UD38" t="inlineStr"/>
+      <c r="UE38" t="inlineStr"/>
+      <c r="UF38" t="inlineStr"/>
+      <c r="UG38" t="inlineStr"/>
+      <c r="UH38" t="inlineStr"/>
+      <c r="UI38" t="inlineStr"/>
+      <c r="UJ38" t="inlineStr">
+        <is>
+          <t>smartsheet-platform/smartsheet-python-sdk</t>
+        </is>
+      </c>
+      <c r="UK38" t="n">
+        <v>128</v>
+      </c>
+      <c r="UL38" t="n">
+        <v>28</v>
+      </c>
+      <c r="UM38" t="n">
+        <v>82</v>
+      </c>
+      <c r="UN38" t="inlineStr"/>
+      <c r="UO38" t="inlineStr">
+        <is>
+          <t>smartsheet-platform/smartsheet-python-sdk</t>
+        </is>
+      </c>
+      <c r="UP38" t="n">
+        <v>128</v>
+      </c>
+      <c r="UQ38" t="n">
+        <v>28</v>
+      </c>
+      <c r="UR38" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
+      <c r="AR39" t="inlineStr"/>
+      <c r="AS39" t="inlineStr"/>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AU39" t="inlineStr"/>
+      <c r="AV39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr"/>
+      <c r="AX39" t="inlineStr"/>
+      <c r="AY39" t="inlineStr"/>
+      <c r="AZ39" t="inlineStr"/>
+      <c r="BA39" t="inlineStr"/>
+      <c r="BB39" t="inlineStr"/>
+      <c r="BC39" t="inlineStr"/>
+      <c r="BD39" t="inlineStr"/>
+      <c r="BE39" t="inlineStr"/>
+      <c r="BF39" t="inlineStr"/>
+      <c r="BG39" t="inlineStr"/>
+      <c r="BH39" t="inlineStr"/>
+      <c r="BI39" t="inlineStr"/>
+      <c r="BJ39" t="inlineStr"/>
+      <c r="BK39" t="inlineStr"/>
+      <c r="BL39" t="inlineStr"/>
+      <c r="BM39" t="inlineStr"/>
+      <c r="BN39" t="inlineStr"/>
+      <c r="BO39" t="inlineStr"/>
+      <c r="BP39" t="inlineStr"/>
+      <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
+      <c r="BS39" t="inlineStr"/>
+      <c r="BT39" t="inlineStr"/>
+      <c r="BU39" t="inlineStr"/>
+      <c r="BV39" t="inlineStr"/>
+      <c r="BW39" t="inlineStr"/>
+      <c r="BX39" t="inlineStr"/>
+      <c r="BY39" t="inlineStr"/>
+      <c r="BZ39" t="inlineStr"/>
+      <c r="CA39" t="inlineStr"/>
+      <c r="CB39" t="inlineStr"/>
+      <c r="CC39" t="inlineStr"/>
+      <c r="CD39" t="inlineStr"/>
+      <c r="CE39" t="inlineStr"/>
+      <c r="CF39" t="inlineStr"/>
+      <c r="CG39" t="inlineStr"/>
+      <c r="CH39" t="inlineStr"/>
+      <c r="CI39" t="inlineStr"/>
+      <c r="CJ39" t="inlineStr"/>
+      <c r="CK39" t="inlineStr"/>
+      <c r="CL39" t="inlineStr"/>
+      <c r="CM39" t="inlineStr"/>
+      <c r="CN39" t="inlineStr"/>
+      <c r="CO39" t="inlineStr"/>
+      <c r="CP39" t="inlineStr"/>
+      <c r="CQ39" t="inlineStr"/>
+      <c r="CR39" t="inlineStr"/>
+      <c r="CS39" t="inlineStr"/>
+      <c r="CT39" t="inlineStr"/>
+      <c r="CU39" t="inlineStr"/>
+      <c r="CV39" t="inlineStr"/>
+      <c r="CW39" t="inlineStr"/>
+      <c r="CX39" t="inlineStr"/>
+      <c r="CY39" t="inlineStr"/>
+      <c r="CZ39" t="inlineStr"/>
+      <c r="DA39" t="inlineStr"/>
+      <c r="DB39" t="inlineStr"/>
+      <c r="DC39" t="inlineStr"/>
+      <c r="DD39" t="inlineStr"/>
+      <c r="DE39" t="inlineStr"/>
+      <c r="DF39" t="inlineStr"/>
+      <c r="DG39" t="inlineStr"/>
+      <c r="DH39" t="inlineStr"/>
+      <c r="DI39" t="inlineStr"/>
+      <c r="DJ39" t="inlineStr"/>
+      <c r="DK39" t="inlineStr"/>
+      <c r="DL39" t="inlineStr"/>
+      <c r="DM39" t="inlineStr"/>
+      <c r="DN39" t="inlineStr"/>
+      <c r="DO39" t="inlineStr"/>
+      <c r="DP39" t="inlineStr"/>
+      <c r="DQ39" t="inlineStr"/>
+      <c r="DR39" t="inlineStr"/>
+      <c r="DS39" t="inlineStr"/>
+      <c r="DT39" t="inlineStr"/>
+      <c r="DU39" t="inlineStr"/>
+      <c r="DV39" t="inlineStr"/>
+      <c r="DW39" t="inlineStr"/>
+      <c r="DX39" t="inlineStr"/>
+      <c r="DY39" t="inlineStr"/>
+      <c r="DZ39" t="inlineStr"/>
+      <c r="EA39" t="inlineStr"/>
+      <c r="EB39" t="inlineStr"/>
+      <c r="EC39" t="inlineStr"/>
+      <c r="ED39" t="inlineStr"/>
+      <c r="EE39" t="inlineStr"/>
+      <c r="EF39" t="inlineStr"/>
+      <c r="EG39" t="inlineStr"/>
+      <c r="EH39" t="inlineStr"/>
+      <c r="EI39" t="inlineStr"/>
+      <c r="EJ39" t="inlineStr"/>
+      <c r="EK39" t="inlineStr"/>
+      <c r="EL39" t="inlineStr"/>
+      <c r="EM39" t="inlineStr"/>
+      <c r="EN39" t="inlineStr"/>
+      <c r="EO39" t="inlineStr"/>
+      <c r="EP39" t="inlineStr"/>
+      <c r="EQ39" t="inlineStr"/>
+      <c r="ER39" t="inlineStr"/>
+      <c r="ES39" t="inlineStr"/>
+      <c r="ET39" t="inlineStr"/>
+      <c r="EU39" t="inlineStr"/>
+      <c r="EV39" t="inlineStr"/>
+      <c r="EW39" t="inlineStr"/>
+      <c r="EX39" t="inlineStr"/>
+      <c r="EY39" t="inlineStr"/>
+      <c r="EZ39" t="inlineStr"/>
+      <c r="FA39" t="inlineStr"/>
+      <c r="FB39" t="inlineStr"/>
+      <c r="FC39" t="inlineStr"/>
+      <c r="FD39" t="inlineStr"/>
+      <c r="FE39" t="inlineStr"/>
+      <c r="FF39" t="inlineStr"/>
+      <c r="FG39" t="inlineStr"/>
+      <c r="FH39" t="inlineStr"/>
+      <c r="FI39" t="inlineStr"/>
+      <c r="FJ39" t="inlineStr"/>
+      <c r="FK39" t="inlineStr"/>
+      <c r="FL39" t="inlineStr"/>
+      <c r="FM39" t="inlineStr"/>
+      <c r="FN39" t="inlineStr"/>
+      <c r="FO39" t="inlineStr"/>
+      <c r="FP39" t="inlineStr"/>
+      <c r="FQ39" t="inlineStr"/>
+      <c r="FR39" t="inlineStr"/>
+      <c r="FS39" t="inlineStr"/>
+      <c r="FT39" t="inlineStr"/>
+      <c r="FU39" t="inlineStr"/>
+      <c r="FV39" t="inlineStr"/>
+      <c r="FW39" t="inlineStr"/>
+      <c r="FX39" t="inlineStr"/>
+      <c r="FY39" t="inlineStr"/>
+      <c r="FZ39" t="inlineStr"/>
+      <c r="GA39" t="inlineStr"/>
+      <c r="GB39" t="inlineStr"/>
+      <c r="GC39" t="inlineStr"/>
+      <c r="GD39" t="inlineStr"/>
+      <c r="GE39" t="inlineStr"/>
+      <c r="GF39" t="inlineStr"/>
+      <c r="GG39" t="inlineStr"/>
+      <c r="GH39" t="inlineStr"/>
+      <c r="GI39" t="inlineStr"/>
+      <c r="GJ39" t="inlineStr"/>
+      <c r="GK39" t="inlineStr"/>
+      <c r="GL39" t="inlineStr"/>
+      <c r="GM39" t="inlineStr"/>
+      <c r="GN39" t="inlineStr"/>
+      <c r="GO39" t="inlineStr"/>
+      <c r="GP39" t="inlineStr"/>
+      <c r="GQ39" t="inlineStr"/>
+      <c r="GR39" t="inlineStr"/>
+      <c r="GS39" t="inlineStr"/>
+      <c r="GT39" t="inlineStr"/>
+      <c r="GU39" t="inlineStr"/>
+      <c r="GV39" t="inlineStr"/>
+      <c r="GW39" t="inlineStr"/>
+      <c r="GX39" t="inlineStr"/>
+      <c r="GY39" t="inlineStr"/>
+      <c r="GZ39" t="inlineStr"/>
+      <c r="HA39" t="inlineStr"/>
+      <c r="HB39" t="inlineStr"/>
+      <c r="HC39" t="inlineStr"/>
+      <c r="HD39" t="inlineStr"/>
+      <c r="HE39" t="inlineStr"/>
+      <c r="HF39" t="inlineStr"/>
+      <c r="HG39" t="inlineStr"/>
+      <c r="HH39" t="inlineStr"/>
+      <c r="HI39" t="inlineStr"/>
+      <c r="HJ39" t="inlineStr"/>
+      <c r="HK39" t="inlineStr"/>
+      <c r="HL39" t="inlineStr"/>
+      <c r="HM39" t="inlineStr"/>
+      <c r="HN39" t="inlineStr"/>
+      <c r="HO39" t="inlineStr"/>
+      <c r="HP39" t="inlineStr"/>
+      <c r="HQ39" t="inlineStr"/>
+      <c r="HR39" t="inlineStr"/>
+      <c r="HS39" t="inlineStr"/>
+      <c r="HT39" t="inlineStr"/>
+      <c r="HU39" t="inlineStr"/>
+      <c r="HV39" t="inlineStr"/>
+      <c r="HW39" t="inlineStr"/>
+      <c r="HX39" t="inlineStr"/>
+      <c r="HY39" t="inlineStr"/>
+      <c r="HZ39" t="inlineStr"/>
+      <c r="IA39" t="inlineStr"/>
+      <c r="IB39" t="inlineStr"/>
+      <c r="IC39" t="inlineStr"/>
+      <c r="ID39" t="inlineStr"/>
+      <c r="IE39" t="inlineStr"/>
+      <c r="IF39" t="inlineStr"/>
+      <c r="IG39" t="inlineStr"/>
+      <c r="IH39" t="inlineStr"/>
+      <c r="II39" t="inlineStr"/>
+      <c r="IJ39" t="inlineStr"/>
+      <c r="IK39" t="inlineStr"/>
+      <c r="IL39" t="inlineStr"/>
+      <c r="IM39" t="inlineStr"/>
+      <c r="IN39" t="inlineStr"/>
+      <c r="IO39" t="inlineStr"/>
+      <c r="IP39" t="inlineStr"/>
+      <c r="IQ39" t="inlineStr"/>
+      <c r="IR39" t="inlineStr"/>
+      <c r="IS39" t="inlineStr"/>
+      <c r="IT39" t="inlineStr"/>
+      <c r="IU39" t="inlineStr"/>
+      <c r="IV39" t="inlineStr"/>
+      <c r="IW39" t="inlineStr"/>
+      <c r="IX39" t="inlineStr"/>
+      <c r="IY39" t="inlineStr"/>
+      <c r="IZ39" t="inlineStr"/>
+      <c r="JA39" t="inlineStr"/>
+      <c r="JB39" t="inlineStr"/>
+      <c r="JC39" t="inlineStr"/>
+      <c r="JD39" t="inlineStr"/>
+      <c r="JE39" t="inlineStr"/>
+      <c r="JF39" t="inlineStr"/>
+      <c r="JG39" t="inlineStr"/>
+      <c r="JH39" t="inlineStr"/>
+      <c r="JI39" t="inlineStr"/>
+      <c r="JJ39" t="inlineStr"/>
+      <c r="JK39" t="inlineStr"/>
+      <c r="JL39" t="inlineStr"/>
+      <c r="JM39" t="inlineStr"/>
+      <c r="JN39" t="inlineStr"/>
+      <c r="JO39" t="inlineStr"/>
+      <c r="JP39" t="inlineStr"/>
+      <c r="JQ39" t="inlineStr"/>
+      <c r="JR39" t="inlineStr"/>
+      <c r="JS39" t="inlineStr"/>
+      <c r="JT39" t="inlineStr"/>
+      <c r="JU39" t="inlineStr"/>
+      <c r="JV39" t="inlineStr"/>
+      <c r="JW39" t="inlineStr"/>
+      <c r="JX39" t="inlineStr"/>
+      <c r="JY39" t="inlineStr"/>
+      <c r="JZ39" t="inlineStr"/>
+      <c r="KA39" t="inlineStr"/>
+      <c r="KB39" t="inlineStr"/>
+      <c r="KC39" t="inlineStr"/>
+      <c r="KD39" t="inlineStr"/>
+      <c r="KE39" t="inlineStr"/>
+      <c r="KF39" t="inlineStr"/>
+      <c r="KG39" t="inlineStr"/>
+      <c r="KH39" t="inlineStr"/>
+      <c r="KI39" t="inlineStr"/>
+      <c r="KJ39" t="inlineStr"/>
+      <c r="KK39" t="inlineStr"/>
+      <c r="KL39" t="inlineStr"/>
+      <c r="KM39" t="inlineStr"/>
+      <c r="KN39" t="inlineStr"/>
+      <c r="KO39" t="inlineStr"/>
+      <c r="KP39" t="inlineStr"/>
+      <c r="KQ39" t="inlineStr"/>
+      <c r="KR39" t="inlineStr"/>
+      <c r="KS39" t="inlineStr"/>
+      <c r="KT39" t="inlineStr"/>
+      <c r="KU39" t="inlineStr"/>
+      <c r="KV39" t="inlineStr"/>
+      <c r="KW39" t="inlineStr"/>
+      <c r="KX39" t="inlineStr"/>
+      <c r="KY39" t="inlineStr"/>
+      <c r="KZ39" t="inlineStr"/>
+      <c r="LA39" t="inlineStr"/>
+      <c r="LB39" t="inlineStr"/>
+      <c r="LC39" t="inlineStr"/>
+      <c r="LD39" t="inlineStr"/>
+      <c r="LE39" t="inlineStr"/>
+      <c r="LF39" t="inlineStr"/>
+      <c r="LG39" t="inlineStr"/>
+      <c r="LH39" t="inlineStr"/>
+      <c r="LI39" t="inlineStr"/>
+      <c r="LJ39" t="inlineStr"/>
+      <c r="LK39" t="inlineStr"/>
+      <c r="LL39" t="inlineStr"/>
+      <c r="LM39" t="inlineStr"/>
+      <c r="LN39" t="inlineStr"/>
+      <c r="LO39" t="inlineStr"/>
+      <c r="LP39" t="inlineStr"/>
+      <c r="LQ39" t="inlineStr"/>
+      <c r="LR39" t="inlineStr"/>
+      <c r="LS39" t="inlineStr"/>
+      <c r="LT39" t="inlineStr"/>
+      <c r="LU39" t="inlineStr"/>
+      <c r="LV39" t="inlineStr"/>
+      <c r="LW39" t="inlineStr"/>
+      <c r="LX39" t="inlineStr"/>
+      <c r="LY39" t="inlineStr"/>
+      <c r="LZ39" t="inlineStr"/>
+      <c r="MA39" t="inlineStr"/>
+      <c r="MB39" t="inlineStr"/>
+      <c r="MC39" t="inlineStr"/>
+      <c r="MD39" t="inlineStr"/>
+      <c r="ME39" t="inlineStr"/>
+      <c r="MF39" t="inlineStr"/>
+      <c r="MG39" t="inlineStr"/>
+      <c r="MH39" t="inlineStr"/>
+      <c r="MI39" t="inlineStr"/>
+      <c r="MJ39" t="inlineStr"/>
+      <c r="MK39" t="inlineStr"/>
+      <c r="ML39" t="inlineStr"/>
+      <c r="MM39" t="inlineStr"/>
+      <c r="MN39" t="inlineStr"/>
+      <c r="MO39" t="inlineStr"/>
+      <c r="MP39" t="inlineStr"/>
+      <c r="MQ39" t="inlineStr"/>
+      <c r="MR39" t="inlineStr"/>
+      <c r="MS39" t="inlineStr"/>
+      <c r="MT39" t="inlineStr"/>
+      <c r="MU39" t="inlineStr"/>
+      <c r="MV39" t="inlineStr"/>
+      <c r="MW39" t="inlineStr"/>
+      <c r="MX39" t="inlineStr"/>
+      <c r="MY39" t="inlineStr"/>
+      <c r="MZ39" t="inlineStr"/>
+      <c r="NA39" t="inlineStr"/>
+      <c r="NB39" t="inlineStr"/>
+      <c r="NC39" t="inlineStr"/>
+      <c r="ND39" t="inlineStr"/>
+      <c r="NE39" t="inlineStr"/>
+      <c r="NF39" t="inlineStr"/>
+      <c r="NG39" t="inlineStr"/>
+      <c r="NH39" t="inlineStr"/>
+      <c r="NI39" t="inlineStr"/>
+      <c r="NJ39" t="inlineStr"/>
+      <c r="NK39" t="inlineStr"/>
+      <c r="NL39" t="inlineStr"/>
+      <c r="NM39" t="inlineStr"/>
+      <c r="NN39" t="inlineStr"/>
+      <c r="NO39" t="inlineStr"/>
+      <c r="NP39" t="inlineStr"/>
+      <c r="NQ39" t="inlineStr"/>
+      <c r="NR39" t="inlineStr"/>
+      <c r="NS39" t="inlineStr"/>
+      <c r="NT39" t="inlineStr"/>
+      <c r="NU39" t="inlineStr"/>
+      <c r="NV39" t="inlineStr"/>
+      <c r="NW39" t="inlineStr"/>
+      <c r="NX39" t="inlineStr"/>
+      <c r="NY39" t="inlineStr"/>
+      <c r="NZ39" t="inlineStr"/>
+      <c r="OA39" t="inlineStr"/>
+      <c r="OB39" t="inlineStr"/>
+      <c r="OC39" t="inlineStr"/>
+      <c r="OD39" t="inlineStr"/>
+      <c r="OE39" t="inlineStr"/>
+      <c r="OF39" t="inlineStr"/>
+      <c r="OG39" t="inlineStr"/>
+      <c r="OH39" t="inlineStr"/>
+      <c r="OI39" t="inlineStr"/>
+      <c r="OJ39" t="inlineStr"/>
+      <c r="OK39" t="inlineStr"/>
+      <c r="OL39" t="inlineStr"/>
+      <c r="OM39" t="inlineStr"/>
+      <c r="ON39" t="inlineStr"/>
+      <c r="OO39" t="inlineStr"/>
+      <c r="OP39" t="inlineStr"/>
+      <c r="OQ39" t="inlineStr"/>
+      <c r="OR39" t="inlineStr"/>
+      <c r="OS39" t="inlineStr"/>
+      <c r="OT39" t="inlineStr"/>
+      <c r="OU39" t="inlineStr"/>
+      <c r="OV39" t="inlineStr"/>
+      <c r="OW39" t="inlineStr"/>
+      <c r="OX39" t="inlineStr"/>
+      <c r="OY39" t="inlineStr"/>
+      <c r="OZ39" t="inlineStr"/>
+      <c r="PA39" t="inlineStr"/>
+      <c r="PB39" t="inlineStr"/>
+      <c r="PC39" t="inlineStr"/>
+      <c r="PD39" t="inlineStr"/>
+      <c r="PE39" t="inlineStr"/>
+      <c r="PF39" t="inlineStr"/>
+      <c r="PG39" t="inlineStr"/>
+      <c r="PH39" t="inlineStr"/>
+      <c r="PI39" t="inlineStr"/>
+      <c r="PJ39" t="inlineStr"/>
+      <c r="PK39" t="inlineStr"/>
+      <c r="PL39" t="inlineStr"/>
+      <c r="PM39" t="inlineStr"/>
+      <c r="PN39" t="inlineStr"/>
+      <c r="PO39" t="inlineStr"/>
+      <c r="PP39" t="inlineStr"/>
+      <c r="PQ39" t="inlineStr"/>
+      <c r="PR39" t="inlineStr"/>
+      <c r="PS39" t="inlineStr"/>
+      <c r="PT39" t="inlineStr"/>
+      <c r="PU39" t="inlineStr"/>
+      <c r="PV39" t="inlineStr"/>
+      <c r="PW39" t="inlineStr"/>
+      <c r="PX39" t="inlineStr"/>
+      <c r="PY39" t="inlineStr"/>
+      <c r="PZ39" t="inlineStr"/>
+      <c r="QA39" t="inlineStr"/>
+      <c r="QB39" t="inlineStr"/>
+      <c r="QC39" t="inlineStr"/>
+      <c r="QD39" t="inlineStr"/>
+      <c r="QE39" t="inlineStr"/>
+      <c r="QF39" t="inlineStr"/>
+      <c r="QG39" t="inlineStr"/>
+      <c r="QH39" t="inlineStr"/>
+      <c r="QI39" t="inlineStr"/>
+      <c r="QJ39" t="inlineStr"/>
+      <c r="QK39" t="inlineStr"/>
+      <c r="QL39" t="inlineStr"/>
+      <c r="QM39" t="inlineStr"/>
+      <c r="QN39" t="inlineStr"/>
+      <c r="QO39" t="inlineStr"/>
+      <c r="QP39" t="inlineStr"/>
+      <c r="QQ39" t="inlineStr"/>
+      <c r="QR39" t="inlineStr"/>
+      <c r="QS39" t="inlineStr"/>
+      <c r="QT39" t="inlineStr"/>
+      <c r="QU39" t="inlineStr"/>
+      <c r="QV39" t="inlineStr"/>
+      <c r="QW39" t="inlineStr"/>
+      <c r="QX39" t="inlineStr"/>
+      <c r="QY39" t="inlineStr"/>
+      <c r="QZ39" t="inlineStr"/>
+      <c r="RA39" t="inlineStr"/>
+      <c r="RB39" t="inlineStr"/>
+      <c r="RC39" t="inlineStr"/>
+      <c r="RD39" t="inlineStr"/>
+      <c r="RE39" t="inlineStr"/>
+      <c r="RF39" t="inlineStr"/>
+      <c r="RG39" t="inlineStr"/>
+      <c r="RH39" t="inlineStr"/>
+      <c r="RI39" t="inlineStr"/>
+      <c r="RJ39" t="inlineStr"/>
+      <c r="RK39" t="inlineStr"/>
+      <c r="RL39" t="inlineStr"/>
+      <c r="RM39" t="inlineStr"/>
+      <c r="RN39" t="inlineStr"/>
+      <c r="RO39" t="inlineStr"/>
+      <c r="RP39" t="inlineStr"/>
+      <c r="RQ39" t="inlineStr"/>
+      <c r="RR39" t="inlineStr"/>
+      <c r="RS39" t="inlineStr"/>
+      <c r="RT39" t="inlineStr"/>
+      <c r="RU39" t="inlineStr"/>
+      <c r="RV39" t="inlineStr"/>
+      <c r="RW39" t="inlineStr"/>
+      <c r="RX39" t="inlineStr"/>
+      <c r="RY39" t="inlineStr"/>
+      <c r="RZ39" t="inlineStr"/>
+      <c r="SA39" t="inlineStr"/>
+      <c r="SB39" t="inlineStr"/>
+      <c r="SC39" t="inlineStr"/>
+      <c r="SD39" t="inlineStr"/>
+      <c r="SE39" t="inlineStr"/>
+      <c r="SF39" t="inlineStr"/>
+      <c r="SG39" t="inlineStr"/>
+      <c r="SH39" t="inlineStr"/>
+      <c r="SI39" t="inlineStr"/>
+      <c r="SJ39" t="inlineStr"/>
+      <c r="SK39" t="inlineStr"/>
+      <c r="SL39" t="inlineStr"/>
+      <c r="SM39" t="inlineStr"/>
+      <c r="SN39" t="inlineStr"/>
+      <c r="SO39" t="inlineStr"/>
+      <c r="SP39" t="inlineStr"/>
+      <c r="SQ39" t="inlineStr"/>
+      <c r="SR39" t="inlineStr"/>
+      <c r="SS39" t="inlineStr"/>
+      <c r="ST39" t="inlineStr"/>
+      <c r="SU39" t="inlineStr"/>
+      <c r="SV39" t="inlineStr"/>
+      <c r="SW39" t="inlineStr"/>
+      <c r="SX39" t="inlineStr"/>
+      <c r="SY39" t="inlineStr"/>
+      <c r="SZ39" t="inlineStr"/>
+      <c r="TA39" t="inlineStr"/>
+      <c r="TB39" t="inlineStr"/>
+      <c r="TC39" t="inlineStr"/>
+      <c r="TD39" t="inlineStr"/>
+      <c r="TE39" t="inlineStr"/>
+      <c r="TF39" t="inlineStr"/>
+      <c r="TG39" t="inlineStr"/>
+      <c r="TH39" t="inlineStr"/>
+      <c r="TI39" t="inlineStr"/>
+      <c r="TJ39" t="inlineStr"/>
+      <c r="TK39" t="inlineStr"/>
+      <c r="TL39" t="inlineStr"/>
+      <c r="TM39" t="inlineStr"/>
+      <c r="TN39" t="inlineStr"/>
+      <c r="TO39" t="inlineStr"/>
+      <c r="TP39" t="inlineStr"/>
+      <c r="TQ39" t="inlineStr"/>
+      <c r="TR39" t="inlineStr"/>
+      <c r="TS39" t="inlineStr"/>
+      <c r="TT39" t="inlineStr"/>
+      <c r="TU39" t="inlineStr"/>
+      <c r="TV39" t="inlineStr"/>
+      <c r="TW39" t="inlineStr"/>
+      <c r="TX39" t="inlineStr"/>
+      <c r="TY39" t="inlineStr"/>
+      <c r="TZ39" t="inlineStr"/>
+      <c r="UA39" t="inlineStr"/>
+      <c r="UB39" t="inlineStr"/>
+      <c r="UC39" t="inlineStr"/>
+      <c r="UD39" t="inlineStr"/>
+      <c r="UE39" t="inlineStr"/>
+      <c r="UF39" t="inlineStr"/>
+      <c r="UG39" t="inlineStr"/>
+      <c r="UH39" t="inlineStr"/>
+      <c r="UI39" t="inlineStr"/>
+      <c r="UJ39" t="inlineStr">
+        <is>
+          <t>confluentinc/confluent-kafka-python</t>
+        </is>
+      </c>
+      <c r="UK39" t="n">
+        <v>3513</v>
+      </c>
+      <c r="UL39" t="n">
+        <v>338</v>
+      </c>
+      <c r="UM39" t="n">
+        <v>908</v>
+      </c>
+      <c r="UN39" t="inlineStr"/>
+      <c r="UO39" t="inlineStr">
+        <is>
+          <t>confluentinc/confluent-kafka-python</t>
+        </is>
+      </c>
+      <c r="UP39" t="n">
+        <v>3513</v>
+      </c>
+      <c r="UQ39" t="n">
+        <v>338</v>
+      </c>
+      <c r="UR39" t="n">
+        <v>908</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/static/githubstatic/github_data.xlsx
+++ b/static/githubstatic/github_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:UR39"/>
+  <dimension ref="A1:VV39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3236,20 +3236,170 @@
       </c>
       <c r="UO1" s="1" t="inlineStr">
         <is>
+          <t>Repository.112</t>
+        </is>
+      </c>
+      <c r="UP1" s="1" t="inlineStr">
+        <is>
+          <t>Stars.112</t>
+        </is>
+      </c>
+      <c r="UQ1" s="1" t="inlineStr">
+        <is>
+          <t>Watches.112</t>
+        </is>
+      </c>
+      <c r="UR1" s="1" t="inlineStr">
+        <is>
+          <t>Forks.112</t>
+        </is>
+      </c>
+      <c r="US1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-17</t>
+        </is>
+      </c>
+      <c r="UT1" s="1" t="inlineStr">
+        <is>
+          <t>Repository.113</t>
+        </is>
+      </c>
+      <c r="UU1" s="1" t="inlineStr">
+        <is>
+          <t>Stars.113</t>
+        </is>
+      </c>
+      <c r="UV1" s="1" t="inlineStr">
+        <is>
+          <t>Watches.113</t>
+        </is>
+      </c>
+      <c r="UW1" s="1" t="inlineStr">
+        <is>
+          <t>Forks.113</t>
+        </is>
+      </c>
+      <c r="UX1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-18</t>
+        </is>
+      </c>
+      <c r="UY1" s="1" t="inlineStr">
+        <is>
+          <t>Repository.114</t>
+        </is>
+      </c>
+      <c r="UZ1" s="1" t="inlineStr">
+        <is>
+          <t>Stars.114</t>
+        </is>
+      </c>
+      <c r="VA1" s="1" t="inlineStr">
+        <is>
+          <t>Watches.114</t>
+        </is>
+      </c>
+      <c r="VB1" s="1" t="inlineStr">
+        <is>
+          <t>Forks.114</t>
+        </is>
+      </c>
+      <c r="VC1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-19</t>
+        </is>
+      </c>
+      <c r="VD1" s="1" t="inlineStr">
+        <is>
+          <t>Repository.115</t>
+        </is>
+      </c>
+      <c r="VE1" s="1" t="inlineStr">
+        <is>
+          <t>Stars.115</t>
+        </is>
+      </c>
+      <c r="VF1" s="1" t="inlineStr">
+        <is>
+          <t>Watches.115</t>
+        </is>
+      </c>
+      <c r="VG1" s="1" t="inlineStr">
+        <is>
+          <t>Forks.115</t>
+        </is>
+      </c>
+      <c r="VH1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-20</t>
+        </is>
+      </c>
+      <c r="VI1" s="1" t="inlineStr">
+        <is>
+          <t>Repository.116</t>
+        </is>
+      </c>
+      <c r="VJ1" s="1" t="inlineStr">
+        <is>
+          <t>Stars.116</t>
+        </is>
+      </c>
+      <c r="VK1" s="1" t="inlineStr">
+        <is>
+          <t>Watches.116</t>
+        </is>
+      </c>
+      <c r="VL1" s="1" t="inlineStr">
+        <is>
+          <t>Forks.116</t>
+        </is>
+      </c>
+      <c r="VM1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-21</t>
+        </is>
+      </c>
+      <c r="VN1" s="1" t="inlineStr">
+        <is>
+          <t>Repository.117</t>
+        </is>
+      </c>
+      <c r="VO1" s="1" t="inlineStr">
+        <is>
+          <t>Stars.117</t>
+        </is>
+      </c>
+      <c r="VP1" s="1" t="inlineStr">
+        <is>
+          <t>Watches.117</t>
+        </is>
+      </c>
+      <c r="VQ1" s="1" t="inlineStr">
+        <is>
+          <t>Forks.117</t>
+        </is>
+      </c>
+      <c r="VR1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="VS1" s="1" t="inlineStr">
+        <is>
           <t>Repository</t>
         </is>
       </c>
-      <c r="UP1" s="1" t="inlineStr">
+      <c r="VT1" s="1" t="inlineStr">
         <is>
           <t>Stars</t>
         </is>
       </c>
-      <c r="UQ1" s="1" t="inlineStr">
+      <c r="VU1" s="1" t="inlineStr">
         <is>
           <t>Watches</t>
         </is>
       </c>
-      <c r="UR1" s="1" t="inlineStr">
+      <c r="VV1" s="1" t="inlineStr">
         <is>
           <t>Forks</t>
         </is>
@@ -4760,6 +4910,96 @@
       <c r="UR2" t="n">
         <v>403</v>
       </c>
+      <c r="US2" t="inlineStr"/>
+      <c r="UT2" t="inlineStr">
+        <is>
+          <t>grafana/grafana</t>
+        </is>
+      </c>
+      <c r="UU2" t="n">
+        <v>58823</v>
+      </c>
+      <c r="UV2" t="n">
+        <v>1268</v>
+      </c>
+      <c r="UW2" t="n">
+        <v>11549</v>
+      </c>
+      <c r="UX2" t="inlineStr"/>
+      <c r="UY2" t="inlineStr">
+        <is>
+          <t>grafana/grafana</t>
+        </is>
+      </c>
+      <c r="UZ2" t="n">
+        <v>58840</v>
+      </c>
+      <c r="VA2" t="n">
+        <v>1268</v>
+      </c>
+      <c r="VB2" t="n">
+        <v>11554</v>
+      </c>
+      <c r="VC2" t="inlineStr"/>
+      <c r="VD2" t="inlineStr">
+        <is>
+          <t>grafana/grafana</t>
+        </is>
+      </c>
+      <c r="VE2" t="n">
+        <v>58859</v>
+      </c>
+      <c r="VF2" t="n">
+        <v>1268</v>
+      </c>
+      <c r="VG2" t="n">
+        <v>11560</v>
+      </c>
+      <c r="VH2" t="inlineStr"/>
+      <c r="VI2" t="inlineStr">
+        <is>
+          <t>grafana/grafana</t>
+        </is>
+      </c>
+      <c r="VJ2" t="n">
+        <v>58880</v>
+      </c>
+      <c r="VK2" t="n">
+        <v>1268</v>
+      </c>
+      <c r="VL2" t="n">
+        <v>11563</v>
+      </c>
+      <c r="VM2" t="inlineStr"/>
+      <c r="VN2" t="inlineStr">
+        <is>
+          <t>grafana/grafana</t>
+        </is>
+      </c>
+      <c r="VO2" t="n">
+        <v>58895</v>
+      </c>
+      <c r="VP2" t="n">
+        <v>1269</v>
+      </c>
+      <c r="VQ2" t="n">
+        <v>11562</v>
+      </c>
+      <c r="VR2" t="inlineStr"/>
+      <c r="VS2" t="inlineStr">
+        <is>
+          <t>grafana/grafana</t>
+        </is>
+      </c>
+      <c r="VT2" t="n">
+        <v>58905</v>
+      </c>
+      <c r="VU2" t="n">
+        <v>1269</v>
+      </c>
+      <c r="VV2" t="n">
+        <v>11563</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6266,6 +6506,96 @@
       <c r="UR3" t="n">
         <v>24017</v>
       </c>
+      <c r="US3" t="inlineStr"/>
+      <c r="UT3" t="inlineStr">
+        <is>
+          <t>prometheus/prometheus</t>
+        </is>
+      </c>
+      <c r="UU3" t="n">
+        <v>51388</v>
+      </c>
+      <c r="UV3" t="n">
+        <v>1136</v>
+      </c>
+      <c r="UW3" t="n">
+        <v>8717</v>
+      </c>
+      <c r="UX3" t="inlineStr"/>
+      <c r="UY3" t="inlineStr">
+        <is>
+          <t>prometheus/prometheus</t>
+        </is>
+      </c>
+      <c r="UZ3" t="n">
+        <v>51404</v>
+      </c>
+      <c r="VA3" t="n">
+        <v>1136</v>
+      </c>
+      <c r="VB3" t="n">
+        <v>8720</v>
+      </c>
+      <c r="VC3" t="inlineStr"/>
+      <c r="VD3" t="inlineStr">
+        <is>
+          <t>prometheus/prometheus</t>
+        </is>
+      </c>
+      <c r="VE3" t="n">
+        <v>51422</v>
+      </c>
+      <c r="VF3" t="n">
+        <v>1136</v>
+      </c>
+      <c r="VG3" t="n">
+        <v>8721</v>
+      </c>
+      <c r="VH3" t="inlineStr"/>
+      <c r="VI3" t="inlineStr">
+        <is>
+          <t>prometheus/prometheus</t>
+        </is>
+      </c>
+      <c r="VJ3" t="n">
+        <v>51435</v>
+      </c>
+      <c r="VK3" t="n">
+        <v>1136</v>
+      </c>
+      <c r="VL3" t="n">
+        <v>8723</v>
+      </c>
+      <c r="VM3" t="inlineStr"/>
+      <c r="VN3" t="inlineStr">
+        <is>
+          <t>prometheus/prometheus</t>
+        </is>
+      </c>
+      <c r="VO3" t="n">
+        <v>51444</v>
+      </c>
+      <c r="VP3" t="n">
+        <v>1137</v>
+      </c>
+      <c r="VQ3" t="n">
+        <v>8722</v>
+      </c>
+      <c r="VR3" t="inlineStr"/>
+      <c r="VS3" t="inlineStr">
+        <is>
+          <t>prometheus/prometheus</t>
+        </is>
+      </c>
+      <c r="VT3" t="n">
+        <v>51453</v>
+      </c>
+      <c r="VU3" t="n">
+        <v>1137</v>
+      </c>
+      <c r="VV3" t="n">
+        <v>8723</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7772,6 +8102,96 @@
       <c r="UR4" t="n">
         <v>11544</v>
       </c>
+      <c r="US4" t="inlineStr"/>
+      <c r="UT4" t="inlineStr">
+        <is>
+          <t>mongodb/mongo</t>
+        </is>
+      </c>
+      <c r="UU4" t="n">
+        <v>24944</v>
+      </c>
+      <c r="UV4" t="n">
+        <v>1234</v>
+      </c>
+      <c r="UW4" t="n">
+        <v>5515</v>
+      </c>
+      <c r="UX4" t="inlineStr"/>
+      <c r="UY4" t="inlineStr">
+        <is>
+          <t>mongodb/mongo</t>
+        </is>
+      </c>
+      <c r="UZ4" t="n">
+        <v>24950</v>
+      </c>
+      <c r="VA4" t="n">
+        <v>1234</v>
+      </c>
+      <c r="VB4" t="n">
+        <v>5515</v>
+      </c>
+      <c r="VC4" t="inlineStr"/>
+      <c r="VD4" t="inlineStr">
+        <is>
+          <t>mongodb/mongo</t>
+        </is>
+      </c>
+      <c r="VE4" t="n">
+        <v>24956</v>
+      </c>
+      <c r="VF4" t="n">
+        <v>1234</v>
+      </c>
+      <c r="VG4" t="n">
+        <v>5516</v>
+      </c>
+      <c r="VH4" t="inlineStr"/>
+      <c r="VI4" t="inlineStr">
+        <is>
+          <t>mongodb/mongo</t>
+        </is>
+      </c>
+      <c r="VJ4" t="n">
+        <v>24960</v>
+      </c>
+      <c r="VK4" t="n">
+        <v>1234</v>
+      </c>
+      <c r="VL4" t="n">
+        <v>5516</v>
+      </c>
+      <c r="VM4" t="inlineStr"/>
+      <c r="VN4" t="inlineStr">
+        <is>
+          <t>mongodb/mongo</t>
+        </is>
+      </c>
+      <c r="VO4" t="n">
+        <v>24965</v>
+      </c>
+      <c r="VP4" t="n">
+        <v>1234</v>
+      </c>
+      <c r="VQ4" t="n">
+        <v>5516</v>
+      </c>
+      <c r="VR4" t="inlineStr"/>
+      <c r="VS4" t="inlineStr">
+        <is>
+          <t>mongodb/mongo</t>
+        </is>
+      </c>
+      <c r="VT4" t="n">
+        <v>24971</v>
+      </c>
+      <c r="VU4" t="n">
+        <v>1234</v>
+      </c>
+      <c r="VV4" t="n">
+        <v>5516</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9278,6 +9698,96 @@
       <c r="UR5" t="n">
         <v>8706</v>
       </c>
+      <c r="US5" t="inlineStr"/>
+      <c r="UT5" t="inlineStr">
+        <is>
+          <t>hashicorp/terraform</t>
+        </is>
+      </c>
+      <c r="UU5" t="n">
+        <v>40079</v>
+      </c>
+      <c r="UV5" t="n">
+        <v>1189</v>
+      </c>
+      <c r="UW5" t="n">
+        <v>9336</v>
+      </c>
+      <c r="UX5" t="inlineStr"/>
+      <c r="UY5" t="inlineStr">
+        <is>
+          <t>hashicorp/terraform</t>
+        </is>
+      </c>
+      <c r="UZ5" t="n">
+        <v>40086</v>
+      </c>
+      <c r="VA5" t="n">
+        <v>1188</v>
+      </c>
+      <c r="VB5" t="n">
+        <v>9337</v>
+      </c>
+      <c r="VC5" t="inlineStr"/>
+      <c r="VD5" t="inlineStr">
+        <is>
+          <t>hashicorp/terraform</t>
+        </is>
+      </c>
+      <c r="VE5" t="n">
+        <v>40099</v>
+      </c>
+      <c r="VF5" t="n">
+        <v>1188</v>
+      </c>
+      <c r="VG5" t="n">
+        <v>9339</v>
+      </c>
+      <c r="VH5" t="inlineStr"/>
+      <c r="VI5" t="inlineStr">
+        <is>
+          <t>hashicorp/terraform</t>
+        </is>
+      </c>
+      <c r="VJ5" t="n">
+        <v>40105</v>
+      </c>
+      <c r="VK5" t="n">
+        <v>1188</v>
+      </c>
+      <c r="VL5" t="n">
+        <v>9341</v>
+      </c>
+      <c r="VM5" t="inlineStr"/>
+      <c r="VN5" t="inlineStr">
+        <is>
+          <t>hashicorp/terraform</t>
+        </is>
+      </c>
+      <c r="VO5" t="n">
+        <v>40115</v>
+      </c>
+      <c r="VP5" t="n">
+        <v>1188</v>
+      </c>
+      <c r="VQ5" t="n">
+        <v>9342</v>
+      </c>
+      <c r="VR5" t="inlineStr"/>
+      <c r="VS5" t="inlineStr">
+        <is>
+          <t>hashicorp/terraform</t>
+        </is>
+      </c>
+      <c r="VT5" t="n">
+        <v>40123</v>
+      </c>
+      <c r="VU5" t="n">
+        <v>1187</v>
+      </c>
+      <c r="VV5" t="n">
+        <v>9343</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -10784,6 +11294,96 @@
       <c r="UR6" t="n">
         <v>5510</v>
       </c>
+      <c r="US6" t="inlineStr"/>
+      <c r="UT6" t="inlineStr">
+        <is>
+          <t>hashicorp/vault</t>
+        </is>
+      </c>
+      <c r="UU6" t="n">
+        <v>29144</v>
+      </c>
+      <c r="UV6" t="n">
+        <v>826</v>
+      </c>
+      <c r="UW6" t="n">
+        <v>4094</v>
+      </c>
+      <c r="UX6" t="inlineStr"/>
+      <c r="UY6" t="inlineStr">
+        <is>
+          <t>hashicorp/vault</t>
+        </is>
+      </c>
+      <c r="UZ6" t="n">
+        <v>29149</v>
+      </c>
+      <c r="VA6" t="n">
+        <v>826</v>
+      </c>
+      <c r="VB6" t="n">
+        <v>4096</v>
+      </c>
+      <c r="VC6" t="inlineStr"/>
+      <c r="VD6" t="inlineStr">
+        <is>
+          <t>hashicorp/vault</t>
+        </is>
+      </c>
+      <c r="VE6" t="n">
+        <v>29153</v>
+      </c>
+      <c r="VF6" t="n">
+        <v>826</v>
+      </c>
+      <c r="VG6" t="n">
+        <v>4097</v>
+      </c>
+      <c r="VH6" t="inlineStr"/>
+      <c r="VI6" t="inlineStr">
+        <is>
+          <t>hashicorp/vault</t>
+        </is>
+      </c>
+      <c r="VJ6" t="n">
+        <v>29159</v>
+      </c>
+      <c r="VK6" t="n">
+        <v>826</v>
+      </c>
+      <c r="VL6" t="n">
+        <v>4100</v>
+      </c>
+      <c r="VM6" t="inlineStr"/>
+      <c r="VN6" t="inlineStr">
+        <is>
+          <t>hashicorp/vault</t>
+        </is>
+      </c>
+      <c r="VO6" t="n">
+        <v>29163</v>
+      </c>
+      <c r="VP6" t="n">
+        <v>826</v>
+      </c>
+      <c r="VQ6" t="n">
+        <v>4100</v>
+      </c>
+      <c r="VR6" t="inlineStr"/>
+      <c r="VS6" t="inlineStr">
+        <is>
+          <t>hashicorp/vault</t>
+        </is>
+      </c>
+      <c r="VT6" t="n">
+        <v>29167</v>
+      </c>
+      <c r="VU6" t="n">
+        <v>826</v>
+      </c>
+      <c r="VV6" t="n">
+        <v>4100</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -12290,6 +12890,96 @@
       <c r="UR7" t="n">
         <v>9329</v>
       </c>
+      <c r="US7" t="inlineStr"/>
+      <c r="UT7" t="inlineStr">
+        <is>
+          <t>hashicorp/consul</t>
+        </is>
+      </c>
+      <c r="UU7" t="n">
+        <v>27496</v>
+      </c>
+      <c r="UV7" t="n">
+        <v>932</v>
+      </c>
+      <c r="UW7" t="n">
+        <v>4438</v>
+      </c>
+      <c r="UX7" t="inlineStr"/>
+      <c r="UY7" t="inlineStr">
+        <is>
+          <t>hashicorp/consul</t>
+        </is>
+      </c>
+      <c r="UZ7" t="n">
+        <v>27495</v>
+      </c>
+      <c r="VA7" t="n">
+        <v>932</v>
+      </c>
+      <c r="VB7" t="n">
+        <v>4438</v>
+      </c>
+      <c r="VC7" t="inlineStr"/>
+      <c r="VD7" t="inlineStr">
+        <is>
+          <t>hashicorp/consul</t>
+        </is>
+      </c>
+      <c r="VE7" t="n">
+        <v>27501</v>
+      </c>
+      <c r="VF7" t="n">
+        <v>932</v>
+      </c>
+      <c r="VG7" t="n">
+        <v>4439</v>
+      </c>
+      <c r="VH7" t="inlineStr"/>
+      <c r="VI7" t="inlineStr">
+        <is>
+          <t>hashicorp/consul</t>
+        </is>
+      </c>
+      <c r="VJ7" t="n">
+        <v>27504</v>
+      </c>
+      <c r="VK7" t="n">
+        <v>932</v>
+      </c>
+      <c r="VL7" t="n">
+        <v>4439</v>
+      </c>
+      <c r="VM7" t="inlineStr"/>
+      <c r="VN7" t="inlineStr">
+        <is>
+          <t>hashicorp/consul</t>
+        </is>
+      </c>
+      <c r="VO7" t="n">
+        <v>27509</v>
+      </c>
+      <c r="VP7" t="n">
+        <v>932</v>
+      </c>
+      <c r="VQ7" t="n">
+        <v>4438</v>
+      </c>
+      <c r="VR7" t="inlineStr"/>
+      <c r="VS7" t="inlineStr">
+        <is>
+          <t>hashicorp/consul</t>
+        </is>
+      </c>
+      <c r="VT7" t="n">
+        <v>27507</v>
+      </c>
+      <c r="VU7" t="n">
+        <v>932</v>
+      </c>
+      <c r="VV7" t="n">
+        <v>4436</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -13796,6 +14486,96 @@
       <c r="UR8" t="n">
         <v>4091</v>
       </c>
+      <c r="US8" t="inlineStr"/>
+      <c r="UT8" t="inlineStr">
+        <is>
+          <t>hashicorp/nomad</t>
+        </is>
+      </c>
+      <c r="UU8" t="n">
+        <v>14195</v>
+      </c>
+      <c r="UV8" t="n">
+        <v>538</v>
+      </c>
+      <c r="UW8" t="n">
+        <v>1897</v>
+      </c>
+      <c r="UX8" t="inlineStr"/>
+      <c r="UY8" t="inlineStr">
+        <is>
+          <t>hashicorp/nomad</t>
+        </is>
+      </c>
+      <c r="UZ8" t="n">
+        <v>14196</v>
+      </c>
+      <c r="VA8" t="n">
+        <v>538</v>
+      </c>
+      <c r="VB8" t="n">
+        <v>1897</v>
+      </c>
+      <c r="VC8" t="inlineStr"/>
+      <c r="VD8" t="inlineStr">
+        <is>
+          <t>hashicorp/nomad</t>
+        </is>
+      </c>
+      <c r="VE8" t="n">
+        <v>14198</v>
+      </c>
+      <c r="VF8" t="n">
+        <v>538</v>
+      </c>
+      <c r="VG8" t="n">
+        <v>1897</v>
+      </c>
+      <c r="VH8" t="inlineStr"/>
+      <c r="VI8" t="inlineStr">
+        <is>
+          <t>hashicorp/nomad</t>
+        </is>
+      </c>
+      <c r="VJ8" t="n">
+        <v>14199</v>
+      </c>
+      <c r="VK8" t="n">
+        <v>538</v>
+      </c>
+      <c r="VL8" t="n">
+        <v>1897</v>
+      </c>
+      <c r="VM8" t="inlineStr"/>
+      <c r="VN8" t="inlineStr">
+        <is>
+          <t>hashicorp/nomad</t>
+        </is>
+      </c>
+      <c r="VO8" t="n">
+        <v>14199</v>
+      </c>
+      <c r="VP8" t="n">
+        <v>538</v>
+      </c>
+      <c r="VQ8" t="n">
+        <v>1898</v>
+      </c>
+      <c r="VR8" t="inlineStr"/>
+      <c r="VS8" t="inlineStr">
+        <is>
+          <t>hashicorp/nomad</t>
+        </is>
+      </c>
+      <c r="VT8" t="n">
+        <v>14200</v>
+      </c>
+      <c r="VU8" t="n">
+        <v>538</v>
+      </c>
+      <c r="VV8" t="n">
+        <v>1898</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -15302,6 +16082,96 @@
       <c r="UR9" t="n">
         <v>4437</v>
       </c>
+      <c r="US9" t="inlineStr"/>
+      <c r="UT9" t="inlineStr">
+        <is>
+          <t>hashicorp/vagrant</t>
+        </is>
+      </c>
+      <c r="UU9" t="n">
+        <v>25613</v>
+      </c>
+      <c r="UV9" t="n">
+        <v>726</v>
+      </c>
+      <c r="UW9" t="n">
+        <v>4493</v>
+      </c>
+      <c r="UX9" t="inlineStr"/>
+      <c r="UY9" t="inlineStr">
+        <is>
+          <t>hashicorp/vagrant</t>
+        </is>
+      </c>
+      <c r="UZ9" t="n">
+        <v>25615</v>
+      </c>
+      <c r="VA9" t="n">
+        <v>727</v>
+      </c>
+      <c r="VB9" t="n">
+        <v>4495</v>
+      </c>
+      <c r="VC9" t="inlineStr"/>
+      <c r="VD9" t="inlineStr">
+        <is>
+          <t>hashicorp/vagrant</t>
+        </is>
+      </c>
+      <c r="VE9" t="n">
+        <v>25615</v>
+      </c>
+      <c r="VF9" t="n">
+        <v>727</v>
+      </c>
+      <c r="VG9" t="n">
+        <v>4495</v>
+      </c>
+      <c r="VH9" t="inlineStr"/>
+      <c r="VI9" t="inlineStr">
+        <is>
+          <t>hashicorp/vagrant</t>
+        </is>
+      </c>
+      <c r="VJ9" t="n">
+        <v>25616</v>
+      </c>
+      <c r="VK9" t="n">
+        <v>727</v>
+      </c>
+      <c r="VL9" t="n">
+        <v>4495</v>
+      </c>
+      <c r="VM9" t="inlineStr"/>
+      <c r="VN9" t="inlineStr">
+        <is>
+          <t>hashicorp/vagrant</t>
+        </is>
+      </c>
+      <c r="VO9" t="n">
+        <v>25615</v>
+      </c>
+      <c r="VP9" t="n">
+        <v>727</v>
+      </c>
+      <c r="VQ9" t="n">
+        <v>4496</v>
+      </c>
+      <c r="VR9" t="inlineStr"/>
+      <c r="VS9" t="inlineStr">
+        <is>
+          <t>hashicorp/vagrant</t>
+        </is>
+      </c>
+      <c r="VT9" t="n">
+        <v>25619</v>
+      </c>
+      <c r="VU9" t="n">
+        <v>727</v>
+      </c>
+      <c r="VV9" t="n">
+        <v>4495</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -16808,6 +17678,96 @@
       <c r="UR10" t="n">
         <v>1896</v>
       </c>
+      <c r="US10" t="inlineStr"/>
+      <c r="UT10" t="inlineStr">
+        <is>
+          <t>hashicorp/boundary</t>
+        </is>
+      </c>
+      <c r="UU10" t="n">
+        <v>3735</v>
+      </c>
+      <c r="UV10" t="n">
+        <v>199</v>
+      </c>
+      <c r="UW10" t="n">
+        <v>274</v>
+      </c>
+      <c r="UX10" t="inlineStr"/>
+      <c r="UY10" t="inlineStr">
+        <is>
+          <t>hashicorp/boundary</t>
+        </is>
+      </c>
+      <c r="UZ10" t="n">
+        <v>3735</v>
+      </c>
+      <c r="VA10" t="n">
+        <v>199</v>
+      </c>
+      <c r="VB10" t="n">
+        <v>274</v>
+      </c>
+      <c r="VC10" t="inlineStr"/>
+      <c r="VD10" t="inlineStr">
+        <is>
+          <t>hashicorp/boundary</t>
+        </is>
+      </c>
+      <c r="VE10" t="n">
+        <v>3735</v>
+      </c>
+      <c r="VF10" t="n">
+        <v>199</v>
+      </c>
+      <c r="VG10" t="n">
+        <v>274</v>
+      </c>
+      <c r="VH10" t="inlineStr"/>
+      <c r="VI10" t="inlineStr">
+        <is>
+          <t>hashicorp/boundary</t>
+        </is>
+      </c>
+      <c r="VJ10" t="n">
+        <v>3736</v>
+      </c>
+      <c r="VK10" t="n">
+        <v>199</v>
+      </c>
+      <c r="VL10" t="n">
+        <v>274</v>
+      </c>
+      <c r="VM10" t="inlineStr"/>
+      <c r="VN10" t="inlineStr">
+        <is>
+          <t>hashicorp/boundary</t>
+        </is>
+      </c>
+      <c r="VO10" t="n">
+        <v>3736</v>
+      </c>
+      <c r="VP10" t="n">
+        <v>199</v>
+      </c>
+      <c r="VQ10" t="n">
+        <v>274</v>
+      </c>
+      <c r="VR10" t="inlineStr"/>
+      <c r="VS10" t="inlineStr">
+        <is>
+          <t>hashicorp/boundary</t>
+        </is>
+      </c>
+      <c r="VT10" t="n">
+        <v>3736</v>
+      </c>
+      <c r="VU10" t="n">
+        <v>199</v>
+      </c>
+      <c r="VV10" t="n">
+        <v>274</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -18314,6 +19274,96 @@
       <c r="UR11" t="n">
         <v>4493</v>
       </c>
+      <c r="US11" t="inlineStr"/>
+      <c r="UT11" t="inlineStr">
+        <is>
+          <t>hashicorp/packer</t>
+        </is>
+      </c>
+      <c r="UU11" t="n">
+        <v>14750</v>
+      </c>
+      <c r="UV11" t="n">
+        <v>479</v>
+      </c>
+      <c r="UW11" t="n">
+        <v>3373</v>
+      </c>
+      <c r="UX11" t="inlineStr"/>
+      <c r="UY11" t="inlineStr">
+        <is>
+          <t>hashicorp/packer</t>
+        </is>
+      </c>
+      <c r="UZ11" t="n">
+        <v>14755</v>
+      </c>
+      <c r="VA11" t="n">
+        <v>479</v>
+      </c>
+      <c r="VB11" t="n">
+        <v>3373</v>
+      </c>
+      <c r="VC11" t="inlineStr"/>
+      <c r="VD11" t="inlineStr">
+        <is>
+          <t>hashicorp/packer</t>
+        </is>
+      </c>
+      <c r="VE11" t="n">
+        <v>14757</v>
+      </c>
+      <c r="VF11" t="n">
+        <v>479</v>
+      </c>
+      <c r="VG11" t="n">
+        <v>3375</v>
+      </c>
+      <c r="VH11" t="inlineStr"/>
+      <c r="VI11" t="inlineStr">
+        <is>
+          <t>hashicorp/packer</t>
+        </is>
+      </c>
+      <c r="VJ11" t="n">
+        <v>14760</v>
+      </c>
+      <c r="VK11" t="n">
+        <v>479</v>
+      </c>
+      <c r="VL11" t="n">
+        <v>3376</v>
+      </c>
+      <c r="VM11" t="inlineStr"/>
+      <c r="VN11" t="inlineStr">
+        <is>
+          <t>hashicorp/packer</t>
+        </is>
+      </c>
+      <c r="VO11" t="n">
+        <v>14760</v>
+      </c>
+      <c r="VP11" t="n">
+        <v>479</v>
+      </c>
+      <c r="VQ11" t="n">
+        <v>3376</v>
+      </c>
+      <c r="VR11" t="inlineStr"/>
+      <c r="VS11" t="inlineStr">
+        <is>
+          <t>hashicorp/packer</t>
+        </is>
+      </c>
+      <c r="VT11" t="n">
+        <v>14762</v>
+      </c>
+      <c r="VU11" t="n">
+        <v>479</v>
+      </c>
+      <c r="VV11" t="n">
+        <v>3376</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -19820,6 +20870,96 @@
       <c r="UR12" t="n">
         <v>274</v>
       </c>
+      <c r="US12" t="inlineStr"/>
+      <c r="UT12" t="inlineStr">
+        <is>
+          <t>gitlabhq/gitlabhq</t>
+        </is>
+      </c>
+      <c r="UU12" t="n">
+        <v>23476</v>
+      </c>
+      <c r="UV12" t="n">
+        <v>975</v>
+      </c>
+      <c r="UW12" t="n">
+        <v>5782</v>
+      </c>
+      <c r="UX12" t="inlineStr"/>
+      <c r="UY12" t="inlineStr">
+        <is>
+          <t>gitlabhq/gitlabhq</t>
+        </is>
+      </c>
+      <c r="UZ12" t="n">
+        <v>23481</v>
+      </c>
+      <c r="VA12" t="n">
+        <v>975</v>
+      </c>
+      <c r="VB12" t="n">
+        <v>5780</v>
+      </c>
+      <c r="VC12" t="inlineStr"/>
+      <c r="VD12" t="inlineStr">
+        <is>
+          <t>gitlabhq/gitlabhq</t>
+        </is>
+      </c>
+      <c r="VE12" t="n">
+        <v>23482</v>
+      </c>
+      <c r="VF12" t="n">
+        <v>975</v>
+      </c>
+      <c r="VG12" t="n">
+        <v>5780</v>
+      </c>
+      <c r="VH12" t="inlineStr"/>
+      <c r="VI12" t="inlineStr">
+        <is>
+          <t>gitlabhq/gitlabhq</t>
+        </is>
+      </c>
+      <c r="VJ12" t="n">
+        <v>23483</v>
+      </c>
+      <c r="VK12" t="n">
+        <v>975</v>
+      </c>
+      <c r="VL12" t="n">
+        <v>5779</v>
+      </c>
+      <c r="VM12" t="inlineStr"/>
+      <c r="VN12" t="inlineStr">
+        <is>
+          <t>gitlabhq/gitlabhq</t>
+        </is>
+      </c>
+      <c r="VO12" t="n">
+        <v>23486</v>
+      </c>
+      <c r="VP12" t="n">
+        <v>975</v>
+      </c>
+      <c r="VQ12" t="n">
+        <v>5780</v>
+      </c>
+      <c r="VR12" t="inlineStr"/>
+      <c r="VS12" t="inlineStr">
+        <is>
+          <t>gitlabhq/gitlabhq</t>
+        </is>
+      </c>
+      <c r="VT12" t="n">
+        <v>23489</v>
+      </c>
+      <c r="VU12" t="n">
+        <v>975</v>
+      </c>
+      <c r="VV12" t="n">
+        <v>5779</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -21326,6 +22466,96 @@
       <c r="UR13" t="n">
         <v>3372</v>
       </c>
+      <c r="US13" t="inlineStr"/>
+      <c r="UT13" t="inlineStr">
+        <is>
+          <t>apache/kafka</t>
+        </is>
+      </c>
+      <c r="UU13" t="n">
+        <v>26627</v>
+      </c>
+      <c r="UV13" t="n">
+        <v>1074</v>
+      </c>
+      <c r="UW13" t="n">
+        <v>13383</v>
+      </c>
+      <c r="UX13" t="inlineStr"/>
+      <c r="UY13" t="inlineStr">
+        <is>
+          <t>apache/kafka</t>
+        </is>
+      </c>
+      <c r="UZ13" t="n">
+        <v>26633</v>
+      </c>
+      <c r="VA13" t="n">
+        <v>1072</v>
+      </c>
+      <c r="VB13" t="n">
+        <v>13387</v>
+      </c>
+      <c r="VC13" t="inlineStr"/>
+      <c r="VD13" t="inlineStr">
+        <is>
+          <t>apache/kafka</t>
+        </is>
+      </c>
+      <c r="VE13" t="n">
+        <v>26640</v>
+      </c>
+      <c r="VF13" t="n">
+        <v>1072</v>
+      </c>
+      <c r="VG13" t="n">
+        <v>13389</v>
+      </c>
+      <c r="VH13" t="inlineStr"/>
+      <c r="VI13" t="inlineStr">
+        <is>
+          <t>apache/kafka</t>
+        </is>
+      </c>
+      <c r="VJ13" t="n">
+        <v>26647</v>
+      </c>
+      <c r="VK13" t="n">
+        <v>1073</v>
+      </c>
+      <c r="VL13" t="n">
+        <v>13394</v>
+      </c>
+      <c r="VM13" t="inlineStr"/>
+      <c r="VN13" t="inlineStr">
+        <is>
+          <t>apache/kafka</t>
+        </is>
+      </c>
+      <c r="VO13" t="n">
+        <v>26652</v>
+      </c>
+      <c r="VP13" t="n">
+        <v>1073</v>
+      </c>
+      <c r="VQ13" t="n">
+        <v>13398</v>
+      </c>
+      <c r="VR13" t="inlineStr"/>
+      <c r="VS13" t="inlineStr">
+        <is>
+          <t>apache/kafka</t>
+        </is>
+      </c>
+      <c r="VT13" t="n">
+        <v>26659</v>
+      </c>
+      <c r="VU13" t="n">
+        <v>1073</v>
+      </c>
+      <c r="VV13" t="n">
+        <v>13402</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -22832,6 +24062,96 @@
       <c r="UR14" t="n">
         <v>5784</v>
       </c>
+      <c r="US14" t="inlineStr"/>
+      <c r="UT14" t="inlineStr">
+        <is>
+          <t>apache/flink</t>
+        </is>
+      </c>
+      <c r="UU14" t="n">
+        <v>22706</v>
+      </c>
+      <c r="UV14" t="n">
+        <v>945</v>
+      </c>
+      <c r="UW14" t="n">
+        <v>13039</v>
+      </c>
+      <c r="UX14" t="inlineStr"/>
+      <c r="UY14" t="inlineStr">
+        <is>
+          <t>apache/flink</t>
+        </is>
+      </c>
+      <c r="UZ14" t="n">
+        <v>22710</v>
+      </c>
+      <c r="VA14" t="n">
+        <v>945</v>
+      </c>
+      <c r="VB14" t="n">
+        <v>13042</v>
+      </c>
+      <c r="VC14" t="inlineStr"/>
+      <c r="VD14" t="inlineStr">
+        <is>
+          <t>apache/flink</t>
+        </is>
+      </c>
+      <c r="VE14" t="n">
+        <v>22719</v>
+      </c>
+      <c r="VF14" t="n">
+        <v>945</v>
+      </c>
+      <c r="VG14" t="n">
+        <v>13049</v>
+      </c>
+      <c r="VH14" t="inlineStr"/>
+      <c r="VI14" t="inlineStr">
+        <is>
+          <t>apache/flink</t>
+        </is>
+      </c>
+      <c r="VJ14" t="n">
+        <v>22717</v>
+      </c>
+      <c r="VK14" t="n">
+        <v>945</v>
+      </c>
+      <c r="VL14" t="n">
+        <v>13056</v>
+      </c>
+      <c r="VM14" t="inlineStr"/>
+      <c r="VN14" t="inlineStr">
+        <is>
+          <t>apache/flink</t>
+        </is>
+      </c>
+      <c r="VO14" t="n">
+        <v>22718</v>
+      </c>
+      <c r="VP14" t="n">
+        <v>945</v>
+      </c>
+      <c r="VQ14" t="n">
+        <v>13055</v>
+      </c>
+      <c r="VR14" t="inlineStr"/>
+      <c r="VS14" t="inlineStr">
+        <is>
+          <t>apache/flink</t>
+        </is>
+      </c>
+      <c r="VT14" t="n">
+        <v>22720</v>
+      </c>
+      <c r="VU14" t="n">
+        <v>945</v>
+      </c>
+      <c r="VV14" t="n">
+        <v>13057</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -24338,6 +25658,96 @@
       <c r="UR15" t="n">
         <v>13369</v>
       </c>
+      <c r="US15" t="inlineStr"/>
+      <c r="UT15" t="inlineStr">
+        <is>
+          <t>apache/spark</t>
+        </is>
+      </c>
+      <c r="UU15" t="n">
+        <v>37603</v>
+      </c>
+      <c r="UV15" t="n">
+        <v>2033</v>
+      </c>
+      <c r="UW15" t="n">
+        <v>28148</v>
+      </c>
+      <c r="UX15" t="inlineStr"/>
+      <c r="UY15" t="inlineStr">
+        <is>
+          <t>apache/spark</t>
+        </is>
+      </c>
+      <c r="UZ15" t="n">
+        <v>37605</v>
+      </c>
+      <c r="VA15" t="n">
+        <v>2032</v>
+      </c>
+      <c r="VB15" t="n">
+        <v>28153</v>
+      </c>
+      <c r="VC15" t="inlineStr"/>
+      <c r="VD15" t="inlineStr">
+        <is>
+          <t>apache/spark</t>
+        </is>
+      </c>
+      <c r="VE15" t="n">
+        <v>37618</v>
+      </c>
+      <c r="VF15" t="n">
+        <v>2032</v>
+      </c>
+      <c r="VG15" t="n">
+        <v>28161</v>
+      </c>
+      <c r="VH15" t="inlineStr"/>
+      <c r="VI15" t="inlineStr">
+        <is>
+          <t>apache/spark</t>
+        </is>
+      </c>
+      <c r="VJ15" t="n">
+        <v>37625</v>
+      </c>
+      <c r="VK15" t="n">
+        <v>2032</v>
+      </c>
+      <c r="VL15" t="n">
+        <v>28174</v>
+      </c>
+      <c r="VM15" t="inlineStr"/>
+      <c r="VN15" t="inlineStr">
+        <is>
+          <t>apache/spark</t>
+        </is>
+      </c>
+      <c r="VO15" t="n">
+        <v>37630</v>
+      </c>
+      <c r="VP15" t="n">
+        <v>2032</v>
+      </c>
+      <c r="VQ15" t="n">
+        <v>28174</v>
+      </c>
+      <c r="VR15" t="inlineStr"/>
+      <c r="VS15" t="inlineStr">
+        <is>
+          <t>apache/spark</t>
+        </is>
+      </c>
+      <c r="VT15" t="n">
+        <v>37635</v>
+      </c>
+      <c r="VU15" t="n">
+        <v>2033</v>
+      </c>
+      <c r="VV15" t="n">
+        <v>28174</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -25844,6 +27254,96 @@
       <c r="UR16" t="n">
         <v>13014</v>
       </c>
+      <c r="US16" t="inlineStr"/>
+      <c r="UT16" t="inlineStr">
+        <is>
+          <t>atlassian-api/atlassian-python-api</t>
+        </is>
+      </c>
+      <c r="UU16" t="n">
+        <v>1197</v>
+      </c>
+      <c r="UV16" t="n">
+        <v>40</v>
+      </c>
+      <c r="UW16" t="n">
+        <v>649</v>
+      </c>
+      <c r="UX16" t="inlineStr"/>
+      <c r="UY16" t="inlineStr">
+        <is>
+          <t>atlassian-api/atlassian-python-api</t>
+        </is>
+      </c>
+      <c r="UZ16" t="n">
+        <v>1198</v>
+      </c>
+      <c r="VA16" t="n">
+        <v>40</v>
+      </c>
+      <c r="VB16" t="n">
+        <v>651</v>
+      </c>
+      <c r="VC16" t="inlineStr"/>
+      <c r="VD16" t="inlineStr">
+        <is>
+          <t>atlassian-api/atlassian-python-api</t>
+        </is>
+      </c>
+      <c r="VE16" t="n">
+        <v>1198</v>
+      </c>
+      <c r="VF16" t="n">
+        <v>40</v>
+      </c>
+      <c r="VG16" t="n">
+        <v>652</v>
+      </c>
+      <c r="VH16" t="inlineStr"/>
+      <c r="VI16" t="inlineStr">
+        <is>
+          <t>atlassian-api/atlassian-python-api</t>
+        </is>
+      </c>
+      <c r="VJ16" t="n">
+        <v>1199</v>
+      </c>
+      <c r="VK16" t="n">
+        <v>40</v>
+      </c>
+      <c r="VL16" t="n">
+        <v>653</v>
+      </c>
+      <c r="VM16" t="inlineStr"/>
+      <c r="VN16" t="inlineStr">
+        <is>
+          <t>atlassian-api/atlassian-python-api</t>
+        </is>
+      </c>
+      <c r="VO16" t="n">
+        <v>1200</v>
+      </c>
+      <c r="VP16" t="n">
+        <v>40</v>
+      </c>
+      <c r="VQ16" t="n">
+        <v>653</v>
+      </c>
+      <c r="VR16" t="inlineStr"/>
+      <c r="VS16" t="inlineStr">
+        <is>
+          <t>atlassian-api/atlassian-python-api</t>
+        </is>
+      </c>
+      <c r="VT16" t="n">
+        <v>1200</v>
+      </c>
+      <c r="VU16" t="n">
+        <v>40</v>
+      </c>
+      <c r="VV16" t="n">
+        <v>653</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -27350,6 +28850,96 @@
       <c r="UR17" t="n">
         <v>28116</v>
       </c>
+      <c r="US17" t="inlineStr"/>
+      <c r="UT17" t="inlineStr">
+        <is>
+          <t>dynatrace/dynatrace-operator</t>
+        </is>
+      </c>
+      <c r="UU17" t="n">
+        <v>144</v>
+      </c>
+      <c r="UV17" t="n">
+        <v>12</v>
+      </c>
+      <c r="UW17" t="n">
+        <v>136</v>
+      </c>
+      <c r="UX17" t="inlineStr"/>
+      <c r="UY17" t="inlineStr">
+        <is>
+          <t>dynatrace/dynatrace-operator</t>
+        </is>
+      </c>
+      <c r="UZ17" t="n">
+        <v>144</v>
+      </c>
+      <c r="VA17" t="n">
+        <v>12</v>
+      </c>
+      <c r="VB17" t="n">
+        <v>135</v>
+      </c>
+      <c r="VC17" t="inlineStr"/>
+      <c r="VD17" t="inlineStr">
+        <is>
+          <t>dynatrace/dynatrace-operator</t>
+        </is>
+      </c>
+      <c r="VE17" t="n">
+        <v>144</v>
+      </c>
+      <c r="VF17" t="n">
+        <v>12</v>
+      </c>
+      <c r="VG17" t="n">
+        <v>135</v>
+      </c>
+      <c r="VH17" t="inlineStr"/>
+      <c r="VI17" t="inlineStr">
+        <is>
+          <t>dynatrace/dynatrace-operator</t>
+        </is>
+      </c>
+      <c r="VJ17" t="n">
+        <v>144</v>
+      </c>
+      <c r="VK17" t="n">
+        <v>12</v>
+      </c>
+      <c r="VL17" t="n">
+        <v>135</v>
+      </c>
+      <c r="VM17" t="inlineStr"/>
+      <c r="VN17" t="inlineStr">
+        <is>
+          <t>dynatrace/dynatrace-operator</t>
+        </is>
+      </c>
+      <c r="VO17" t="n">
+        <v>144</v>
+      </c>
+      <c r="VP17" t="n">
+        <v>12</v>
+      </c>
+      <c r="VQ17" t="n">
+        <v>135</v>
+      </c>
+      <c r="VR17" t="inlineStr"/>
+      <c r="VS17" t="inlineStr">
+        <is>
+          <t>dynatrace/dynatrace-operator</t>
+        </is>
+      </c>
+      <c r="VT17" t="n">
+        <v>144</v>
+      </c>
+      <c r="VU17" t="n">
+        <v>12</v>
+      </c>
+      <c r="VV17" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -28856,6 +30446,96 @@
       <c r="UR18" t="n">
         <v>645</v>
       </c>
+      <c r="US18" t="inlineStr"/>
+      <c r="UT18" t="inlineStr">
+        <is>
+          <t>couchbase/couchbase-lite-ios</t>
+        </is>
+      </c>
+      <c r="UU18" t="n">
+        <v>1607</v>
+      </c>
+      <c r="UV18" t="n">
+        <v>85</v>
+      </c>
+      <c r="UW18" t="n">
+        <v>304</v>
+      </c>
+      <c r="UX18" t="inlineStr"/>
+      <c r="UY18" t="inlineStr">
+        <is>
+          <t>couchbase/couchbase-lite-ios</t>
+        </is>
+      </c>
+      <c r="UZ18" t="n">
+        <v>1607</v>
+      </c>
+      <c r="VA18" t="n">
+        <v>85</v>
+      </c>
+      <c r="VB18" t="n">
+        <v>304</v>
+      </c>
+      <c r="VC18" t="inlineStr"/>
+      <c r="VD18" t="inlineStr">
+        <is>
+          <t>couchbase/couchbase-lite-ios</t>
+        </is>
+      </c>
+      <c r="VE18" t="n">
+        <v>1607</v>
+      </c>
+      <c r="VF18" t="n">
+        <v>85</v>
+      </c>
+      <c r="VG18" t="n">
+        <v>304</v>
+      </c>
+      <c r="VH18" t="inlineStr"/>
+      <c r="VI18" t="inlineStr">
+        <is>
+          <t>couchbase/couchbase-lite-ios</t>
+        </is>
+      </c>
+      <c r="VJ18" t="n">
+        <v>1607</v>
+      </c>
+      <c r="VK18" t="n">
+        <v>85</v>
+      </c>
+      <c r="VL18" t="n">
+        <v>304</v>
+      </c>
+      <c r="VM18" t="inlineStr"/>
+      <c r="VN18" t="inlineStr">
+        <is>
+          <t>couchbase/couchbase-lite-ios</t>
+        </is>
+      </c>
+      <c r="VO18" t="n">
+        <v>1607</v>
+      </c>
+      <c r="VP18" t="n">
+        <v>85</v>
+      </c>
+      <c r="VQ18" t="n">
+        <v>304</v>
+      </c>
+      <c r="VR18" t="inlineStr"/>
+      <c r="VS18" t="inlineStr">
+        <is>
+          <t>couchbase/couchbase-lite-ios</t>
+        </is>
+      </c>
+      <c r="VT18" t="n">
+        <v>1607</v>
+      </c>
+      <c r="VU18" t="n">
+        <v>85</v>
+      </c>
+      <c r="VV18" t="n">
+        <v>304</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -30362,6 +32042,96 @@
       <c r="UR19" t="n">
         <v>136</v>
       </c>
+      <c r="US19" t="inlineStr"/>
+      <c r="UT19" t="inlineStr">
+        <is>
+          <t>DataDog/datadog-agent</t>
+        </is>
+      </c>
+      <c r="UU19" t="n">
+        <v>2447</v>
+      </c>
+      <c r="UV19" t="n">
+        <v>487</v>
+      </c>
+      <c r="UW19" t="n">
+        <v>1133</v>
+      </c>
+      <c r="UX19" t="inlineStr"/>
+      <c r="UY19" t="inlineStr">
+        <is>
+          <t>DataDog/datadog-agent</t>
+        </is>
+      </c>
+      <c r="UZ19" t="n">
+        <v>2448</v>
+      </c>
+      <c r="VA19" t="n">
+        <v>486</v>
+      </c>
+      <c r="VB19" t="n">
+        <v>1133</v>
+      </c>
+      <c r="VC19" t="inlineStr"/>
+      <c r="VD19" t="inlineStr">
+        <is>
+          <t>DataDog/datadog-agent</t>
+        </is>
+      </c>
+      <c r="VE19" t="n">
+        <v>2448</v>
+      </c>
+      <c r="VF19" t="n">
+        <v>486</v>
+      </c>
+      <c r="VG19" t="n">
+        <v>1131</v>
+      </c>
+      <c r="VH19" t="inlineStr"/>
+      <c r="VI19" t="inlineStr">
+        <is>
+          <t>DataDog/datadog-agent</t>
+        </is>
+      </c>
+      <c r="VJ19" t="n">
+        <v>2449</v>
+      </c>
+      <c r="VK19" t="n">
+        <v>486</v>
+      </c>
+      <c r="VL19" t="n">
+        <v>1131</v>
+      </c>
+      <c r="VM19" t="inlineStr"/>
+      <c r="VN19" t="inlineStr">
+        <is>
+          <t>DataDog/datadog-agent</t>
+        </is>
+      </c>
+      <c r="VO19" t="n">
+        <v>2450</v>
+      </c>
+      <c r="VP19" t="n">
+        <v>486</v>
+      </c>
+      <c r="VQ19" t="n">
+        <v>1131</v>
+      </c>
+      <c r="VR19" t="inlineStr"/>
+      <c r="VS19" t="inlineStr">
+        <is>
+          <t>DataDog/datadog-agent</t>
+        </is>
+      </c>
+      <c r="VT19" t="n">
+        <v>2451</v>
+      </c>
+      <c r="VU19" t="n">
+        <v>486</v>
+      </c>
+      <c r="VV19" t="n">
+        <v>1132</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -31868,6 +33638,96 @@
       <c r="UR20" t="n">
         <v>304</v>
       </c>
+      <c r="US20" t="inlineStr"/>
+      <c r="UT20" t="inlineStr">
+        <is>
+          <t>DataDog/dd-agent</t>
+        </is>
+      </c>
+      <c r="UU20" t="n">
+        <v>1297</v>
+      </c>
+      <c r="UV20" t="n">
+        <v>393</v>
+      </c>
+      <c r="UW20" t="n">
+        <v>853</v>
+      </c>
+      <c r="UX20" t="inlineStr"/>
+      <c r="UY20" t="inlineStr">
+        <is>
+          <t>DataDog/dd-agent</t>
+        </is>
+      </c>
+      <c r="UZ20" t="n">
+        <v>1298</v>
+      </c>
+      <c r="VA20" t="n">
+        <v>393</v>
+      </c>
+      <c r="VB20" t="n">
+        <v>853</v>
+      </c>
+      <c r="VC20" t="inlineStr"/>
+      <c r="VD20" t="inlineStr">
+        <is>
+          <t>DataDog/dd-agent</t>
+        </is>
+      </c>
+      <c r="VE20" t="n">
+        <v>1298</v>
+      </c>
+      <c r="VF20" t="n">
+        <v>393</v>
+      </c>
+      <c r="VG20" t="n">
+        <v>853</v>
+      </c>
+      <c r="VH20" t="inlineStr"/>
+      <c r="VI20" t="inlineStr">
+        <is>
+          <t>DataDog/dd-agent</t>
+        </is>
+      </c>
+      <c r="VJ20" t="n">
+        <v>1298</v>
+      </c>
+      <c r="VK20" t="n">
+        <v>393</v>
+      </c>
+      <c r="VL20" t="n">
+        <v>853</v>
+      </c>
+      <c r="VM20" t="inlineStr"/>
+      <c r="VN20" t="inlineStr">
+        <is>
+          <t>DataDog/dd-agent</t>
+        </is>
+      </c>
+      <c r="VO20" t="n">
+        <v>1298</v>
+      </c>
+      <c r="VP20" t="n">
+        <v>393</v>
+      </c>
+      <c r="VQ20" t="n">
+        <v>853</v>
+      </c>
+      <c r="VR20" t="inlineStr"/>
+      <c r="VS20" t="inlineStr">
+        <is>
+          <t>DataDog/dd-agent</t>
+        </is>
+      </c>
+      <c r="VT20" t="n">
+        <v>1298</v>
+      </c>
+      <c r="VU20" t="n">
+        <v>393</v>
+      </c>
+      <c r="VV20" t="n">
+        <v>853</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -33374,6 +35234,96 @@
       <c r="UR21" t="n">
         <v>1132</v>
       </c>
+      <c r="US21" t="inlineStr"/>
+      <c r="UT21" t="inlineStr">
+        <is>
+          <t>DataDog/datadogpy</t>
+        </is>
+      </c>
+      <c r="UU21" t="n">
+        <v>586</v>
+      </c>
+      <c r="UV21" t="n">
+        <v>514</v>
+      </c>
+      <c r="UW21" t="n">
+        <v>339</v>
+      </c>
+      <c r="UX21" t="inlineStr"/>
+      <c r="UY21" t="inlineStr">
+        <is>
+          <t>DataDog/datadogpy</t>
+        </is>
+      </c>
+      <c r="UZ21" t="n">
+        <v>586</v>
+      </c>
+      <c r="VA21" t="n">
+        <v>514</v>
+      </c>
+      <c r="VB21" t="n">
+        <v>339</v>
+      </c>
+      <c r="VC21" t="inlineStr"/>
+      <c r="VD21" t="inlineStr">
+        <is>
+          <t>DataDog/datadogpy</t>
+        </is>
+      </c>
+      <c r="VE21" t="n">
+        <v>586</v>
+      </c>
+      <c r="VF21" t="n">
+        <v>514</v>
+      </c>
+      <c r="VG21" t="n">
+        <v>339</v>
+      </c>
+      <c r="VH21" t="inlineStr"/>
+      <c r="VI21" t="inlineStr">
+        <is>
+          <t>DataDog/datadogpy</t>
+        </is>
+      </c>
+      <c r="VJ21" t="n">
+        <v>586</v>
+      </c>
+      <c r="VK21" t="n">
+        <v>514</v>
+      </c>
+      <c r="VL21" t="n">
+        <v>339</v>
+      </c>
+      <c r="VM21" t="inlineStr"/>
+      <c r="VN21" t="inlineStr">
+        <is>
+          <t>DataDog/datadogpy</t>
+        </is>
+      </c>
+      <c r="VO21" t="n">
+        <v>585</v>
+      </c>
+      <c r="VP21" t="n">
+        <v>514</v>
+      </c>
+      <c r="VQ21" t="n">
+        <v>340</v>
+      </c>
+      <c r="VR21" t="inlineStr"/>
+      <c r="VS21" t="inlineStr">
+        <is>
+          <t>DataDog/datadogpy</t>
+        </is>
+      </c>
+      <c r="VT21" t="n">
+        <v>587</v>
+      </c>
+      <c r="VU21" t="n">
+        <v>514</v>
+      </c>
+      <c r="VV21" t="n">
+        <v>340</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -34880,6 +36830,96 @@
       <c r="UR22" t="n">
         <v>853</v>
       </c>
+      <c r="US22" t="inlineStr"/>
+      <c r="UT22" t="inlineStr">
+        <is>
+          <t>HubSpot/odometer</t>
+        </is>
+      </c>
+      <c r="UU22" t="n">
+        <v>7260</v>
+      </c>
+      <c r="UV22" t="n">
+        <v>286</v>
+      </c>
+      <c r="UW22" t="n">
+        <v>736</v>
+      </c>
+      <c r="UX22" t="inlineStr"/>
+      <c r="UY22" t="inlineStr">
+        <is>
+          <t>HubSpot/odometer</t>
+        </is>
+      </c>
+      <c r="UZ22" t="n">
+        <v>7261</v>
+      </c>
+      <c r="VA22" t="n">
+        <v>287</v>
+      </c>
+      <c r="VB22" t="n">
+        <v>736</v>
+      </c>
+      <c r="VC22" t="inlineStr"/>
+      <c r="VD22" t="inlineStr">
+        <is>
+          <t>HubSpot/odometer</t>
+        </is>
+      </c>
+      <c r="VE22" t="n">
+        <v>7261</v>
+      </c>
+      <c r="VF22" t="n">
+        <v>287</v>
+      </c>
+      <c r="VG22" t="n">
+        <v>736</v>
+      </c>
+      <c r="VH22" t="inlineStr"/>
+      <c r="VI22" t="inlineStr">
+        <is>
+          <t>HubSpot/odometer</t>
+        </is>
+      </c>
+      <c r="VJ22" t="n">
+        <v>7261</v>
+      </c>
+      <c r="VK22" t="n">
+        <v>286</v>
+      </c>
+      <c r="VL22" t="n">
+        <v>736</v>
+      </c>
+      <c r="VM22" t="inlineStr"/>
+      <c r="VN22" t="inlineStr">
+        <is>
+          <t>HubSpot/odometer</t>
+        </is>
+      </c>
+      <c r="VO22" t="n">
+        <v>7261</v>
+      </c>
+      <c r="VP22" t="n">
+        <v>286</v>
+      </c>
+      <c r="VQ22" t="n">
+        <v>736</v>
+      </c>
+      <c r="VR22" t="inlineStr"/>
+      <c r="VS22" t="inlineStr">
+        <is>
+          <t>HubSpot/odometer</t>
+        </is>
+      </c>
+      <c r="VT22" t="n">
+        <v>7261</v>
+      </c>
+      <c r="VU22" t="n">
+        <v>286</v>
+      </c>
+      <c r="VV22" t="n">
+        <v>736</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -36386,6 +38426,96 @@
       <c r="UR23" t="n">
         <v>337</v>
       </c>
+      <c r="US23" t="inlineStr"/>
+      <c r="UT23" t="inlineStr">
+        <is>
+          <t>MicroStrategy/mstrio-py</t>
+        </is>
+      </c>
+      <c r="UU23" t="n">
+        <v>87</v>
+      </c>
+      <c r="UV23" t="n">
+        <v>25</v>
+      </c>
+      <c r="UW23" t="n">
+        <v>56</v>
+      </c>
+      <c r="UX23" t="inlineStr"/>
+      <c r="UY23" t="inlineStr">
+        <is>
+          <t>MicroStrategy/mstrio-py</t>
+        </is>
+      </c>
+      <c r="UZ23" t="n">
+        <v>87</v>
+      </c>
+      <c r="VA23" t="n">
+        <v>25</v>
+      </c>
+      <c r="VB23" t="n">
+        <v>56</v>
+      </c>
+      <c r="VC23" t="inlineStr"/>
+      <c r="VD23" t="inlineStr">
+        <is>
+          <t>MicroStrategy/mstrio-py</t>
+        </is>
+      </c>
+      <c r="VE23" t="n">
+        <v>87</v>
+      </c>
+      <c r="VF23" t="n">
+        <v>25</v>
+      </c>
+      <c r="VG23" t="n">
+        <v>56</v>
+      </c>
+      <c r="VH23" t="inlineStr"/>
+      <c r="VI23" t="inlineStr">
+        <is>
+          <t>MicroStrategy/mstrio-py</t>
+        </is>
+      </c>
+      <c r="VJ23" t="n">
+        <v>87</v>
+      </c>
+      <c r="VK23" t="n">
+        <v>25</v>
+      </c>
+      <c r="VL23" t="n">
+        <v>56</v>
+      </c>
+      <c r="VM23" t="inlineStr"/>
+      <c r="VN23" t="inlineStr">
+        <is>
+          <t>MicroStrategy/mstrio-py</t>
+        </is>
+      </c>
+      <c r="VO23" t="n">
+        <v>87</v>
+      </c>
+      <c r="VP23" t="n">
+        <v>25</v>
+      </c>
+      <c r="VQ23" t="n">
+        <v>56</v>
+      </c>
+      <c r="VR23" t="inlineStr"/>
+      <c r="VS23" t="inlineStr">
+        <is>
+          <t>MicroStrategy/mstrio-py</t>
+        </is>
+      </c>
+      <c r="VT23" t="n">
+        <v>87</v>
+      </c>
+      <c r="VU23" t="n">
+        <v>25</v>
+      </c>
+      <c r="VV23" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -37892,6 +40022,96 @@
       <c r="UR24" t="n">
         <v>737</v>
       </c>
+      <c r="US24" t="inlineStr"/>
+      <c r="UT24" t="inlineStr">
+        <is>
+          <t>twilio/twilio-python</t>
+        </is>
+      </c>
+      <c r="UU24" t="n">
+        <v>1750</v>
+      </c>
+      <c r="UV24" t="n">
+        <v>126</v>
+      </c>
+      <c r="UW24" t="n">
+        <v>747</v>
+      </c>
+      <c r="UX24" t="inlineStr"/>
+      <c r="UY24" t="inlineStr">
+        <is>
+          <t>twilio/twilio-python</t>
+        </is>
+      </c>
+      <c r="UZ24" t="n">
+        <v>1750</v>
+      </c>
+      <c r="VA24" t="n">
+        <v>126</v>
+      </c>
+      <c r="VB24" t="n">
+        <v>748</v>
+      </c>
+      <c r="VC24" t="inlineStr"/>
+      <c r="VD24" t="inlineStr">
+        <is>
+          <t>twilio/twilio-python</t>
+        </is>
+      </c>
+      <c r="VE24" t="n">
+        <v>1750</v>
+      </c>
+      <c r="VF24" t="n">
+        <v>126</v>
+      </c>
+      <c r="VG24" t="n">
+        <v>749</v>
+      </c>
+      <c r="VH24" t="inlineStr"/>
+      <c r="VI24" t="inlineStr">
+        <is>
+          <t>twilio/twilio-python</t>
+        </is>
+      </c>
+      <c r="VJ24" t="n">
+        <v>1750</v>
+      </c>
+      <c r="VK24" t="n">
+        <v>126</v>
+      </c>
+      <c r="VL24" t="n">
+        <v>749</v>
+      </c>
+      <c r="VM24" t="inlineStr"/>
+      <c r="VN24" t="inlineStr">
+        <is>
+          <t>twilio/twilio-python</t>
+        </is>
+      </c>
+      <c r="VO24" t="n">
+        <v>1750</v>
+      </c>
+      <c r="VP24" t="n">
+        <v>126</v>
+      </c>
+      <c r="VQ24" t="n">
+        <v>749</v>
+      </c>
+      <c r="VR24" t="inlineStr"/>
+      <c r="VS24" t="inlineStr">
+        <is>
+          <t>twilio/twilio-python</t>
+        </is>
+      </c>
+      <c r="VT24" t="n">
+        <v>1752</v>
+      </c>
+      <c r="VU24" t="n">
+        <v>126</v>
+      </c>
+      <c r="VV24" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -39398,6 +41618,96 @@
       <c r="UR25" t="n">
         <v>56</v>
       </c>
+      <c r="US25" t="inlineStr"/>
+      <c r="UT25" t="inlineStr">
+        <is>
+          <t>twilio/twilio-php</t>
+        </is>
+      </c>
+      <c r="UU25" t="n">
+        <v>1467</v>
+      </c>
+      <c r="UV25" t="n">
+        <v>128</v>
+      </c>
+      <c r="UW25" t="n">
+        <v>608</v>
+      </c>
+      <c r="UX25" t="inlineStr"/>
+      <c r="UY25" t="inlineStr">
+        <is>
+          <t>twilio/twilio-php</t>
+        </is>
+      </c>
+      <c r="UZ25" t="n">
+        <v>1467</v>
+      </c>
+      <c r="VA25" t="n">
+        <v>128</v>
+      </c>
+      <c r="VB25" t="n">
+        <v>608</v>
+      </c>
+      <c r="VC25" t="inlineStr"/>
+      <c r="VD25" t="inlineStr">
+        <is>
+          <t>twilio/twilio-php</t>
+        </is>
+      </c>
+      <c r="VE25" t="n">
+        <v>1467</v>
+      </c>
+      <c r="VF25" t="n">
+        <v>128</v>
+      </c>
+      <c r="VG25" t="n">
+        <v>608</v>
+      </c>
+      <c r="VH25" t="inlineStr"/>
+      <c r="VI25" t="inlineStr">
+        <is>
+          <t>twilio/twilio-php</t>
+        </is>
+      </c>
+      <c r="VJ25" t="n">
+        <v>1468</v>
+      </c>
+      <c r="VK25" t="n">
+        <v>128</v>
+      </c>
+      <c r="VL25" t="n">
+        <v>609</v>
+      </c>
+      <c r="VM25" t="inlineStr"/>
+      <c r="VN25" t="inlineStr">
+        <is>
+          <t>twilio/twilio-php</t>
+        </is>
+      </c>
+      <c r="VO25" t="n">
+        <v>1468</v>
+      </c>
+      <c r="VP25" t="n">
+        <v>128</v>
+      </c>
+      <c r="VQ25" t="n">
+        <v>609</v>
+      </c>
+      <c r="VR25" t="inlineStr"/>
+      <c r="VS25" t="inlineStr">
+        <is>
+          <t>twilio/twilio-php</t>
+        </is>
+      </c>
+      <c r="VT25" t="n">
+        <v>1468</v>
+      </c>
+      <c r="VU25" t="n">
+        <v>128</v>
+      </c>
+      <c r="VV25" t="n">
+        <v>609</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -40904,6 +43214,96 @@
       <c r="UR26" t="n">
         <v>745</v>
       </c>
+      <c r="US26" t="inlineStr"/>
+      <c r="UT26" t="inlineStr">
+        <is>
+          <t>ropensci/qualtRics</t>
+        </is>
+      </c>
+      <c r="UU26" t="n">
+        <v>207</v>
+      </c>
+      <c r="UV26" t="n">
+        <v>19</v>
+      </c>
+      <c r="UW26" t="n">
+        <v>68</v>
+      </c>
+      <c r="UX26" t="inlineStr"/>
+      <c r="UY26" t="inlineStr">
+        <is>
+          <t>ropensci/qualtRics</t>
+        </is>
+      </c>
+      <c r="UZ26" t="n">
+        <v>207</v>
+      </c>
+      <c r="VA26" t="n">
+        <v>19</v>
+      </c>
+      <c r="VB26" t="n">
+        <v>69</v>
+      </c>
+      <c r="VC26" t="inlineStr"/>
+      <c r="VD26" t="inlineStr">
+        <is>
+          <t>ropensci/qualtRics</t>
+        </is>
+      </c>
+      <c r="VE26" t="n">
+        <v>207</v>
+      </c>
+      <c r="VF26" t="n">
+        <v>19</v>
+      </c>
+      <c r="VG26" t="n">
+        <v>69</v>
+      </c>
+      <c r="VH26" t="inlineStr"/>
+      <c r="VI26" t="inlineStr">
+        <is>
+          <t>ropensci/qualtRics</t>
+        </is>
+      </c>
+      <c r="VJ26" t="n">
+        <v>207</v>
+      </c>
+      <c r="VK26" t="n">
+        <v>19</v>
+      </c>
+      <c r="VL26" t="n">
+        <v>69</v>
+      </c>
+      <c r="VM26" t="inlineStr"/>
+      <c r="VN26" t="inlineStr">
+        <is>
+          <t>ropensci/qualtRics</t>
+        </is>
+      </c>
+      <c r="VO26" t="n">
+        <v>207</v>
+      </c>
+      <c r="VP26" t="n">
+        <v>19</v>
+      </c>
+      <c r="VQ26" t="n">
+        <v>69</v>
+      </c>
+      <c r="VR26" t="inlineStr"/>
+      <c r="VS26" t="inlineStr">
+        <is>
+          <t>ropensci/qualtRics</t>
+        </is>
+      </c>
+      <c r="VT26" t="n">
+        <v>207</v>
+      </c>
+      <c r="VU26" t="n">
+        <v>19</v>
+      </c>
+      <c r="VV26" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -42410,6 +44810,96 @@
       <c r="UR27" t="n">
         <v>607</v>
       </c>
+      <c r="US27" t="inlineStr"/>
+      <c r="UT27" t="inlineStr">
+        <is>
+          <t>CrowdStrike/CRT</t>
+        </is>
+      </c>
+      <c r="UU27" t="n">
+        <v>677</v>
+      </c>
+      <c r="UV27" t="n">
+        <v>35</v>
+      </c>
+      <c r="UW27" t="n">
+        <v>139</v>
+      </c>
+      <c r="UX27" t="inlineStr"/>
+      <c r="UY27" t="inlineStr">
+        <is>
+          <t>CrowdStrike/CRT</t>
+        </is>
+      </c>
+      <c r="UZ27" t="n">
+        <v>678</v>
+      </c>
+      <c r="VA27" t="n">
+        <v>35</v>
+      </c>
+      <c r="VB27" t="n">
+        <v>139</v>
+      </c>
+      <c r="VC27" t="inlineStr"/>
+      <c r="VD27" t="inlineStr">
+        <is>
+          <t>CrowdStrike/CRT</t>
+        </is>
+      </c>
+      <c r="VE27" t="n">
+        <v>678</v>
+      </c>
+      <c r="VF27" t="n">
+        <v>35</v>
+      </c>
+      <c r="VG27" t="n">
+        <v>139</v>
+      </c>
+      <c r="VH27" t="inlineStr"/>
+      <c r="VI27" t="inlineStr">
+        <is>
+          <t>CrowdStrike/CRT</t>
+        </is>
+      </c>
+      <c r="VJ27" t="n">
+        <v>677</v>
+      </c>
+      <c r="VK27" t="n">
+        <v>35</v>
+      </c>
+      <c r="VL27" t="n">
+        <v>139</v>
+      </c>
+      <c r="VM27" t="inlineStr"/>
+      <c r="VN27" t="inlineStr">
+        <is>
+          <t>CrowdStrike/CRT</t>
+        </is>
+      </c>
+      <c r="VO27" t="n">
+        <v>677</v>
+      </c>
+      <c r="VP27" t="n">
+        <v>35</v>
+      </c>
+      <c r="VQ27" t="n">
+        <v>139</v>
+      </c>
+      <c r="VR27" t="inlineStr"/>
+      <c r="VS27" t="inlineStr">
+        <is>
+          <t>CrowdStrike/CRT</t>
+        </is>
+      </c>
+      <c r="VT27" t="n">
+        <v>677</v>
+      </c>
+      <c r="VU27" t="n">
+        <v>35</v>
+      </c>
+      <c r="VV27" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -43906,6 +46396,96 @@
       <c r="UR28" t="n">
         <v>68</v>
       </c>
+      <c r="US28" t="inlineStr"/>
+      <c r="UT28" t="inlineStr">
+        <is>
+          <t>fastly/go-fastly</t>
+        </is>
+      </c>
+      <c r="UU28" t="n">
+        <v>146</v>
+      </c>
+      <c r="UV28" t="n">
+        <v>70</v>
+      </c>
+      <c r="UW28" t="n">
+        <v>118</v>
+      </c>
+      <c r="UX28" t="inlineStr"/>
+      <c r="UY28" t="inlineStr">
+        <is>
+          <t>fastly/go-fastly</t>
+        </is>
+      </c>
+      <c r="UZ28" t="n">
+        <v>146</v>
+      </c>
+      <c r="VA28" t="n">
+        <v>70</v>
+      </c>
+      <c r="VB28" t="n">
+        <v>118</v>
+      </c>
+      <c r="VC28" t="inlineStr"/>
+      <c r="VD28" t="inlineStr">
+        <is>
+          <t>fastly/go-fastly</t>
+        </is>
+      </c>
+      <c r="VE28" t="n">
+        <v>146</v>
+      </c>
+      <c r="VF28" t="n">
+        <v>70</v>
+      </c>
+      <c r="VG28" t="n">
+        <v>118</v>
+      </c>
+      <c r="VH28" t="inlineStr"/>
+      <c r="VI28" t="inlineStr">
+        <is>
+          <t>fastly/go-fastly</t>
+        </is>
+      </c>
+      <c r="VJ28" t="n">
+        <v>146</v>
+      </c>
+      <c r="VK28" t="n">
+        <v>70</v>
+      </c>
+      <c r="VL28" t="n">
+        <v>118</v>
+      </c>
+      <c r="VM28" t="inlineStr"/>
+      <c r="VN28" t="inlineStr">
+        <is>
+          <t>fastly/go-fastly</t>
+        </is>
+      </c>
+      <c r="VO28" t="n">
+        <v>146</v>
+      </c>
+      <c r="VP28" t="n">
+        <v>70</v>
+      </c>
+      <c r="VQ28" t="n">
+        <v>118</v>
+      </c>
+      <c r="VR28" t="inlineStr"/>
+      <c r="VS28" t="inlineStr">
+        <is>
+          <t>fastly/go-fastly</t>
+        </is>
+      </c>
+      <c r="VT28" t="n">
+        <v>146</v>
+      </c>
+      <c r="VU28" t="n">
+        <v>70</v>
+      </c>
+      <c r="VV28" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -45402,6 +47982,96 @@
       <c r="UR29" t="n">
         <v>139</v>
       </c>
+      <c r="US29" t="inlineStr"/>
+      <c r="UT29" t="inlineStr">
+        <is>
+          <t>cloudflare/cloudflared</t>
+        </is>
+      </c>
+      <c r="UU29" t="n">
+        <v>7268</v>
+      </c>
+      <c r="UV29" t="n">
+        <v>93</v>
+      </c>
+      <c r="UW29" t="n">
+        <v>713</v>
+      </c>
+      <c r="UX29" t="inlineStr"/>
+      <c r="UY29" t="inlineStr">
+        <is>
+          <t>cloudflare/cloudflared</t>
+        </is>
+      </c>
+      <c r="UZ29" t="n">
+        <v>7277</v>
+      </c>
+      <c r="VA29" t="n">
+        <v>93</v>
+      </c>
+      <c r="VB29" t="n">
+        <v>715</v>
+      </c>
+      <c r="VC29" t="inlineStr"/>
+      <c r="VD29" t="inlineStr">
+        <is>
+          <t>cloudflare/cloudflared</t>
+        </is>
+      </c>
+      <c r="VE29" t="n">
+        <v>7280</v>
+      </c>
+      <c r="VF29" t="n">
+        <v>93</v>
+      </c>
+      <c r="VG29" t="n">
+        <v>717</v>
+      </c>
+      <c r="VH29" t="inlineStr"/>
+      <c r="VI29" t="inlineStr">
+        <is>
+          <t>cloudflare/cloudflared</t>
+        </is>
+      </c>
+      <c r="VJ29" t="n">
+        <v>7284</v>
+      </c>
+      <c r="VK29" t="n">
+        <v>93</v>
+      </c>
+      <c r="VL29" t="n">
+        <v>717</v>
+      </c>
+      <c r="VM29" t="inlineStr"/>
+      <c r="VN29" t="inlineStr">
+        <is>
+          <t>cloudflare/cloudflared</t>
+        </is>
+      </c>
+      <c r="VO29" t="n">
+        <v>7290</v>
+      </c>
+      <c r="VP29" t="n">
+        <v>93</v>
+      </c>
+      <c r="VQ29" t="n">
+        <v>717</v>
+      </c>
+      <c r="VR29" t="inlineStr"/>
+      <c r="VS29" t="inlineStr">
+        <is>
+          <t>cloudflare/cloudflared</t>
+        </is>
+      </c>
+      <c r="VT29" t="n">
+        <v>7294</v>
+      </c>
+      <c r="VU29" t="n">
+        <v>93</v>
+      </c>
+      <c r="VV29" t="n">
+        <v>718</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -46898,6 +49568,96 @@
       <c r="UR30" t="n">
         <v>119</v>
       </c>
+      <c r="US30" t="inlineStr"/>
+      <c r="UT30" t="inlineStr">
+        <is>
+          <t>nutanix/blueprints</t>
+        </is>
+      </c>
+      <c r="UU30" t="n">
+        <v>71</v>
+      </c>
+      <c r="UV30" t="n">
+        <v>30</v>
+      </c>
+      <c r="UW30" t="n">
+        <v>93</v>
+      </c>
+      <c r="UX30" t="inlineStr"/>
+      <c r="UY30" t="inlineStr">
+        <is>
+          <t>nutanix/blueprints</t>
+        </is>
+      </c>
+      <c r="UZ30" t="n">
+        <v>71</v>
+      </c>
+      <c r="VA30" t="n">
+        <v>30</v>
+      </c>
+      <c r="VB30" t="n">
+        <v>93</v>
+      </c>
+      <c r="VC30" t="inlineStr"/>
+      <c r="VD30" t="inlineStr">
+        <is>
+          <t>nutanix/blueprints</t>
+        </is>
+      </c>
+      <c r="VE30" t="n">
+        <v>71</v>
+      </c>
+      <c r="VF30" t="n">
+        <v>30</v>
+      </c>
+      <c r="VG30" t="n">
+        <v>93</v>
+      </c>
+      <c r="VH30" t="inlineStr"/>
+      <c r="VI30" t="inlineStr">
+        <is>
+          <t>nutanix/blueprints</t>
+        </is>
+      </c>
+      <c r="VJ30" t="n">
+        <v>71</v>
+      </c>
+      <c r="VK30" t="n">
+        <v>30</v>
+      </c>
+      <c r="VL30" t="n">
+        <v>93</v>
+      </c>
+      <c r="VM30" t="inlineStr"/>
+      <c r="VN30" t="inlineStr">
+        <is>
+          <t>nutanix/blueprints</t>
+        </is>
+      </c>
+      <c r="VO30" t="n">
+        <v>71</v>
+      </c>
+      <c r="VP30" t="n">
+        <v>30</v>
+      </c>
+      <c r="VQ30" t="n">
+        <v>93</v>
+      </c>
+      <c r="VR30" t="inlineStr"/>
+      <c r="VS30" t="inlineStr">
+        <is>
+          <t>nutanix/blueprints</t>
+        </is>
+      </c>
+      <c r="VT30" t="n">
+        <v>71</v>
+      </c>
+      <c r="VU30" t="n">
+        <v>30</v>
+      </c>
+      <c r="VV30" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -48394,6 +51154,96 @@
       <c r="UR31" t="n">
         <v>710</v>
       </c>
+      <c r="US31" t="inlineStr"/>
+      <c r="UT31" t="inlineStr">
+        <is>
+          <t>okta/terraform-provider-okta</t>
+        </is>
+      </c>
+      <c r="UU31" t="n">
+        <v>226</v>
+      </c>
+      <c r="UV31" t="n">
+        <v>29</v>
+      </c>
+      <c r="UW31" t="n">
+        <v>195</v>
+      </c>
+      <c r="UX31" t="inlineStr"/>
+      <c r="UY31" t="inlineStr">
+        <is>
+          <t>okta/terraform-provider-okta</t>
+        </is>
+      </c>
+      <c r="UZ31" t="n">
+        <v>227</v>
+      </c>
+      <c r="VA31" t="n">
+        <v>29</v>
+      </c>
+      <c r="VB31" t="n">
+        <v>195</v>
+      </c>
+      <c r="VC31" t="inlineStr"/>
+      <c r="VD31" t="inlineStr">
+        <is>
+          <t>okta/terraform-provider-okta</t>
+        </is>
+      </c>
+      <c r="VE31" t="n">
+        <v>227</v>
+      </c>
+      <c r="VF31" t="n">
+        <v>29</v>
+      </c>
+      <c r="VG31" t="n">
+        <v>195</v>
+      </c>
+      <c r="VH31" t="inlineStr"/>
+      <c r="VI31" t="inlineStr">
+        <is>
+          <t>okta/terraform-provider-okta</t>
+        </is>
+      </c>
+      <c r="VJ31" t="n">
+        <v>227</v>
+      </c>
+      <c r="VK31" t="n">
+        <v>29</v>
+      </c>
+      <c r="VL31" t="n">
+        <v>196</v>
+      </c>
+      <c r="VM31" t="inlineStr"/>
+      <c r="VN31" t="inlineStr">
+        <is>
+          <t>okta/terraform-provider-okta</t>
+        </is>
+      </c>
+      <c r="VO31" t="n">
+        <v>227</v>
+      </c>
+      <c r="VP31" t="n">
+        <v>29</v>
+      </c>
+      <c r="VQ31" t="n">
+        <v>196</v>
+      </c>
+      <c r="VR31" t="inlineStr"/>
+      <c r="VS31" t="inlineStr">
+        <is>
+          <t>okta/terraform-provider-okta</t>
+        </is>
+      </c>
+      <c r="VT31" t="n">
+        <v>227</v>
+      </c>
+      <c r="VU31" t="n">
+        <v>29</v>
+      </c>
+      <c r="VV31" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -49890,6 +52740,96 @@
       <c r="UR32" t="n">
         <v>93</v>
       </c>
+      <c r="US32" t="inlineStr"/>
+      <c r="UT32" t="inlineStr">
+        <is>
+          <t>PaloAltoNetworks/ansible-pan</t>
+        </is>
+      </c>
+      <c r="UU32" t="n">
+        <v>223</v>
+      </c>
+      <c r="UV32" t="n">
+        <v>66</v>
+      </c>
+      <c r="UW32" t="n">
+        <v>163</v>
+      </c>
+      <c r="UX32" t="inlineStr"/>
+      <c r="UY32" t="inlineStr">
+        <is>
+          <t>PaloAltoNetworks/ansible-pan</t>
+        </is>
+      </c>
+      <c r="UZ32" t="n">
+        <v>223</v>
+      </c>
+      <c r="VA32" t="n">
+        <v>66</v>
+      </c>
+      <c r="VB32" t="n">
+        <v>163</v>
+      </c>
+      <c r="VC32" t="inlineStr"/>
+      <c r="VD32" t="inlineStr">
+        <is>
+          <t>PaloAltoNetworks/ansible-pan</t>
+        </is>
+      </c>
+      <c r="VE32" t="n">
+        <v>223</v>
+      </c>
+      <c r="VF32" t="n">
+        <v>66</v>
+      </c>
+      <c r="VG32" t="n">
+        <v>163</v>
+      </c>
+      <c r="VH32" t="inlineStr"/>
+      <c r="VI32" t="inlineStr">
+        <is>
+          <t>PaloAltoNetworks/ansible-pan</t>
+        </is>
+      </c>
+      <c r="VJ32" t="n">
+        <v>223</v>
+      </c>
+      <c r="VK32" t="n">
+        <v>66</v>
+      </c>
+      <c r="VL32" t="n">
+        <v>163</v>
+      </c>
+      <c r="VM32" t="inlineStr"/>
+      <c r="VN32" t="inlineStr">
+        <is>
+          <t>PaloAltoNetworks/ansible-pan</t>
+        </is>
+      </c>
+      <c r="VO32" t="n">
+        <v>223</v>
+      </c>
+      <c r="VP32" t="n">
+        <v>66</v>
+      </c>
+      <c r="VQ32" t="n">
+        <v>163</v>
+      </c>
+      <c r="VR32" t="inlineStr"/>
+      <c r="VS32" t="inlineStr">
+        <is>
+          <t>PaloAltoNetworks/ansible-pan</t>
+        </is>
+      </c>
+      <c r="VT32" t="n">
+        <v>223</v>
+      </c>
+      <c r="VU32" t="n">
+        <v>66</v>
+      </c>
+      <c r="VV32" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -51386,6 +54326,96 @@
       <c r="UR33" t="n">
         <v>195</v>
       </c>
+      <c r="US33" t="inlineStr"/>
+      <c r="UT33" t="inlineStr">
+        <is>
+          <t>tenable/pyTenable</t>
+        </is>
+      </c>
+      <c r="UU33" t="n">
+        <v>311</v>
+      </c>
+      <c r="UV33" t="n">
+        <v>47</v>
+      </c>
+      <c r="UW33" t="n">
+        <v>162</v>
+      </c>
+      <c r="UX33" t="inlineStr"/>
+      <c r="UY33" t="inlineStr">
+        <is>
+          <t>tenable/pyTenable</t>
+        </is>
+      </c>
+      <c r="UZ33" t="n">
+        <v>311</v>
+      </c>
+      <c r="VA33" t="n">
+        <v>47</v>
+      </c>
+      <c r="VB33" t="n">
+        <v>163</v>
+      </c>
+      <c r="VC33" t="inlineStr"/>
+      <c r="VD33" t="inlineStr">
+        <is>
+          <t>tenable/pyTenable</t>
+        </is>
+      </c>
+      <c r="VE33" t="n">
+        <v>311</v>
+      </c>
+      <c r="VF33" t="n">
+        <v>47</v>
+      </c>
+      <c r="VG33" t="n">
+        <v>163</v>
+      </c>
+      <c r="VH33" t="inlineStr"/>
+      <c r="VI33" t="inlineStr">
+        <is>
+          <t>tenable/pyTenable</t>
+        </is>
+      </c>
+      <c r="VJ33" t="n">
+        <v>312</v>
+      </c>
+      <c r="VK33" t="n">
+        <v>47</v>
+      </c>
+      <c r="VL33" t="n">
+        <v>163</v>
+      </c>
+      <c r="VM33" t="inlineStr"/>
+      <c r="VN33" t="inlineStr">
+        <is>
+          <t>tenable/pyTenable</t>
+        </is>
+      </c>
+      <c r="VO33" t="n">
+        <v>312</v>
+      </c>
+      <c r="VP33" t="n">
+        <v>47</v>
+      </c>
+      <c r="VQ33" t="n">
+        <v>163</v>
+      </c>
+      <c r="VR33" t="inlineStr"/>
+      <c r="VS33" t="inlineStr">
+        <is>
+          <t>tenable/pyTenable</t>
+        </is>
+      </c>
+      <c r="VT33" t="n">
+        <v>312</v>
+      </c>
+      <c r="VU33" t="n">
+        <v>47</v>
+      </c>
+      <c r="VV33" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -52881,6 +55911,96 @@
       </c>
       <c r="UR34" t="n">
         <v>163</v>
+      </c>
+      <c r="US34" t="inlineStr"/>
+      <c r="UT34" t="inlineStr">
+        <is>
+          <t>procore/js-sdk</t>
+        </is>
+      </c>
+      <c r="UU34" t="n">
+        <v>13</v>
+      </c>
+      <c r="UV34" t="n">
+        <v>156</v>
+      </c>
+      <c r="UW34" t="n">
+        <v>7</v>
+      </c>
+      <c r="UX34" t="inlineStr"/>
+      <c r="UY34" t="inlineStr">
+        <is>
+          <t>procore/js-sdk</t>
+        </is>
+      </c>
+      <c r="UZ34" t="n">
+        <v>13</v>
+      </c>
+      <c r="VA34" t="n">
+        <v>156</v>
+      </c>
+      <c r="VB34" t="n">
+        <v>7</v>
+      </c>
+      <c r="VC34" t="inlineStr"/>
+      <c r="VD34" t="inlineStr">
+        <is>
+          <t>procore/js-sdk</t>
+        </is>
+      </c>
+      <c r="VE34" t="n">
+        <v>13</v>
+      </c>
+      <c r="VF34" t="n">
+        <v>156</v>
+      </c>
+      <c r="VG34" t="n">
+        <v>7</v>
+      </c>
+      <c r="VH34" t="inlineStr"/>
+      <c r="VI34" t="inlineStr">
+        <is>
+          <t>procore/js-sdk</t>
+        </is>
+      </c>
+      <c r="VJ34" t="n">
+        <v>13</v>
+      </c>
+      <c r="VK34" t="n">
+        <v>156</v>
+      </c>
+      <c r="VL34" t="n">
+        <v>7</v>
+      </c>
+      <c r="VM34" t="inlineStr"/>
+      <c r="VN34" t="inlineStr">
+        <is>
+          <t>procore/js-sdk</t>
+        </is>
+      </c>
+      <c r="VO34" t="n">
+        <v>13</v>
+      </c>
+      <c r="VP34" t="n">
+        <v>156</v>
+      </c>
+      <c r="VQ34" t="n">
+        <v>7</v>
+      </c>
+      <c r="VR34" t="inlineStr"/>
+      <c r="VS34" t="inlineStr">
+        <is>
+          <t>procore/js-sdk</t>
+        </is>
+      </c>
+      <c r="VT34" t="n">
+        <v>13</v>
+      </c>
+      <c r="VU34" t="n">
+        <v>156</v>
+      </c>
+      <c r="VV34" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -53468,6 +56588,96 @@
       <c r="UR35" t="n">
         <v>162</v>
       </c>
+      <c r="US35" t="inlineStr"/>
+      <c r="UT35" t="inlineStr">
+        <is>
+          <t>ringcentral/ringcentral-web-phone</t>
+        </is>
+      </c>
+      <c r="UU35" t="n">
+        <v>102</v>
+      </c>
+      <c r="UV35" t="n">
+        <v>26</v>
+      </c>
+      <c r="UW35" t="n">
+        <v>73</v>
+      </c>
+      <c r="UX35" t="inlineStr"/>
+      <c r="UY35" t="inlineStr">
+        <is>
+          <t>ringcentral/ringcentral-web-phone</t>
+        </is>
+      </c>
+      <c r="UZ35" t="n">
+        <v>102</v>
+      </c>
+      <c r="VA35" t="n">
+        <v>26</v>
+      </c>
+      <c r="VB35" t="n">
+        <v>73</v>
+      </c>
+      <c r="VC35" t="inlineStr"/>
+      <c r="VD35" t="inlineStr">
+        <is>
+          <t>ringcentral/ringcentral-web-phone</t>
+        </is>
+      </c>
+      <c r="VE35" t="n">
+        <v>102</v>
+      </c>
+      <c r="VF35" t="n">
+        <v>26</v>
+      </c>
+      <c r="VG35" t="n">
+        <v>73</v>
+      </c>
+      <c r="VH35" t="inlineStr"/>
+      <c r="VI35" t="inlineStr">
+        <is>
+          <t>ringcentral/ringcentral-web-phone</t>
+        </is>
+      </c>
+      <c r="VJ35" t="n">
+        <v>102</v>
+      </c>
+      <c r="VK35" t="n">
+        <v>26</v>
+      </c>
+      <c r="VL35" t="n">
+        <v>73</v>
+      </c>
+      <c r="VM35" t="inlineStr"/>
+      <c r="VN35" t="inlineStr">
+        <is>
+          <t>ringcentral/ringcentral-web-phone</t>
+        </is>
+      </c>
+      <c r="VO35" t="n">
+        <v>102</v>
+      </c>
+      <c r="VP35" t="n">
+        <v>26</v>
+      </c>
+      <c r="VQ35" t="n">
+        <v>73</v>
+      </c>
+      <c r="VR35" t="inlineStr"/>
+      <c r="VS35" t="inlineStr">
+        <is>
+          <t>ringcentral/ringcentral-web-phone</t>
+        </is>
+      </c>
+      <c r="VT35" t="n">
+        <v>102</v>
+      </c>
+      <c r="VU35" t="n">
+        <v>26</v>
+      </c>
+      <c r="VV35" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -54054,6 +57264,96 @@
       <c r="UR36" t="n">
         <v>7</v>
       </c>
+      <c r="US36" t="inlineStr"/>
+      <c r="UT36" t="inlineStr">
+        <is>
+          <t>hashicorp/consul-k8s</t>
+        </is>
+      </c>
+      <c r="UU36" t="n">
+        <v>637</v>
+      </c>
+      <c r="UV36" t="n">
+        <v>49</v>
+      </c>
+      <c r="UW36" t="n">
+        <v>312</v>
+      </c>
+      <c r="UX36" t="inlineStr"/>
+      <c r="UY36" t="inlineStr">
+        <is>
+          <t>hashicorp/consul-k8s</t>
+        </is>
+      </c>
+      <c r="UZ36" t="n">
+        <v>637</v>
+      </c>
+      <c r="VA36" t="n">
+        <v>49</v>
+      </c>
+      <c r="VB36" t="n">
+        <v>312</v>
+      </c>
+      <c r="VC36" t="inlineStr"/>
+      <c r="VD36" t="inlineStr">
+        <is>
+          <t>hashicorp/consul-k8s</t>
+        </is>
+      </c>
+      <c r="VE36" t="n">
+        <v>637</v>
+      </c>
+      <c r="VF36" t="n">
+        <v>49</v>
+      </c>
+      <c r="VG36" t="n">
+        <v>312</v>
+      </c>
+      <c r="VH36" t="inlineStr"/>
+      <c r="VI36" t="inlineStr">
+        <is>
+          <t>hashicorp/consul-k8s</t>
+        </is>
+      </c>
+      <c r="VJ36" t="n">
+        <v>637</v>
+      </c>
+      <c r="VK36" t="n">
+        <v>49</v>
+      </c>
+      <c r="VL36" t="n">
+        <v>314</v>
+      </c>
+      <c r="VM36" t="inlineStr"/>
+      <c r="VN36" t="inlineStr">
+        <is>
+          <t>hashicorp/consul-k8s</t>
+        </is>
+      </c>
+      <c r="VO36" t="n">
+        <v>637</v>
+      </c>
+      <c r="VP36" t="n">
+        <v>49</v>
+      </c>
+      <c r="VQ36" t="n">
+        <v>314</v>
+      </c>
+      <c r="VR36" t="inlineStr"/>
+      <c r="VS36" t="inlineStr">
+        <is>
+          <t>hashicorp/consul-k8s</t>
+        </is>
+      </c>
+      <c r="VT36" t="n">
+        <v>637</v>
+      </c>
+      <c r="VU36" t="n">
+        <v>49</v>
+      </c>
+      <c r="VV36" t="n">
+        <v>314</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -54640,6 +57940,96 @@
       <c r="UR37" t="n">
         <v>73</v>
       </c>
+      <c r="US37" t="inlineStr"/>
+      <c r="UT37" t="inlineStr">
+        <is>
+          <t>hashicorp/terraform-provider-google-beta</t>
+        </is>
+      </c>
+      <c r="UU37" t="n">
+        <v>245</v>
+      </c>
+      <c r="UV37" t="n">
+        <v>27</v>
+      </c>
+      <c r="UW37" t="n">
+        <v>244</v>
+      </c>
+      <c r="UX37" t="inlineStr"/>
+      <c r="UY37" t="inlineStr">
+        <is>
+          <t>hashicorp/terraform-provider-google-beta</t>
+        </is>
+      </c>
+      <c r="UZ37" t="n">
+        <v>245</v>
+      </c>
+      <c r="VA37" t="n">
+        <v>27</v>
+      </c>
+      <c r="VB37" t="n">
+        <v>244</v>
+      </c>
+      <c r="VC37" t="inlineStr"/>
+      <c r="VD37" t="inlineStr">
+        <is>
+          <t>hashicorp/terraform-provider-google-beta</t>
+        </is>
+      </c>
+      <c r="VE37" t="n">
+        <v>245</v>
+      </c>
+      <c r="VF37" t="n">
+        <v>27</v>
+      </c>
+      <c r="VG37" t="n">
+        <v>244</v>
+      </c>
+      <c r="VH37" t="inlineStr"/>
+      <c r="VI37" t="inlineStr">
+        <is>
+          <t>hashicorp/terraform-provider-google-beta</t>
+        </is>
+      </c>
+      <c r="VJ37" t="n">
+        <v>246</v>
+      </c>
+      <c r="VK37" t="n">
+        <v>27</v>
+      </c>
+      <c r="VL37" t="n">
+        <v>244</v>
+      </c>
+      <c r="VM37" t="inlineStr"/>
+      <c r="VN37" t="inlineStr">
+        <is>
+          <t>hashicorp/terraform-provider-google-beta</t>
+        </is>
+      </c>
+      <c r="VO37" t="n">
+        <v>246</v>
+      </c>
+      <c r="VP37" t="n">
+        <v>27</v>
+      </c>
+      <c r="VQ37" t="n">
+        <v>244</v>
+      </c>
+      <c r="VR37" t="inlineStr"/>
+      <c r="VS37" t="inlineStr">
+        <is>
+          <t>hashicorp/terraform-provider-google-beta</t>
+        </is>
+      </c>
+      <c r="VT37" t="n">
+        <v>246</v>
+      </c>
+      <c r="VU37" t="n">
+        <v>27</v>
+      </c>
+      <c r="VV37" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -55226,6 +58616,36 @@
       <c r="UR38" t="n">
         <v>82</v>
       </c>
+      <c r="US38" t="inlineStr"/>
+      <c r="UT38" t="inlineStr"/>
+      <c r="UU38" t="inlineStr"/>
+      <c r="UV38" t="inlineStr"/>
+      <c r="UW38" t="inlineStr"/>
+      <c r="UX38" t="inlineStr"/>
+      <c r="UY38" t="inlineStr"/>
+      <c r="UZ38" t="inlineStr"/>
+      <c r="VA38" t="inlineStr"/>
+      <c r="VB38" t="inlineStr"/>
+      <c r="VC38" t="inlineStr"/>
+      <c r="VD38" t="inlineStr"/>
+      <c r="VE38" t="inlineStr"/>
+      <c r="VF38" t="inlineStr"/>
+      <c r="VG38" t="inlineStr"/>
+      <c r="VH38" t="inlineStr"/>
+      <c r="VI38" t="inlineStr"/>
+      <c r="VJ38" t="inlineStr"/>
+      <c r="VK38" t="inlineStr"/>
+      <c r="VL38" t="inlineStr"/>
+      <c r="VM38" t="inlineStr"/>
+      <c r="VN38" t="inlineStr"/>
+      <c r="VO38" t="inlineStr"/>
+      <c r="VP38" t="inlineStr"/>
+      <c r="VQ38" t="inlineStr"/>
+      <c r="VR38" t="inlineStr"/>
+      <c r="VS38" t="inlineStr"/>
+      <c r="VT38" t="inlineStr"/>
+      <c r="VU38" t="inlineStr"/>
+      <c r="VV38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -55812,6 +59232,36 @@
       <c r="UR39" t="n">
         <v>908</v>
       </c>
+      <c r="US39" t="inlineStr"/>
+      <c r="UT39" t="inlineStr"/>
+      <c r="UU39" t="inlineStr"/>
+      <c r="UV39" t="inlineStr"/>
+      <c r="UW39" t="inlineStr"/>
+      <c r="UX39" t="inlineStr"/>
+      <c r="UY39" t="inlineStr"/>
+      <c r="UZ39" t="inlineStr"/>
+      <c r="VA39" t="inlineStr"/>
+      <c r="VB39" t="inlineStr"/>
+      <c r="VC39" t="inlineStr"/>
+      <c r="VD39" t="inlineStr"/>
+      <c r="VE39" t="inlineStr"/>
+      <c r="VF39" t="inlineStr"/>
+      <c r="VG39" t="inlineStr"/>
+      <c r="VH39" t="inlineStr"/>
+      <c r="VI39" t="inlineStr"/>
+      <c r="VJ39" t="inlineStr"/>
+      <c r="VK39" t="inlineStr"/>
+      <c r="VL39" t="inlineStr"/>
+      <c r="VM39" t="inlineStr"/>
+      <c r="VN39" t="inlineStr"/>
+      <c r="VO39" t="inlineStr"/>
+      <c r="VP39" t="inlineStr"/>
+      <c r="VQ39" t="inlineStr"/>
+      <c r="VR39" t="inlineStr"/>
+      <c r="VS39" t="inlineStr"/>
+      <c r="VT39" t="inlineStr"/>
+      <c r="VU39" t="inlineStr"/>
+      <c r="VV39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
